--- a/design/数据库设计.xlsx
+++ b/design/数据库设计.xlsx
@@ -1,28 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\fuck\git\danyuan-application\design\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="14535" windowHeight="10575" tabRatio="864" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="14535" windowHeight="10575" tabRatio="864" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="版本记录" sheetId="7" r:id="rId1"/>
     <sheet name="后台管理数据库表结构设计" sheetId="3" r:id="rId2"/>
     <sheet name="爬虫管理" sheetId="11" r:id="rId3"/>
     <sheet name="数据流转表结构设计" sheetId="1" r:id="rId4"/>
-    <sheet name="场景设计数据库表结构设计" sheetId="8" r:id="rId5"/>
-    <sheet name="资源共享平台" sheetId="9" r:id="rId6"/>
-    <sheet name="任务管理" sheetId="10" r:id="rId7"/>
+    <sheet name="资源共享平台" sheetId="9" r:id="rId5"/>
+    <sheet name="任务管理" sheetId="10" r:id="rId6"/>
+    <sheet name="场景设计数据库表结构设计" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">版本记录!$A$1:$I$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">场景设计数据库表结构设计!$A$1:$K$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">场景设计数据库表结构设计!$A$1:$K$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">后台管理数据库表结构设计!$A$1:$M$76</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">爬虫管理!$A$1:$Q$59</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">任务管理!$A$1:$T$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">任务管理!$A$1:$T$67</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">数据流转表结构设计!$A$1:$U$54</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">资源共享平台!$A$1:$T$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">资源共享平台!$A$1:$T$67</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -806,9 +811,6 @@
   </si>
   <si>
     <t>姓名</t>
-  </si>
-  <si>
-    <t>性别</t>
   </si>
   <si>
     <t>年龄</t>
@@ -2184,11 +2186,15 @@
     <t>规则id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -2982,11 +2988,42 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3035,7 +3072,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3070,7 +3107,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3329,7 +3366,7 @@
     <row r="4" spans="1:11">
       <c r="A4" s="33"/>
       <c r="B4" s="74" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C4" s="75"/>
       <c r="D4" s="75"/>
@@ -3785,8 +3822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A46" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A55" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3838,10 +3875,10 @@
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1">
       <c r="A4" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1">
@@ -3862,7 +3899,7 @@
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1">
       <c r="A9" s="29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B9"/>
     </row>
@@ -3871,7 +3908,7 @@
         <v>151</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C10" s="63" t="s">
         <v>8</v>
@@ -3897,13 +3934,13 @@
         <v>155</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>156</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>157</v>
@@ -3917,7 +3954,7 @@
     </row>
     <row r="12" spans="1:13" s="29" customFormat="1">
       <c r="B12" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>160</v>
@@ -3929,30 +3966,30 @@
         <v>162</v>
       </c>
       <c r="F12" s="50" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G12" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>298</v>
-      </c>
       <c r="I12" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="29" customFormat="1">
       <c r="B13" s="30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C13" s="30" t="s">
         <v>123</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>43</v>
@@ -3961,13 +3998,13 @@
         <v>145</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>145</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>44</v>
@@ -3991,16 +4028,16 @@
     <row r="15" spans="1:13" s="64" customFormat="1"/>
     <row r="16" spans="1:13" s="2" customFormat="1">
       <c r="A16" s="61" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="63" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -4008,13 +4045,13 @@
         <v>22</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D17" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="E17" s="30" t="s">
         <v>280</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>281</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>154</v>
@@ -4023,13 +4060,13 @@
         <v>155</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>156</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>157</v>
@@ -4037,48 +4074,48 @@
     </row>
     <row r="18" spans="1:13">
       <c r="B18" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D18" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="E18" s="30" t="s">
         <v>282</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>283</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>162</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H18" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I18" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="I18" s="10" t="s">
-        <v>298</v>
-      </c>
       <c r="J18" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="B19" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>123</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>43</v>
@@ -4087,13 +4124,13 @@
         <v>145</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>145</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K19" s="11" t="s">
         <v>44</v>
@@ -4156,13 +4193,13 @@
         <v>155</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>156</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M23" s="10" t="s">
         <v>157</v>
@@ -4173,7 +4210,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>172</v>
@@ -4182,39 +4219,39 @@
         <v>173</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H24" s="10" t="s">
         <v>161</v>
       </c>
       <c r="I24" s="50" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J24" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="K24" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="K24" s="10" t="s">
-        <v>298</v>
-      </c>
       <c r="L24" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M24" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="B25" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>43</v>
@@ -4232,13 +4269,13 @@
         <v>145</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K25" s="10" t="s">
         <v>145</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M25" s="11" t="s">
         <v>44</v>
@@ -4269,21 +4306,21 @@
     <row r="27" spans="1:13" s="1" customFormat="1"/>
     <row r="28" spans="1:13" s="1" customFormat="1">
       <c r="A28" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="5" customFormat="1">
       <c r="A29" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>179</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -4291,22 +4328,22 @@
         <v>22</v>
       </c>
       <c r="C30" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D30" s="10" t="s">
         <v>240</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>241</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>155</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>156</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>157</v>
@@ -4317,30 +4354,30 @@
         <v>13</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E31" s="50" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F31" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="G31" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="G31" s="10" t="s">
-        <v>298</v>
-      </c>
       <c r="H31" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I31" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="B32" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>43</v>
@@ -4352,13 +4389,13 @@
         <v>145</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>145</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I32" s="11" t="s">
         <v>44</v>
@@ -4407,13 +4444,13 @@
         <v>155</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>156</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>157</v>
@@ -4430,24 +4467,24 @@
         <v>183</v>
       </c>
       <c r="E37" s="50" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F37" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="G37" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="G37" s="10" t="s">
-        <v>298</v>
-      </c>
       <c r="H37" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I37" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="B38" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>43</v>
@@ -4459,13 +4496,13 @@
         <v>145</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>145</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I38" s="11" t="s">
         <v>44</v>
@@ -4487,7 +4524,7 @@
     </row>
     <row r="41" spans="1:10" s="6" customFormat="1">
       <c r="A41" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B41" s="17" t="s">
         <v>185</v>
@@ -4496,7 +4533,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -4507,19 +4544,19 @@
         <v>187</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>155</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>156</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>157</v>
@@ -4533,30 +4570,30 @@
         <v>189</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E43" s="50" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F43" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="G43" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="G43" s="10" t="s">
-        <v>298</v>
-      </c>
       <c r="H43" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I43" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="B44" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>43</v>
@@ -4565,13 +4602,13 @@
         <v>145</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>145</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I44" s="11" t="s">
         <v>44</v>
@@ -4595,7 +4632,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="6" customFormat="1">
@@ -4629,13 +4666,13 @@
         <v>155</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H48" s="10" t="s">
         <v>156</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J48" s="10" t="s">
         <v>157</v>
@@ -4655,27 +4692,27 @@
         <v>191</v>
       </c>
       <c r="F49" s="50" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G49" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="H49" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="H49" s="10" t="s">
-        <v>298</v>
-      </c>
       <c r="I49" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J49" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="B50" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>43</v>
@@ -4687,13 +4724,13 @@
         <v>145</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H50" s="10" t="s">
         <v>145</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J50" s="11" t="s">
         <v>44</v>
@@ -4718,7 +4755,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="6" customFormat="1">
@@ -4752,13 +4789,13 @@
         <v>155</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H54" s="10" t="s">
         <v>156</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J54" s="10" t="s">
         <v>157</v>
@@ -4778,27 +4815,27 @@
         <v>200</v>
       </c>
       <c r="F55" s="50" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G55" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="H55" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="H55" s="10" t="s">
-        <v>298</v>
-      </c>
       <c r="I55" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J55" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="B56" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>43</v>
@@ -4810,13 +4847,13 @@
         <v>145</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H56" s="10" t="s">
         <v>145</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J56" s="11" t="s">
         <v>44</v>
@@ -4841,7 +4878,7 @@
     </row>
     <row r="59" spans="1:10" s="6" customFormat="1">
       <c r="A59" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B59" s="17" t="s">
         <v>202</v>
@@ -4867,13 +4904,13 @@
         <v>155</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G60" s="10" t="s">
         <v>156</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I60" s="10" t="s">
         <v>157</v>
@@ -4890,42 +4927,42 @@
         <v>207</v>
       </c>
       <c r="E61" s="50" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F61" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="G61" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="G61" s="10" t="s">
-        <v>298</v>
-      </c>
       <c r="H61" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I61" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="B62" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>145</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G62" s="10" t="s">
         <v>145</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I62" s="11" t="s">
         <v>44</v>
@@ -4949,7 +4986,7 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="66" spans="1:13" s="2" customFormat="1">
@@ -4980,25 +5017,25 @@
         <v>212</v>
       </c>
       <c r="F67" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="G67" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="G67" s="10" t="s">
-        <v>214</v>
-      </c>
       <c r="H67" s="30" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I67" s="10" t="s">
         <v>155</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K67" s="10" t="s">
         <v>156</v>
       </c>
       <c r="L67" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M67" s="10" t="s">
         <v>157</v>
@@ -5009,42 +5046,42 @@
         <v>13</v>
       </c>
       <c r="C68" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D68" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="E68" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="E68" s="10" t="s">
+      <c r="F68" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="F68" s="10" t="s">
+      <c r="G68" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="G68" s="10" t="s">
-        <v>219</v>
-      </c>
       <c r="H68" s="30" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I68" s="50" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J68" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="K68" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="K68" s="10" t="s">
-        <v>298</v>
-      </c>
       <c r="L68" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M68" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="B69" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>43</v>
@@ -5059,22 +5096,22 @@
         <v>90</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H69" s="30" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I69" s="10" t="s">
         <v>145</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K69" s="10" t="s">
         <v>145</v>
       </c>
       <c r="L69" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M69" s="11" t="s">
         <v>44</v>
@@ -5085,7 +5122,7 @@
         <v>48</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="10"/>
@@ -5102,21 +5139,21 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="55" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C72" t="s">
         <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -5124,7 +5161,7 @@
         <v>22</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>204</v>
@@ -5133,13 +5170,13 @@
         <v>155</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G73" s="10" t="s">
         <v>156</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I73" s="10" t="s">
         <v>157</v>
@@ -5150,48 +5187,48 @@
         <v>13</v>
       </c>
       <c r="C74" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D74" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="D74" s="11" t="s">
-        <v>226</v>
-      </c>
       <c r="E74" s="50" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F74" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="G74" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="G74" s="10" t="s">
-        <v>298</v>
-      </c>
       <c r="H74" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I74" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="B75" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>145</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G75" s="10" t="s">
         <v>145</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I75" s="11" t="s">
         <v>44</v>
@@ -5202,7 +5239,7 @@
         <v>48</v>
       </c>
       <c r="C76" s="86" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D76" s="87"/>
       <c r="E76" s="11"/>
@@ -5228,7 +5265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C10" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="C1" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -5261,7 +5298,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1">
@@ -5269,7 +5306,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>149</v>
@@ -5280,7 +5317,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1">
@@ -5293,42 +5330,42 @@
     </row>
     <row r="6" spans="1:15" s="34" customFormat="1">
       <c r="A6" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C6" s="66" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="67" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="B7" s="50" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J7" s="10" t="s">
         <v>4</v>
@@ -5337,13 +5374,13 @@
         <v>155</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M7" s="10" t="s">
         <v>156</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O7" s="10" t="s">
         <v>157</v>
@@ -5354,43 +5391,43 @@
         <v>13</v>
       </c>
       <c r="C8" s="50" t="s">
+        <v>303</v>
+      </c>
+      <c r="D8" s="50" t="s">
         <v>304</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="E8" s="50" t="s">
         <v>305</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="F8" s="50" t="s">
         <v>306</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="G8" s="50" t="s">
         <v>307</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="H8" s="50" t="s">
         <v>308</v>
       </c>
-      <c r="H8" s="50" t="s">
+      <c r="I8" s="50" t="s">
         <v>309</v>
-      </c>
-      <c r="I8" s="50" t="s">
-        <v>310</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>161</v>
       </c>
       <c r="K8" s="50" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L8" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="M8" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="M8" s="10" t="s">
-        <v>298</v>
-      </c>
       <c r="N8" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O8" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -5398,25 +5435,25 @@
         <v>16</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>92</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>163</v>
@@ -5425,16 +5462,16 @@
         <v>145</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M9" s="10" t="s">
         <v>145</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O9" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -5460,42 +5497,42 @@
     <row r="11" spans="1:15" s="4" customFormat="1"/>
     <row r="12" spans="1:15" s="49" customFormat="1">
       <c r="A12" s="56" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C12" s="66" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="68" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="B13" s="50" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E13" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>330</v>
-      </c>
       <c r="G13" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>4</v>
@@ -5504,13 +5541,13 @@
         <v>155</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M13" s="10" t="s">
         <v>156</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O13" s="10" t="s">
         <v>157</v>
@@ -5521,43 +5558,43 @@
         <v>13</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F14" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="H14" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>336</v>
-      </c>
       <c r="I14" s="50" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J14" s="10" t="s">
         <v>161</v>
       </c>
       <c r="K14" s="50" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L14" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="M14" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="M14" s="10" t="s">
-        <v>298</v>
-      </c>
       <c r="N14" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O14" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -5568,19 +5605,19 @@
         <v>16</v>
       </c>
       <c r="D15" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>334</v>
-      </c>
       <c r="F15" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>92</v>
@@ -5592,16 +5629,16 @@
         <v>145</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M15" s="10" t="s">
         <v>145</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O15" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -5610,7 +5647,7 @@
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -5628,48 +5665,48 @@
     </row>
     <row r="18" spans="1:17" s="6" customFormat="1">
       <c r="A18" s="16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C18" s="67" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="B19" s="50" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C19" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="E19" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="F19" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="G19" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="H19" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="I19" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="J19" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="K19" s="10" t="s">
         <v>345</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>346</v>
       </c>
       <c r="L19" s="10" t="s">
         <v>4</v>
@@ -5678,13 +5715,13 @@
         <v>155</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O19" s="10" t="s">
         <v>156</v>
       </c>
       <c r="P19" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Q19" s="10" t="s">
         <v>157</v>
@@ -5695,49 +5732,49 @@
         <v>13</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D20" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="F20" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="G20" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="H20" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="I20" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="J20" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="K20" s="10" t="s">
         <v>355</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>356</v>
       </c>
       <c r="L20" s="10" t="s">
         <v>161</v>
       </c>
       <c r="M20" s="50" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N20" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="O20" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="O20" s="10" t="s">
-        <v>298</v>
-      </c>
       <c r="P20" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q20" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -5751,25 +5788,25 @@
         <v>16</v>
       </c>
       <c r="E21" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="G21" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="H21" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="G21" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="H21" s="11" t="s">
+      <c r="I21" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="J21" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="J21" s="11" t="s">
-        <v>361</v>
-      </c>
       <c r="K21" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L21" s="10" t="s">
         <v>163</v>
@@ -5778,16 +5815,16 @@
         <v>145</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O21" s="10" t="s">
         <v>145</v>
       </c>
       <c r="P21" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q21" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -5815,104 +5852,104 @@
     <row r="23" spans="1:17" s="1" customFormat="1"/>
     <row r="24" spans="1:17" s="4" customFormat="1">
       <c r="A24" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C24" s="67" t="s">
+        <v>392</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>393</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="B25" s="50" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="O25" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="B26" s="50" t="s">
+        <v>452</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="D26" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="F26" s="50" t="s">
+        <v>347</v>
+      </c>
+      <c r="G26" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="H26" s="50" t="s">
         <v>454</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="E26" s="10" t="s">
+      <c r="I26" s="50" t="s">
         <v>449</v>
       </c>
-      <c r="F26" s="50" t="s">
-        <v>348</v>
-      </c>
-      <c r="G26" s="50" t="s">
-        <v>444</v>
-      </c>
-      <c r="H26" s="50" t="s">
+      <c r="J26" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="I26" s="50" t="s">
-        <v>450</v>
-      </c>
-      <c r="J26" s="10" t="s">
+      <c r="K26" s="50" t="s">
         <v>456</v>
       </c>
-      <c r="K26" s="50" t="s">
+      <c r="L26" s="50" t="s">
         <v>457</v>
       </c>
-      <c r="L26" s="50" t="s">
+      <c r="M26" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="M26" s="10" t="s">
+      <c r="N26" s="30" t="s">
         <v>459</v>
       </c>
-      <c r="N26" s="30" t="s">
+      <c r="O26" s="30" t="s">
         <v>460</v>
-      </c>
-      <c r="O26" s="30" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -5947,16 +5984,16 @@
         <v>145</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M27" s="10" t="s">
         <v>145</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O27" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -5986,13 +6023,13 @@
         <v>6</v>
       </c>
       <c r="B31" s="65" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C31" s="66" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="67" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -6030,16 +6067,16 @@
         <v>155</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N32" s="10" t="s">
         <v>156</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -6047,7 +6084,7 @@
         <v>13</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>34</v>
@@ -6071,22 +6108,22 @@
         <v>40</v>
       </c>
       <c r="K33" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="L33" s="50" t="s">
         <v>365</v>
       </c>
-      <c r="L33" s="50" t="s">
+      <c r="M33" s="50" t="s">
         <v>366</v>
       </c>
-      <c r="M33" s="50" t="s">
+      <c r="N33" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="N33" s="30" t="s">
+      <c r="O33" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="O33" s="30" t="s">
-        <v>369</v>
-      </c>
       <c r="P33" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -6124,16 +6161,16 @@
         <v>145</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N34" s="10" t="s">
         <v>145</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P34" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -6159,16 +6196,16 @@
     </row>
     <row r="37" spans="1:16" s="66" customFormat="1">
       <c r="A37" s="55" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B37" s="55" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C37" s="66" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="67" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -6176,17 +6213,17 @@
         <v>22</v>
       </c>
       <c r="C38" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="D38" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="D38" s="30" t="s">
-        <v>255</v>
-      </c>
       <c r="E38" s="30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H38" s="10" t="s">
         <v>4</v>
@@ -6195,52 +6232,52 @@
         <v>155</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K38" s="10" t="s">
         <v>156</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="39" spans="1:16">
       <c r="B39" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C39" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="D39" s="30" t="s">
         <v>428</v>
       </c>
-      <c r="D39" s="30" t="s">
+      <c r="E39" s="30" t="s">
         <v>429</v>
-      </c>
-      <c r="E39" s="30" t="s">
-        <v>430</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="30" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H39" s="10" t="s">
         <v>161</v>
       </c>
       <c r="I39" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="J39" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="J39" s="10" t="s">
+      <c r="K39" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="K39" s="10" t="s">
+      <c r="L39" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="L39" s="10" t="s">
+      <c r="M39" s="10" t="s">
         <v>426</v>
-      </c>
-      <c r="M39" s="10" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -6248,13 +6285,13 @@
         <v>16</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="10" t="s">
@@ -6267,16 +6304,16 @@
         <v>145</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K40" s="10" t="s">
         <v>145</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M40" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -6303,7 +6340,7 @@
         <v>49</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>8</v>
@@ -6320,25 +6357,25 @@
         <v>51</v>
       </c>
       <c r="D44" s="50" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>52</v>
       </c>
       <c r="G44" s="50" t="s">
+        <v>260</v>
+      </c>
+      <c r="H44" s="50" t="s">
         <v>261</v>
       </c>
-      <c r="H44" s="50" t="s">
+      <c r="I44" s="50" t="s">
         <v>262</v>
       </c>
-      <c r="I44" s="50" t="s">
-        <v>263</v>
-      </c>
       <c r="J44" s="50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K44" s="10" t="s">
         <v>4</v>
@@ -6347,16 +6384,16 @@
         <v>155</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N44" s="10" t="s">
         <v>156</v>
       </c>
       <c r="O44" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P44" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="45" spans="1:16" s="72" customFormat="1">
@@ -6364,46 +6401,46 @@
         <v>13</v>
       </c>
       <c r="C45" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="D45" s="73" t="s">
+        <v>432</v>
+      </c>
+      <c r="E45" s="73" t="s">
+        <v>433</v>
+      </c>
+      <c r="F45" s="73" t="s">
         <v>431</v>
       </c>
-      <c r="D45" s="73" t="s">
-        <v>433</v>
-      </c>
-      <c r="E45" s="73" t="s">
+      <c r="G45" s="73" t="s">
         <v>434</v>
       </c>
-      <c r="F45" s="73" t="s">
-        <v>432</v>
-      </c>
-      <c r="G45" s="73" t="s">
+      <c r="H45" s="73" t="s">
         <v>435</v>
       </c>
-      <c r="H45" s="73" t="s">
+      <c r="I45" s="73" t="s">
         <v>436</v>
       </c>
-      <c r="I45" s="73" t="s">
+      <c r="J45" s="73" t="s">
         <v>437</v>
-      </c>
-      <c r="J45" s="73" t="s">
-        <v>438</v>
       </c>
       <c r="K45" s="10" t="s">
         <v>161</v>
       </c>
       <c r="L45" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="M45" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="M45" s="10" t="s">
+      <c r="N45" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="N45" s="10" t="s">
+      <c r="O45" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="O45" s="10" t="s">
+      <c r="P45" s="10" t="s">
         <v>426</v>
-      </c>
-      <c r="P45" s="10" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -6432,7 +6469,7 @@
         <v>175</v>
       </c>
       <c r="J46" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K46" s="10" t="s">
         <v>163</v>
@@ -6441,16 +6478,16 @@
         <v>145</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N46" s="10" t="s">
         <v>145</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P46" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -6482,13 +6519,13 @@
         <v>61</v>
       </c>
       <c r="B49" s="69" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -6502,19 +6539,19 @@
         <v>65</v>
       </c>
       <c r="E50" s="50" t="s">
+        <v>412</v>
+      </c>
+      <c r="F50" s="50" t="s">
+        <v>263</v>
+      </c>
+      <c r="G50" s="50" t="s">
+        <v>411</v>
+      </c>
+      <c r="H50" s="50" t="s">
+        <v>410</v>
+      </c>
+      <c r="I50" s="30" t="s">
         <v>413</v>
-      </c>
-      <c r="F50" s="50" t="s">
-        <v>264</v>
-      </c>
-      <c r="G50" s="50" t="s">
-        <v>412</v>
-      </c>
-      <c r="H50" s="50" t="s">
-        <v>411</v>
-      </c>
-      <c r="I50" s="30" t="s">
-        <v>414</v>
       </c>
       <c r="J50" s="10" t="s">
         <v>4</v>
@@ -6523,60 +6560,60 @@
         <v>155</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M50" s="10" t="s">
         <v>156</v>
       </c>
       <c r="N50" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O50" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="B51" s="30" t="s">
+        <v>414</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>418</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>417</v>
+      </c>
+      <c r="E51" s="50" t="s">
+        <v>438</v>
+      </c>
+      <c r="F51" s="50" t="s">
+        <v>439</v>
+      </c>
+      <c r="G51" s="50" t="s">
+        <v>440</v>
+      </c>
+      <c r="H51" s="50" t="s">
+        <v>441</v>
+      </c>
+      <c r="I51" s="30" t="s">
+        <v>420</v>
+      </c>
+      <c r="J51" s="30" t="s">
         <v>415</v>
       </c>
-      <c r="C51" s="30" t="s">
-        <v>419</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>418</v>
-      </c>
-      <c r="E51" s="50" t="s">
-        <v>439</v>
-      </c>
-      <c r="F51" s="50" t="s">
-        <v>440</v>
-      </c>
-      <c r="G51" s="50" t="s">
-        <v>441</v>
-      </c>
-      <c r="H51" s="50" t="s">
-        <v>442</v>
-      </c>
-      <c r="I51" s="30" t="s">
-        <v>421</v>
-      </c>
-      <c r="J51" s="30" t="s">
-        <v>416</v>
-      </c>
       <c r="K51" s="50" t="s">
+        <v>365</v>
+      </c>
+      <c r="L51" s="50" t="s">
         <v>366</v>
       </c>
-      <c r="L51" s="50" t="s">
+      <c r="M51" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="M51" s="30" t="s">
+      <c r="N51" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="N51" s="30" t="s">
-        <v>369</v>
-      </c>
       <c r="O51" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -6590,16 +6627,16 @@
         <v>44</v>
       </c>
       <c r="E52" s="30" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>145</v>
       </c>
       <c r="G52" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H52" s="71" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I52" s="10" t="s">
         <v>89</v>
@@ -6611,16 +6648,16 @@
         <v>145</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M52" s="10" t="s">
         <v>145</v>
       </c>
       <c r="N52" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O52" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -6649,16 +6686,16 @@
     </row>
     <row r="55" spans="1:15" s="6" customFormat="1">
       <c r="A55" s="70" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B55" s="69" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -6669,17 +6706,17 @@
         <v>64</v>
       </c>
       <c r="D56" s="30" t="s">
+        <v>401</v>
+      </c>
+      <c r="E56" s="30" t="s">
         <v>402</v>
-      </c>
-      <c r="E56" s="30" t="s">
-        <v>403</v>
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="30" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H56" s="30" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -6690,17 +6727,17 @@
         <v>76</v>
       </c>
       <c r="D57" s="30" t="s">
+        <v>404</v>
+      </c>
+      <c r="E57" s="30" t="s">
         <v>405</v>
-      </c>
-      <c r="E57" s="30" t="s">
-        <v>406</v>
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="30" t="s">
+        <v>406</v>
+      </c>
+      <c r="H57" s="30" t="s">
         <v>407</v>
-      </c>
-      <c r="H57" s="30" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -6714,14 +6751,14 @@
         <v>44</v>
       </c>
       <c r="E58" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F58" s="11"/>
       <c r="G58" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H58" s="30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -6748,8 +6785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B47" sqref="A46:B47"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A31" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6801,10 +6838,10 @@
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1">
       <c r="A4" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="B4" s="29" t="s">
         <v>287</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1">
@@ -6883,7 +6920,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -6932,7 +6969,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>34</v>
@@ -7020,7 +7057,7 @@
         <v>49</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>8</v>
@@ -7037,7 +7074,7 @@
         <v>51</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>52</v>
@@ -7060,31 +7097,31 @@
     </row>
     <row r="24" spans="1:15">
       <c r="B24" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C24" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="E24" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="F24" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="G24" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="H24" s="26" t="s">
         <v>379</v>
       </c>
-      <c r="H24" s="26" t="s">
-        <v>380</v>
-      </c>
       <c r="I24" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="J24" s="11" t="s">
         <v>382</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -7107,7 +7144,7 @@
         <v>17</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>59</v>
@@ -7171,7 +7208,7 @@
         <v>68</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>69</v>
@@ -7323,7 +7360,7 @@
         <v>8</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -7376,7 +7413,7 @@
         <v>110</v>
       </c>
       <c r="R37" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -7426,10 +7463,10 @@
         <v>122</v>
       </c>
       <c r="Q38" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R38" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -7482,7 +7519,7 @@
         <v>127</v>
       </c>
       <c r="R39" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -7517,7 +7554,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -7640,7 +7677,7 @@
         <v>8</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7731,359 +7768,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K47"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="19.875" customWidth="1"/>
-    <col min="10" max="10" width="21.375" customWidth="1"/>
-    <col min="11" max="11" width="15.875" customWidth="1"/>
-    <col min="12" max="12" width="12.75" customWidth="1"/>
-    <col min="13" max="13" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.75" customWidth="1"/>
-    <col min="18" max="18" width="20" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1"/>
-    <row r="5" spans="1:7" s="58" customFormat="1">
-      <c r="A5" s="57"/>
-    </row>
-    <row r="6" spans="1:7" s="49" customFormat="1">
-      <c r="A6" s="56"/>
-      <c r="B6" s="56"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" s="11"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="B8" s="11"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="B9" s="11"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="12" spans="1:7" s="6" customFormat="1">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="B13" s="11"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="B14" s="11"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="18" spans="1:8" s="6" customFormat="1">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="B19" s="11"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="B20" s="11"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="24" spans="1:8" s="6" customFormat="1">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="B25" s="11"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="11"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-    </row>
-    <row r="30" spans="1:8" s="6" customFormat="1">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="B31" s="11"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="11"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="B34" s="10"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-    </row>
-    <row r="37" spans="1:11" s="34" customFormat="1">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="B38" s="11"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="B40" s="11"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="11"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="B41" s="10"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="18"/>
-      <c r="B43" s="19"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="B44" s="11"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="11"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="B47" s="10"/>
-      <c r="C47" s="86"/>
-      <c r="D47" s="87"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C47:D47"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="26" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T67"/>
   <sheetViews>
@@ -8120,7 +7804,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1">
@@ -8128,7 +7812,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>148</v>
@@ -8142,7 +7826,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1">
@@ -8657,12 +8341,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8694,7 +8378,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1">
@@ -8702,7 +8386,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>148</v>
@@ -8716,7 +8400,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1">
@@ -9229,4 +8913,357 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="26" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K47"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="19.875" customWidth="1"/>
+    <col min="10" max="10" width="21.375" customWidth="1"/>
+    <col min="11" max="11" width="15.875" customWidth="1"/>
+    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="13" max="13" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.75" customWidth="1"/>
+    <col min="18" max="18" width="20" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="58" customFormat="1">
+      <c r="A5" s="57"/>
+    </row>
+    <row r="6" spans="1:7" s="49" customFormat="1">
+      <c r="A6" s="56"/>
+      <c r="B6" s="56"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="11"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="11"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" s="11"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="12" spans="1:7" s="6" customFormat="1">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="11"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="11"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1">
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="B19" s="11"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="B20" s="11"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="24" spans="1:8" s="6" customFormat="1">
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="B25" s="11"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="30" spans="1:8" s="6" customFormat="1">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" s="11"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="B34" s="10"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="37" spans="1:11" s="34" customFormat="1">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="B38" s="11"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="B40" s="11"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="11"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="B41" s="10"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="18"/>
+      <c r="B43" s="19"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="B44" s="11"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="11"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="B47" s="10"/>
+      <c r="C47" s="86"/>
+      <c r="D47" s="87"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C47:D47"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="26" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/design/数据库设计.xlsx
+++ b/design/数据库设计.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\fuck\git\danyuan-application\design\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="14535" windowHeight="10575" tabRatio="864" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12390" windowHeight="5985" tabRatio="864" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="版本记录" sheetId="7" r:id="rId1"/>
@@ -29,7 +24,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">数据流转表结构设计!$A$1:$U$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">资源共享平台!$A$1:$T$67</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A55:G79"/>
 </workbook>
 </file>
 
@@ -1671,23 +1667,6 @@
   </si>
   <si>
     <t>头像</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ead_pic</t>
-    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2188,6 +2167,23 @@
   </si>
   <si>
     <t>性别</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ead_pic</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3822,8 +3818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A55" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G49" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="M69" sqref="M69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5017,7 +5013,7 @@
         <v>212</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G67" s="10" t="s">
         <v>213</v>
@@ -5061,7 +5057,7 @@
         <v>218</v>
       </c>
       <c r="H68" s="30" t="s">
-        <v>387</v>
+        <v>473</v>
       </c>
       <c r="I68" s="50" t="s">
         <v>298</v>
@@ -5099,7 +5095,7 @@
         <v>219</v>
       </c>
       <c r="H69" s="30" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I69" s="10" t="s">
         <v>145</v>
@@ -5339,7 +5335,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="67" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -5500,13 +5496,13 @@
         <v>300</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C12" s="66" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="68" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -5668,13 +5664,13 @@
         <v>336</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C18" s="67" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -5732,7 +5728,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>348</v>
@@ -5855,101 +5851,101 @@
         <v>301</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C24" s="67" t="s">
+        <v>391</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>392</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="B25" s="50" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>346</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O25" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="B26" s="50" t="s">
+        <v>451</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>453</v>
-      </c>
       <c r="D26" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>447</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>448</v>
       </c>
       <c r="F26" s="50" t="s">
         <v>347</v>
       </c>
       <c r="G26" s="50" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H26" s="50" t="s">
+        <v>453</v>
+      </c>
+      <c r="I26" s="50" t="s">
+        <v>448</v>
+      </c>
+      <c r="J26" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="I26" s="50" t="s">
-        <v>449</v>
-      </c>
-      <c r="J26" s="10" t="s">
+      <c r="K26" s="50" t="s">
         <v>455</v>
       </c>
-      <c r="K26" s="50" t="s">
+      <c r="L26" s="50" t="s">
         <v>456</v>
       </c>
-      <c r="L26" s="50" t="s">
+      <c r="M26" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="M26" s="10" t="s">
+      <c r="N26" s="30" t="s">
         <v>458</v>
       </c>
-      <c r="N26" s="30" t="s">
+      <c r="O26" s="30" t="s">
         <v>459</v>
-      </c>
-      <c r="O26" s="30" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -6029,7 +6025,7 @@
         <v>8</v>
       </c>
       <c r="D31" s="67" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -6196,7 +6192,7 @@
     </row>
     <row r="37" spans="1:16" s="66" customFormat="1">
       <c r="A37" s="55" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B37" s="55" t="s">
         <v>385</v>
@@ -6205,7 +6201,7 @@
         <v>8</v>
       </c>
       <c r="D37" s="67" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -6223,7 +6219,7 @@
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H38" s="10" t="s">
         <v>4</v>
@@ -6249,35 +6245,35 @@
         <v>234</v>
       </c>
       <c r="C39" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="D39" s="30" t="s">
         <v>427</v>
       </c>
-      <c r="D39" s="30" t="s">
+      <c r="E39" s="30" t="s">
         <v>428</v>
-      </c>
-      <c r="E39" s="30" t="s">
-        <v>429</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="30" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H39" s="10" t="s">
         <v>161</v>
       </c>
       <c r="I39" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="J39" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="J39" s="10" t="s">
+      <c r="K39" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="K39" s="10" t="s">
+      <c r="L39" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="L39" s="10" t="s">
+      <c r="M39" s="10" t="s">
         <v>425</v>
-      </c>
-      <c r="M39" s="10" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -6401,46 +6397,46 @@
         <v>13</v>
       </c>
       <c r="C45" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="D45" s="73" t="s">
+        <v>431</v>
+      </c>
+      <c r="E45" s="73" t="s">
+        <v>432</v>
+      </c>
+      <c r="F45" s="73" t="s">
         <v>430</v>
       </c>
-      <c r="D45" s="73" t="s">
-        <v>432</v>
-      </c>
-      <c r="E45" s="73" t="s">
+      <c r="G45" s="73" t="s">
         <v>433</v>
       </c>
-      <c r="F45" s="73" t="s">
-        <v>431</v>
-      </c>
-      <c r="G45" s="73" t="s">
+      <c r="H45" s="73" t="s">
         <v>434</v>
       </c>
-      <c r="H45" s="73" t="s">
+      <c r="I45" s="73" t="s">
         <v>435</v>
       </c>
-      <c r="I45" s="73" t="s">
+      <c r="J45" s="73" t="s">
         <v>436</v>
-      </c>
-      <c r="J45" s="73" t="s">
-        <v>437</v>
       </c>
       <c r="K45" s="10" t="s">
         <v>161</v>
       </c>
       <c r="L45" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="M45" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="M45" s="10" t="s">
+      <c r="N45" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="N45" s="10" t="s">
+      <c r="O45" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="O45" s="10" t="s">
+      <c r="P45" s="10" t="s">
         <v>425</v>
-      </c>
-      <c r="P45" s="10" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -6519,13 +6515,13 @@
         <v>61</v>
       </c>
       <c r="B49" s="69" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -6539,19 +6535,19 @@
         <v>65</v>
       </c>
       <c r="E50" s="50" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F50" s="50" t="s">
         <v>263</v>
       </c>
       <c r="G50" s="50" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H50" s="50" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I50" s="30" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J50" s="10" t="s">
         <v>4</v>
@@ -6574,31 +6570,31 @@
     </row>
     <row r="51" spans="1:15">
       <c r="B51" s="30" t="s">
+        <v>413</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>417</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="E51" s="50" t="s">
+        <v>437</v>
+      </c>
+      <c r="F51" s="50" t="s">
+        <v>438</v>
+      </c>
+      <c r="G51" s="50" t="s">
+        <v>439</v>
+      </c>
+      <c r="H51" s="50" t="s">
+        <v>440</v>
+      </c>
+      <c r="I51" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="J51" s="30" t="s">
         <v>414</v>
-      </c>
-      <c r="C51" s="30" t="s">
-        <v>418</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>417</v>
-      </c>
-      <c r="E51" s="50" t="s">
-        <v>438</v>
-      </c>
-      <c r="F51" s="50" t="s">
-        <v>439</v>
-      </c>
-      <c r="G51" s="50" t="s">
-        <v>440</v>
-      </c>
-      <c r="H51" s="50" t="s">
-        <v>441</v>
-      </c>
-      <c r="I51" s="30" t="s">
-        <v>420</v>
-      </c>
-      <c r="J51" s="30" t="s">
-        <v>415</v>
       </c>
       <c r="K51" s="50" t="s">
         <v>365</v>
@@ -6627,7 +6623,7 @@
         <v>44</v>
       </c>
       <c r="E52" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>145</v>
@@ -6686,16 +6682,16 @@
     </row>
     <row r="55" spans="1:15" s="6" customFormat="1">
       <c r="A55" s="70" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B55" s="69" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -6706,17 +6702,17 @@
         <v>64</v>
       </c>
       <c r="D56" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="E56" s="30" t="s">
         <v>401</v>
-      </c>
-      <c r="E56" s="30" t="s">
-        <v>402</v>
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="30" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H56" s="30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -6727,17 +6723,17 @@
         <v>76</v>
       </c>
       <c r="D57" s="30" t="s">
+        <v>403</v>
+      </c>
+      <c r="E57" s="30" t="s">
         <v>404</v>
-      </c>
-      <c r="E57" s="30" t="s">
-        <v>405</v>
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="H57" s="30" t="s">
         <v>406</v>
-      </c>
-      <c r="H57" s="30" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -6758,7 +6754,7 @@
         <v>383</v>
       </c>
       <c r="H58" s="30" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -8345,7 +8341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>

--- a/design/数据库设计.xlsx
+++ b/design/数据库设计.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\fuck\git\danyuan-application\design\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12390" windowHeight="5985" tabRatio="864" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12390" windowHeight="5985" tabRatio="864" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="版本记录" sheetId="7" r:id="rId1"/>
@@ -19,18 +24,17 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">版本记录!$A$1:$I$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">场景设计数据库表结构设计!$A$1:$K$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">后台管理数据库表结构设计!$A$1:$M$76</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">爬虫管理!$A$1:$Q$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">爬虫管理!$A$1:$U$59</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">任务管理!$A$1:$T$67</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">数据流转表结构设计!$A$1:$U$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">资源共享平台!$A$1:$T$67</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A55:G79"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="488">
   <si>
     <t xml:space="preserve">数据库 </t>
   </si>
@@ -717,9 +721,6 @@
   </si>
   <si>
     <t>organization_name</t>
-  </si>
-  <si>
-    <t>organization_discription</t>
   </si>
   <si>
     <t>部门信息</t>
@@ -2184,6 +2185,58 @@
       </rPr>
       <t>ead_pic</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_discription</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>colsAlign</t>
+  </si>
+  <si>
+    <t>对齐方式</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(36)</t>
+  </si>
+  <si>
+    <t>varchar(36)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>colsValign</t>
+  </si>
+  <si>
+    <t>colsWidth</t>
+  </si>
+  <si>
+    <t>colsVisible</t>
+  </si>
+  <si>
+    <t>colsSwitchable</t>
+  </si>
+  <si>
+    <t>colsIndex</t>
+  </si>
+  <si>
+    <t>用户查询列配置</t>
+  </si>
+  <si>
+    <t>列项目隐藏</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>列项目的选项卡隐藏</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每列的宽度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对齐方式</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3362,7 +3415,7 @@
     <row r="4" spans="1:11">
       <c r="A4" s="33"/>
       <c r="B4" s="74" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C4" s="75"/>
       <c r="D4" s="75"/>
@@ -3818,8 +3871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G49" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="M69" sqref="M69"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A28" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3871,10 +3924,10 @@
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1">
       <c r="A4" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1">
@@ -3895,7 +3948,7 @@
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1">
       <c r="A9" s="29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B9"/>
     </row>
@@ -3904,7 +3957,7 @@
         <v>151</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C10" s="63" t="s">
         <v>8</v>
@@ -3930,13 +3983,13 @@
         <v>155</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>156</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>157</v>
@@ -3950,7 +4003,7 @@
     </row>
     <row r="12" spans="1:13" s="29" customFormat="1">
       <c r="B12" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>160</v>
@@ -3962,30 +4015,30 @@
         <v>162</v>
       </c>
       <c r="F12" s="50" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G12" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>297</v>
-      </c>
       <c r="I12" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="29" customFormat="1">
       <c r="B13" s="30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C13" s="30" t="s">
         <v>123</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>43</v>
@@ -3994,13 +4047,13 @@
         <v>145</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>145</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>44</v>
@@ -4024,16 +4077,16 @@
     <row r="15" spans="1:13" s="64" customFormat="1"/>
     <row r="16" spans="1:13" s="2" customFormat="1">
       <c r="A16" s="61" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="63" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -4041,13 +4094,13 @@
         <v>22</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D17" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="E17" s="30" t="s">
         <v>279</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>280</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>154</v>
@@ -4056,13 +4109,13 @@
         <v>155</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>156</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>157</v>
@@ -4070,48 +4123,48 @@
     </row>
     <row r="18" spans="1:13">
       <c r="B18" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D18" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="E18" s="30" t="s">
         <v>281</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>282</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>162</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H18" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="I18" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="I18" s="10" t="s">
-        <v>297</v>
-      </c>
       <c r="J18" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="B19" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>123</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>43</v>
@@ -4120,13 +4173,13 @@
         <v>145</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>145</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K19" s="11" t="s">
         <v>44</v>
@@ -4189,13 +4242,13 @@
         <v>155</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>156</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M23" s="10" t="s">
         <v>157</v>
@@ -4206,7 +4259,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>172</v>
@@ -4215,39 +4268,39 @@
         <v>173</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H24" s="10" t="s">
         <v>161</v>
       </c>
       <c r="I24" s="50" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J24" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="K24" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="K24" s="10" t="s">
-        <v>297</v>
-      </c>
       <c r="L24" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M24" s="30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="B25" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>43</v>
@@ -4265,13 +4318,13 @@
         <v>145</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K25" s="10" t="s">
         <v>145</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M25" s="11" t="s">
         <v>44</v>
@@ -4302,21 +4355,21 @@
     <row r="27" spans="1:13" s="1" customFormat="1"/>
     <row r="28" spans="1:13" s="1" customFormat="1">
       <c r="A28" s="29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="5" customFormat="1">
       <c r="A29" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>179</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -4324,22 +4377,22 @@
         <v>22</v>
       </c>
       <c r="C30" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D30" s="10" t="s">
         <v>239</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>240</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>155</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>156</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>157</v>
@@ -4350,30 +4403,30 @@
         <v>13</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E31" s="50" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F31" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="G31" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="G31" s="10" t="s">
-        <v>297</v>
-      </c>
       <c r="H31" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I31" s="30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="B32" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>43</v>
@@ -4385,13 +4438,13 @@
         <v>145</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>145</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I32" s="11" t="s">
         <v>44</v>
@@ -4440,13 +4493,13 @@
         <v>155</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>156</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>157</v>
@@ -4460,27 +4513,27 @@
         <v>182</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>183</v>
+        <v>473</v>
       </c>
       <c r="E37" s="50" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F37" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="G37" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="G37" s="10" t="s">
-        <v>297</v>
-      </c>
       <c r="H37" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I37" s="30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="B38" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>43</v>
@@ -4492,13 +4545,13 @@
         <v>145</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>145</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I38" s="11" t="s">
         <v>44</v>
@@ -4520,16 +4573,16 @@
     </row>
     <row r="41" spans="1:10" s="6" customFormat="1">
       <c r="A41" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -4537,22 +4590,22 @@
         <v>22</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>155</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>156</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>157</v>
@@ -4563,33 +4616,33 @@
         <v>13</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E43" s="50" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F43" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="G43" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="G43" s="10" t="s">
-        <v>297</v>
-      </c>
       <c r="H43" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I43" s="30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="B44" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>43</v>
@@ -4598,13 +4651,13 @@
         <v>145</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>145</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I44" s="11" t="s">
         <v>44</v>
@@ -4615,7 +4668,7 @@
         <v>48</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
@@ -4628,21 +4681,21 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="6" customFormat="1">
       <c r="A47" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B47" s="17" t="s">
         <v>184</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>185</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -4650,25 +4703,25 @@
         <v>22</v>
       </c>
       <c r="C48" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D48" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="D48" s="10" t="s">
-        <v>188</v>
-      </c>
       <c r="E48" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>155</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H48" s="10" t="s">
         <v>156</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J48" s="10" t="s">
         <v>157</v>
@@ -4679,36 +4732,36 @@
         <v>13</v>
       </c>
       <c r="C49" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="E49" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="E49" s="11" t="s">
-        <v>191</v>
-      </c>
       <c r="F49" s="50" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G49" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="H49" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="H49" s="10" t="s">
-        <v>297</v>
-      </c>
       <c r="I49" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J49" s="30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="B50" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>43</v>
@@ -4720,13 +4773,13 @@
         <v>145</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H50" s="10" t="s">
         <v>145</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J50" s="11" t="s">
         <v>44</v>
@@ -4737,7 +4790,7 @@
         <v>48</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D51" s="10"/>
       <c r="E51" s="11"/>
@@ -4751,21 +4804,21 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="6" customFormat="1">
       <c r="A53" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="B53" s="17" t="s">
         <v>193</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>194</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -4773,10 +4826,10 @@
         <v>22</v>
       </c>
       <c r="C54" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D54" s="10" t="s">
         <v>196</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>197</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>4</v>
@@ -4785,13 +4838,13 @@
         <v>155</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H54" s="10" t="s">
         <v>156</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J54" s="10" t="s">
         <v>157</v>
@@ -4802,36 +4855,36 @@
         <v>13</v>
       </c>
       <c r="C55" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D55" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="E55" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="E55" s="10" t="s">
-        <v>200</v>
-      </c>
       <c r="F55" s="50" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G55" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="H55" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="H55" s="10" t="s">
-        <v>297</v>
-      </c>
       <c r="I55" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J55" s="30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="B56" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>43</v>
@@ -4843,13 +4896,13 @@
         <v>145</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H56" s="10" t="s">
         <v>145</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J56" s="11" t="s">
         <v>44</v>
@@ -4860,7 +4913,7 @@
         <v>48</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D57" s="10"/>
       <c r="E57" s="11"/>
@@ -4874,16 +4927,16 @@
     </row>
     <row r="59" spans="1:10" s="6" customFormat="1">
       <c r="A59" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -4891,22 +4944,22 @@
         <v>22</v>
       </c>
       <c r="C60" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D60" s="10" t="s">
         <v>204</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>205</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>155</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G60" s="10" t="s">
         <v>156</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I60" s="10" t="s">
         <v>157</v>
@@ -4917,48 +4970,48 @@
         <v>13</v>
       </c>
       <c r="C61" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D61" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D61" s="10" t="s">
-        <v>207</v>
-      </c>
       <c r="E61" s="50" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F61" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="G61" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="G61" s="10" t="s">
-        <v>297</v>
-      </c>
       <c r="H61" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I61" s="30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="B62" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>145</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G62" s="10" t="s">
         <v>145</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I62" s="11" t="s">
         <v>44</v>
@@ -4969,7 +5022,7 @@
         <v>48</v>
       </c>
       <c r="C63" s="84" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D63" s="85"/>
       <c r="E63" s="11"/>
@@ -4982,21 +5035,21 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="66" spans="1:13" s="2" customFormat="1">
       <c r="A66" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B66" s="9" t="s">
         <v>209</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>210</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -5004,34 +5057,34 @@
         <v>22</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E67" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="G67" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="F67" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>213</v>
-      </c>
       <c r="H67" s="30" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I67" s="10" t="s">
         <v>155</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K67" s="10" t="s">
         <v>156</v>
       </c>
       <c r="L67" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M67" s="10" t="s">
         <v>157</v>
@@ -5042,42 +5095,42 @@
         <v>13</v>
       </c>
       <c r="C68" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D68" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="E68" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="E68" s="10" t="s">
+      <c r="F68" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="F68" s="10" t="s">
+      <c r="G68" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="G68" s="10" t="s">
-        <v>218</v>
-      </c>
       <c r="H68" s="30" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I68" s="50" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J68" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="K68" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="K68" s="10" t="s">
-        <v>297</v>
-      </c>
       <c r="L68" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M68" s="30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="B69" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>43</v>
@@ -5092,22 +5145,22 @@
         <v>90</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H69" s="30" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I69" s="10" t="s">
         <v>145</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K69" s="10" t="s">
         <v>145</v>
       </c>
       <c r="L69" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M69" s="11" t="s">
         <v>44</v>
@@ -5118,7 +5171,7 @@
         <v>48</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="10"/>
@@ -5135,21 +5188,21 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="55" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C72" t="s">
         <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -5157,22 +5210,22 @@
         <v>22</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>155</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G73" s="10" t="s">
         <v>156</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I73" s="10" t="s">
         <v>157</v>
@@ -5183,48 +5236,48 @@
         <v>13</v>
       </c>
       <c r="C74" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="D74" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="D74" s="11" t="s">
-        <v>225</v>
-      </c>
       <c r="E74" s="50" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F74" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="G74" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="G74" s="10" t="s">
-        <v>297</v>
-      </c>
       <c r="H74" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I74" s="30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="B75" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>145</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G75" s="10" t="s">
         <v>145</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I75" s="11" t="s">
         <v>44</v>
@@ -5235,7 +5288,7 @@
         <v>48</v>
       </c>
       <c r="C76" s="86" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D76" s="87"/>
       <c r="E76" s="11"/>
@@ -5259,10 +5312,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:U64"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="C1" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5294,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1">
@@ -5302,7 +5355,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>149</v>
@@ -5313,7 +5366,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1">
@@ -5326,42 +5379,42 @@
     </row>
     <row r="6" spans="1:15" s="34" customFormat="1">
       <c r="A6" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C6" s="66" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="67" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="B7" s="50" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J7" s="10" t="s">
         <v>4</v>
@@ -5370,13 +5423,13 @@
         <v>155</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M7" s="10" t="s">
         <v>156</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O7" s="10" t="s">
         <v>157</v>
@@ -5387,43 +5440,43 @@
         <v>13</v>
       </c>
       <c r="C8" s="50" t="s">
+        <v>302</v>
+      </c>
+      <c r="D8" s="50" t="s">
         <v>303</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="E8" s="50" t="s">
         <v>304</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="F8" s="50" t="s">
         <v>305</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="G8" s="50" t="s">
         <v>306</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="H8" s="50" t="s">
         <v>307</v>
       </c>
-      <c r="H8" s="50" t="s">
+      <c r="I8" s="50" t="s">
         <v>308</v>
-      </c>
-      <c r="I8" s="50" t="s">
-        <v>309</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>161</v>
       </c>
       <c r="K8" s="50" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L8" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="M8" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="M8" s="10" t="s">
-        <v>297</v>
-      </c>
       <c r="N8" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O8" s="30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -5431,25 +5484,25 @@
         <v>16</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>92</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>163</v>
@@ -5458,16 +5511,16 @@
         <v>145</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M9" s="10" t="s">
         <v>145</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O9" s="30" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -5493,42 +5546,42 @@
     <row r="11" spans="1:15" s="4" customFormat="1"/>
     <row r="12" spans="1:15" s="49" customFormat="1">
       <c r="A12" s="56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C12" s="66" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="68" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="B13" s="50" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E13" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>329</v>
-      </c>
       <c r="G13" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>4</v>
@@ -5537,13 +5590,13 @@
         <v>155</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M13" s="10" t="s">
         <v>156</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O13" s="10" t="s">
         <v>157</v>
@@ -5554,43 +5607,43 @@
         <v>13</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F14" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="H14" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>335</v>
-      </c>
       <c r="I14" s="50" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J14" s="10" t="s">
         <v>161</v>
       </c>
       <c r="K14" s="50" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L14" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="M14" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="M14" s="10" t="s">
-        <v>297</v>
-      </c>
       <c r="N14" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O14" s="30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -5601,19 +5654,19 @@
         <v>16</v>
       </c>
       <c r="D15" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>333</v>
-      </c>
       <c r="F15" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>92</v>
@@ -5625,16 +5678,16 @@
         <v>145</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M15" s="10" t="s">
         <v>145</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O15" s="30" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -5643,7 +5696,7 @@
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -5661,48 +5714,48 @@
     </row>
     <row r="18" spans="1:17" s="6" customFormat="1">
       <c r="A18" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C18" s="67" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="B19" s="50" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C19" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="E19" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="F19" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="G19" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="H19" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="I19" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="J19" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="K19" s="10" t="s">
         <v>344</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>345</v>
       </c>
       <c r="L19" s="10" t="s">
         <v>4</v>
@@ -5711,13 +5764,13 @@
         <v>155</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O19" s="10" t="s">
         <v>156</v>
       </c>
       <c r="P19" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q19" s="10" t="s">
         <v>157</v>
@@ -5728,49 +5781,49 @@
         <v>13</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D20" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="F20" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="G20" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="H20" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="I20" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="J20" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="K20" s="10" t="s">
         <v>354</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>355</v>
       </c>
       <c r="L20" s="10" t="s">
         <v>161</v>
       </c>
       <c r="M20" s="50" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N20" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="O20" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="O20" s="10" t="s">
-        <v>297</v>
-      </c>
       <c r="P20" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Q20" s="30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -5784,25 +5837,25 @@
         <v>16</v>
       </c>
       <c r="E21" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="G21" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="H21" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="G21" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="H21" s="11" t="s">
+      <c r="I21" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="J21" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="J21" s="11" t="s">
-        <v>360</v>
-      </c>
       <c r="K21" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L21" s="10" t="s">
         <v>163</v>
@@ -5811,16 +5864,16 @@
         <v>145</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O21" s="10" t="s">
         <v>145</v>
       </c>
       <c r="P21" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q21" s="30" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -5848,104 +5901,104 @@
     <row r="23" spans="1:17" s="1" customFormat="1"/>
     <row r="24" spans="1:17" s="4" customFormat="1">
       <c r="A24" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C24" s="67" t="s">
+        <v>390</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>391</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="B25" s="50" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O25" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="B26" s="50" t="s">
+        <v>450</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="D26" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="F26" s="50" t="s">
+        <v>346</v>
+      </c>
+      <c r="G26" s="50" t="s">
+        <v>441</v>
+      </c>
+      <c r="H26" s="50" t="s">
         <v>452</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>446</v>
-      </c>
-      <c r="E26" s="10" t="s">
+      <c r="I26" s="50" t="s">
         <v>447</v>
       </c>
-      <c r="F26" s="50" t="s">
-        <v>347</v>
-      </c>
-      <c r="G26" s="50" t="s">
-        <v>442</v>
-      </c>
-      <c r="H26" s="50" t="s">
+      <c r="J26" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="I26" s="50" t="s">
-        <v>448</v>
-      </c>
-      <c r="J26" s="10" t="s">
+      <c r="K26" s="50" t="s">
         <v>454</v>
       </c>
-      <c r="K26" s="50" t="s">
+      <c r="L26" s="50" t="s">
         <v>455</v>
       </c>
-      <c r="L26" s="50" t="s">
+      <c r="M26" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="M26" s="10" t="s">
+      <c r="N26" s="30" t="s">
         <v>457</v>
       </c>
-      <c r="N26" s="30" t="s">
+      <c r="O26" s="30" t="s">
         <v>458</v>
-      </c>
-      <c r="O26" s="30" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -5980,16 +6033,16 @@
         <v>145</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M27" s="10" t="s">
         <v>145</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O27" s="30" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -6019,13 +6072,13 @@
         <v>6</v>
       </c>
       <c r="B31" s="65" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C31" s="66" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="67" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -6063,16 +6116,16 @@
         <v>155</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N32" s="10" t="s">
         <v>156</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -6080,7 +6133,7 @@
         <v>13</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>34</v>
@@ -6104,22 +6157,22 @@
         <v>40</v>
       </c>
       <c r="K33" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="L33" s="50" t="s">
         <v>364</v>
       </c>
-      <c r="L33" s="50" t="s">
+      <c r="M33" s="50" t="s">
         <v>365</v>
       </c>
-      <c r="M33" s="50" t="s">
+      <c r="N33" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="N33" s="30" t="s">
+      <c r="O33" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="O33" s="30" t="s">
-        <v>368</v>
-      </c>
       <c r="P33" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -6157,16 +6210,16 @@
         <v>145</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N34" s="10" t="s">
         <v>145</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P34" s="30" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -6192,16 +6245,16 @@
     </row>
     <row r="37" spans="1:16" s="66" customFormat="1">
       <c r="A37" s="55" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B37" s="55" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C37" s="66" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="67" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -6209,17 +6262,17 @@
         <v>22</v>
       </c>
       <c r="C38" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="D38" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="D38" s="30" t="s">
-        <v>254</v>
-      </c>
       <c r="E38" s="30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H38" s="10" t="s">
         <v>4</v>
@@ -6228,52 +6281,52 @@
         <v>155</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K38" s="10" t="s">
         <v>156</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="39" spans="1:16">
       <c r="B39" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C39" s="30" t="s">
+        <v>425</v>
+      </c>
+      <c r="D39" s="30" t="s">
         <v>426</v>
       </c>
-      <c r="D39" s="30" t="s">
+      <c r="E39" s="30" t="s">
         <v>427</v>
-      </c>
-      <c r="E39" s="30" t="s">
-        <v>428</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="30" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H39" s="10" t="s">
         <v>161</v>
       </c>
       <c r="I39" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="J39" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="J39" s="10" t="s">
+      <c r="K39" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="K39" s="10" t="s">
+      <c r="L39" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="L39" s="10" t="s">
+      <c r="M39" s="10" t="s">
         <v>424</v>
-      </c>
-      <c r="M39" s="10" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -6281,13 +6334,13 @@
         <v>16</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="10" t="s">
@@ -6300,16 +6353,16 @@
         <v>145</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K40" s="10" t="s">
         <v>145</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M40" s="30" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -6336,7 +6389,7 @@
         <v>49</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>8</v>
@@ -6353,25 +6406,25 @@
         <v>51</v>
       </c>
       <c r="D44" s="50" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>52</v>
       </c>
       <c r="G44" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="H44" s="50" t="s">
         <v>260</v>
       </c>
-      <c r="H44" s="50" t="s">
+      <c r="I44" s="50" t="s">
         <v>261</v>
       </c>
-      <c r="I44" s="50" t="s">
-        <v>262</v>
-      </c>
       <c r="J44" s="50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K44" s="10" t="s">
         <v>4</v>
@@ -6380,16 +6433,16 @@
         <v>155</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N44" s="10" t="s">
         <v>156</v>
       </c>
       <c r="O44" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P44" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="45" spans="1:16" s="72" customFormat="1">
@@ -6397,46 +6450,46 @@
         <v>13</v>
       </c>
       <c r="C45" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="D45" s="73" t="s">
+        <v>430</v>
+      </c>
+      <c r="E45" s="73" t="s">
+        <v>431</v>
+      </c>
+      <c r="F45" s="73" t="s">
         <v>429</v>
       </c>
-      <c r="D45" s="73" t="s">
-        <v>431</v>
-      </c>
-      <c r="E45" s="73" t="s">
+      <c r="G45" s="73" t="s">
         <v>432</v>
       </c>
-      <c r="F45" s="73" t="s">
-        <v>430</v>
-      </c>
-      <c r="G45" s="73" t="s">
+      <c r="H45" s="73" t="s">
         <v>433</v>
       </c>
-      <c r="H45" s="73" t="s">
+      <c r="I45" s="73" t="s">
         <v>434</v>
       </c>
-      <c r="I45" s="73" t="s">
+      <c r="J45" s="73" t="s">
         <v>435</v>
-      </c>
-      <c r="J45" s="73" t="s">
-        <v>436</v>
       </c>
       <c r="K45" s="10" t="s">
         <v>161</v>
       </c>
       <c r="L45" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="M45" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="M45" s="10" t="s">
+      <c r="N45" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="N45" s="10" t="s">
+      <c r="O45" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="O45" s="10" t="s">
+      <c r="P45" s="10" t="s">
         <v>424</v>
-      </c>
-      <c r="P45" s="10" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -6465,7 +6518,7 @@
         <v>175</v>
       </c>
       <c r="J46" s="30" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K46" s="10" t="s">
         <v>163</v>
@@ -6474,16 +6527,16 @@
         <v>145</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N46" s="10" t="s">
         <v>145</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P46" s="30" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -6510,21 +6563,21 @@
       </c>
     </row>
     <row r="48" spans="1:16" s="1" customFormat="1" ht="11.25" customHeight="1"/>
-    <row r="49" spans="1:15" s="6" customFormat="1">
+    <row r="49" spans="1:21" s="6" customFormat="1">
       <c r="A49" s="16" t="s">
         <v>61</v>
       </c>
       <c r="B49" s="69" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
       <c r="B50" s="10" t="s">
         <v>10</v>
       </c>
@@ -6535,19 +6588,19 @@
         <v>65</v>
       </c>
       <c r="E50" s="50" t="s">
+        <v>410</v>
+      </c>
+      <c r="F50" s="50" t="s">
+        <v>262</v>
+      </c>
+      <c r="G50" s="50" t="s">
+        <v>409</v>
+      </c>
+      <c r="H50" s="50" t="s">
+        <v>408</v>
+      </c>
+      <c r="I50" s="30" t="s">
         <v>411</v>
-      </c>
-      <c r="F50" s="50" t="s">
-        <v>263</v>
-      </c>
-      <c r="G50" s="50" t="s">
-        <v>410</v>
-      </c>
-      <c r="H50" s="50" t="s">
-        <v>409</v>
-      </c>
-      <c r="I50" s="30" t="s">
-        <v>412</v>
       </c>
       <c r="J50" s="10" t="s">
         <v>4</v>
@@ -6556,63 +6609,99 @@
         <v>155</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M50" s="10" t="s">
         <v>156</v>
       </c>
       <c r="N50" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O50" s="10" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
+        <v>368</v>
+      </c>
+      <c r="P50" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q50" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="R50" s="30" t="s">
+        <v>486</v>
+      </c>
+      <c r="S50" s="30" t="s">
+        <v>484</v>
+      </c>
+      <c r="T50" s="30" t="s">
+        <v>485</v>
+      </c>
+      <c r="U50" s="10" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
       <c r="B51" s="30" t="s">
+        <v>412</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="E51" s="50" t="s">
+        <v>436</v>
+      </c>
+      <c r="F51" s="50" t="s">
+        <v>437</v>
+      </c>
+      <c r="G51" s="50" t="s">
+        <v>438</v>
+      </c>
+      <c r="H51" s="50" t="s">
+        <v>439</v>
+      </c>
+      <c r="I51" s="30" t="s">
+        <v>418</v>
+      </c>
+      <c r="J51" s="30" t="s">
         <v>413</v>
       </c>
-      <c r="C51" s="30" t="s">
-        <v>417</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>416</v>
-      </c>
-      <c r="E51" s="50" t="s">
-        <v>437</v>
-      </c>
-      <c r="F51" s="50" t="s">
-        <v>438</v>
-      </c>
-      <c r="G51" s="50" t="s">
-        <v>439</v>
-      </c>
-      <c r="H51" s="50" t="s">
-        <v>440</v>
-      </c>
-      <c r="I51" s="30" t="s">
-        <v>419</v>
-      </c>
-      <c r="J51" s="30" t="s">
-        <v>414</v>
-      </c>
       <c r="K51" s="50" t="s">
+        <v>364</v>
+      </c>
+      <c r="L51" s="50" t="s">
         <v>365</v>
       </c>
-      <c r="L51" s="50" t="s">
+      <c r="M51" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="M51" s="30" t="s">
+      <c r="N51" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="N51" s="30" t="s">
-        <v>368</v>
-      </c>
       <c r="O51" s="30" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
+        <v>383</v>
+      </c>
+      <c r="P51" s="30" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q51" s="30" t="s">
+        <v>478</v>
+      </c>
+      <c r="R51" s="30" t="s">
+        <v>479</v>
+      </c>
+      <c r="S51" s="30" t="s">
+        <v>480</v>
+      </c>
+      <c r="T51" s="30" t="s">
+        <v>481</v>
+      </c>
+      <c r="U51" s="30" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
       <c r="B52" s="11" t="s">
         <v>16</v>
       </c>
@@ -6623,16 +6712,16 @@
         <v>44</v>
       </c>
       <c r="E52" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>145</v>
       </c>
       <c r="G52" s="30" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H52" s="71" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I52" s="10" t="s">
         <v>89</v>
@@ -6644,19 +6733,37 @@
         <v>145</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M52" s="10" t="s">
         <v>145</v>
       </c>
       <c r="N52" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O52" s="30" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
+        <v>382</v>
+      </c>
+      <c r="P52" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q52" s="30" t="s">
+        <v>476</v>
+      </c>
+      <c r="R52" s="30" t="s">
+        <v>476</v>
+      </c>
+      <c r="S52" s="30" t="s">
+        <v>476</v>
+      </c>
+      <c r="T52" s="30" t="s">
+        <v>476</v>
+      </c>
+      <c r="U52" s="30" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
       <c r="B53" s="10" t="s">
         <v>18</v>
       </c>
@@ -6679,22 +6786,28 @@
       <c r="O53" s="11" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" s="6" customFormat="1">
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
+      <c r="U53" s="11"/>
+    </row>
+    <row r="55" spans="1:21" s="6" customFormat="1">
       <c r="A55" s="70" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B55" s="69" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
       <c r="B56" s="10" t="s">
         <v>10</v>
       </c>
@@ -6702,20 +6815,20 @@
         <v>64</v>
       </c>
       <c r="D56" s="30" t="s">
+        <v>399</v>
+      </c>
+      <c r="E56" s="30" t="s">
         <v>400</v>
-      </c>
-      <c r="E56" s="30" t="s">
-        <v>401</v>
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="30" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H56" s="30" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
       <c r="B57" s="10" t="s">
         <v>13</v>
       </c>
@@ -6723,20 +6836,20 @@
         <v>76</v>
       </c>
       <c r="D57" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="E57" s="30" t="s">
         <v>403</v>
-      </c>
-      <c r="E57" s="30" t="s">
-        <v>404</v>
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="30" t="s">
+        <v>404</v>
+      </c>
+      <c r="H57" s="30" t="s">
         <v>405</v>
       </c>
-      <c r="H57" s="30" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
+    </row>
+    <row r="58" spans="1:21">
       <c r="B58" s="11" t="s">
         <v>16</v>
       </c>
@@ -6747,17 +6860,17 @@
         <v>44</v>
       </c>
       <c r="E58" s="30" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F58" s="11"/>
       <c r="G58" s="30" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H58" s="30" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21">
       <c r="B59" s="10" t="s">
         <v>18</v>
       </c>
@@ -6769,6 +6882,9 @@
       <c r="F59" s="11"/>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="P64" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -6781,8 +6897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A31" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6834,10 +6950,10 @@
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1">
       <c r="A4" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="29" t="s">
         <v>286</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1">
@@ -6916,7 +7032,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -6965,7 +7081,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>34</v>
@@ -7053,7 +7169,7 @@
         <v>49</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>8</v>
@@ -7070,7 +7186,7 @@
         <v>51</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>52</v>
@@ -7093,31 +7209,31 @@
     </row>
     <row r="24" spans="1:15">
       <c r="B24" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C24" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="E24" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="F24" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="G24" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="H24" s="26" t="s">
         <v>378</v>
       </c>
-      <c r="H24" s="26" t="s">
-        <v>379</v>
-      </c>
       <c r="I24" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="J24" s="11" t="s">
         <v>381</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -7140,7 +7256,7 @@
         <v>17</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>59</v>
@@ -7204,7 +7320,7 @@
         <v>68</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>69</v>
@@ -7356,7 +7472,7 @@
         <v>8</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -7409,7 +7525,7 @@
         <v>110</v>
       </c>
       <c r="R37" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -7459,10 +7575,10 @@
         <v>122</v>
       </c>
       <c r="Q38" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R38" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -7515,7 +7631,7 @@
         <v>127</v>
       </c>
       <c r="R39" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -7550,7 +7666,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -7673,7 +7789,7 @@
         <v>8</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7800,7 +7916,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1">
@@ -7808,7 +7924,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>148</v>
@@ -7822,7 +7938,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1">
@@ -8374,7 +8490,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1">
@@ -8382,7 +8498,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>148</v>
@@ -8396,7 +8512,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1">
@@ -8915,7 +9031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
@@ -8948,7 +9064,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
@@ -8956,7 +9072,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>148</v>
@@ -8970,7 +9086,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1"/>

--- a/design/数据库设计.xlsx
+++ b/design/数据库设计.xlsx
@@ -16,25 +16,21 @@
     <sheet name="后台管理数据库表结构设计" sheetId="3" r:id="rId2"/>
     <sheet name="爬虫管理" sheetId="11" r:id="rId3"/>
     <sheet name="数据流转表结构设计" sheetId="1" r:id="rId4"/>
-    <sheet name="资源共享平台" sheetId="9" r:id="rId5"/>
-    <sheet name="任务管理" sheetId="10" r:id="rId6"/>
-    <sheet name="场景设计数据库表结构设计" sheetId="8" r:id="rId7"/>
+    <sheet name="数据库表结构设计" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">版本记录!$A$1:$I$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">场景设计数据库表结构设计!$A$1:$K$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">后台管理数据库表结构设计!$A$1:$M$76</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">爬虫管理!$A$1:$U$59</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">任务管理!$A$1:$T$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">后台管理数据库表结构设计!$A$1:$M$71</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">爬虫管理!$A$1:$U$77</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">数据库表结构设计!$A$1:$K$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">数据流转表结构设计!$A$1:$U$54</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">资源共享平台!$A$1:$T$67</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="487">
   <si>
     <t xml:space="preserve">数据库 </t>
   </si>
@@ -912,22 +908,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>机构部门信息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>department_id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>机构部门关系</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>自动入库用</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1186,10 +1166,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>资源共享数据库表结构</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>说明：</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1249,10 +1225,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>结果配置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>网络爬虫表结构</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1389,10 +1361,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>规则列</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>规则id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1470,10 +1438,6 @@
   </si>
   <si>
     <t>varchar（200）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar（32）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2237,6 +2201,34 @@
   </si>
   <si>
     <t>对齐方式</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果配置映射关系</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据分析组</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据分析详细条件</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据分析分类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_chart_dimension_group</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_uuid</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2767,7 +2759,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2925,12 +2917,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -3368,7 +3354,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:H18"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3414,41 +3400,41 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="33"/>
-      <c r="B4" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
+      <c r="B4" s="72" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
       <c r="I4" s="34"/>
       <c r="J4" s="33"/>
       <c r="K4" s="34"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="33"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
       <c r="I5" s="34"/>
       <c r="J5" s="33"/>
       <c r="K5" s="34"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="33"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
       <c r="I6" s="34"/>
       <c r="J6" s="33"/>
       <c r="K6" s="34"/>
@@ -3482,11 +3468,11 @@
     <row r="9" spans="1:11">
       <c r="A9" s="33"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
       <c r="J9" s="33"/>
@@ -3533,26 +3519,26 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="33"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
       <c r="I13" s="34"/>
       <c r="J13" s="33"/>
       <c r="K13" s="34"/>
     </row>
     <row r="14" spans="1:11" ht="14.25" thickBot="1">
       <c r="A14" s="33"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
       <c r="I14" s="34"/>
       <c r="J14" s="33"/>
       <c r="K14" s="34"/>
@@ -3585,26 +3571,26 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="33"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
       <c r="I17" s="34"/>
       <c r="J17" s="33"/>
       <c r="K17" s="34"/>
     </row>
     <row r="18" spans="1:11" ht="14.25" thickBot="1">
       <c r="A18" s="33"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
       <c r="I18" s="34"/>
       <c r="J18" s="33"/>
       <c r="K18" s="34"/>
@@ -3869,10 +3855,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M76"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A28" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A37" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3924,10 +3910,10 @@
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1">
       <c r="A4" s="29" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1">
@@ -3948,21 +3934,21 @@
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1">
       <c r="A9" s="29" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B9"/>
     </row>
-    <row r="10" spans="1:13" s="63" customFormat="1">
-      <c r="A10" s="61" t="s">
+    <row r="10" spans="1:13" s="61" customFormat="1">
+      <c r="A10" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="60" t="s">
         <v>235</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="61" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3983,13 +3969,13 @@
         <v>155</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>156</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>157</v>
@@ -4015,30 +4001,30 @@
         <v>162</v>
       </c>
       <c r="F12" s="50" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G12" s="50" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="29" customFormat="1">
       <c r="B13" s="30" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C13" s="30" t="s">
         <v>123</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>43</v>
@@ -4047,13 +4033,13 @@
         <v>145</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>145</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>44</v>
@@ -4074,33 +4060,33 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="64" customFormat="1"/>
-    <row r="16" spans="1:13" s="2" customFormat="1">
-      <c r="A16" s="61" t="s">
-        <v>265</v>
-      </c>
-      <c r="B16" s="62" t="s">
-        <v>264</v>
+    <row r="15" spans="1:13" s="62" customFormat="1"/>
+    <row r="16" spans="1:13" s="2" customFormat="1" hidden="1">
+      <c r="A16" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>260</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="63" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="D16" s="61" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" hidden="1">
       <c r="B17" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>154</v>
@@ -4109,62 +4095,62 @@
         <v>155</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>156</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" hidden="1">
       <c r="B18" s="11" t="s">
         <v>233</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>162</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H18" s="50" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" hidden="1">
       <c r="B19" s="11" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>123</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>43</v>
@@ -4173,19 +4159,19 @@
         <v>145</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>145</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="K19" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" hidden="1">
       <c r="B20" s="10" t="s">
         <v>48</v>
       </c>
@@ -4203,10 +4189,10 @@
     </row>
     <row r="21" spans="1:13" s="3" customFormat="1"/>
     <row r="22" spans="1:13" s="4" customFormat="1">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="58" t="s">
         <v>166</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -4242,13 +4228,13 @@
         <v>155</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>156</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="M23" s="10" t="s">
         <v>157</v>
@@ -4259,7 +4245,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>172</v>
@@ -4268,39 +4254,39 @@
         <v>173</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H24" s="10" t="s">
         <v>161</v>
       </c>
       <c r="I24" s="50" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="J24" s="50" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M24" s="30" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="B25" s="11" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>43</v>
@@ -4318,13 +4304,13 @@
         <v>145</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="K25" s="10" t="s">
         <v>145</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="M25" s="11" t="s">
         <v>44</v>
@@ -4355,10 +4341,10 @@
     <row r="27" spans="1:13" s="1" customFormat="1"/>
     <row r="28" spans="1:13" s="1" customFormat="1">
       <c r="A28" s="29" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" s="5" customFormat="1">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="5" customFormat="1" hidden="1">
       <c r="A29" s="14" t="s">
         <v>232</v>
       </c>
@@ -4372,7 +4358,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" hidden="1">
       <c r="B30" s="11" t="s">
         <v>22</v>
       </c>
@@ -4386,19 +4372,19 @@
         <v>155</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>156</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" hidden="1">
       <c r="B31" s="11" t="s">
         <v>13</v>
       </c>
@@ -4409,24 +4395,24 @@
         <v>236</v>
       </c>
       <c r="E31" s="50" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F31" s="50" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="I31" s="30" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" hidden="1">
       <c r="B32" s="11" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>43</v>
@@ -4438,19 +4424,19 @@
         <v>145</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>145</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="I32" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" hidden="1">
       <c r="B33" s="10" t="s">
         <v>48</v>
       </c>
@@ -4493,13 +4479,13 @@
         <v>155</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>156</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>157</v>
@@ -4513,27 +4499,27 @@
         <v>182</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="E37" s="50" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F37" s="50" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="I37" s="30" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="B38" s="11" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>43</v>
@@ -4545,13 +4531,13 @@
         <v>145</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>145</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="I38" s="11" t="s">
         <v>44</v>
@@ -4571,738 +4557,630 @@
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="6" customFormat="1">
-      <c r="A41" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="B41" s="17" t="s">
+    <row r="41" spans="1:10">
+      <c r="A41" s="29" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="6" customFormat="1">
+      <c r="A42" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B42" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C42" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="B42" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="I42" s="10" t="s">
-        <v>157</v>
+      <c r="D42" s="6" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="B43" s="11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="E43" s="50" t="s">
-        <v>297</v>
-      </c>
-      <c r="F43" s="50" t="s">
-        <v>295</v>
+        <v>187</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="I43" s="30" t="s">
-        <v>283</v>
+        <v>156</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="B44" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>294</v>
+        <v>13</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>188</v>
       </c>
       <c r="D44" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F44" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="G44" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J44" s="30" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="B45" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D45" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E45" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F45" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="G45" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="B46" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="29" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="6" customFormat="1">
+      <c r="A48" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="B49" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="B50" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="F50" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="G50" s="50" t="s">
         <v>290</v>
       </c>
-      <c r="G44" s="10" t="s">
+      <c r="H50" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J50" s="30" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="B51" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F51" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="H44" s="10" t="s">
+      <c r="G51" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="B52" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D52" s="10"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" s="6" customFormat="1">
+      <c r="A54" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="B55" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="B56" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E56" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="F56" s="50" t="s">
         <v>290</v>
       </c>
-      <c r="I44" s="11" t="s">
+      <c r="G56" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="I56" s="30" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="B57" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="I57" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="B45" s="10" t="s">
+    <row r="58" spans="1:13">
+      <c r="B58" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11" t="s">
+      <c r="C58" s="82" t="s">
+        <v>207</v>
+      </c>
+      <c r="D58" s="83"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="29" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" s="6" customFormat="1">
-      <c r="A47" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="C47" s="6" t="s">
+    <row r="60" spans="1:13">
+      <c r="A60" s="29" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" s="2" customFormat="1">
+      <c r="A61" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="B48" s="11" t="s">
+      <c r="D61" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="B62" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="F48" s="10" t="s">
+      <c r="C62" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="H62" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="I62" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="G48" s="10" t="s">
+      <c r="J62" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="K62" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="L62" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="M62" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="B63" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="H63" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="I63" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="J63" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="K63" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="L63" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="M63" s="30" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="B64" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="H48" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="I48" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="J48" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="B49" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="F49" s="50" t="s">
-        <v>297</v>
-      </c>
-      <c r="G49" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="I49" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="J49" s="30" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="B50" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="D50" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E50" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="F50" s="10" t="s">
+      <c r="D64" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="H64" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="I64" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="G50" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="H50" s="10" t="s">
+      <c r="J64" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="K64" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="I50" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="J50" s="11" t="s">
+      <c r="L64" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="M64" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="B51" s="10" t="s">
+    <row r="65" spans="1:13">
+      <c r="B65" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="D51" s="10"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11" t="s">
+      <c r="C65" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="D65" s="11"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="29" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="6" customFormat="1">
-      <c r="A53" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="C53" s="6" t="s">
+    <row r="66" spans="1:13">
+      <c r="A66" s="29" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="C67" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="B54" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="I54" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="J54" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="B55" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="F55" s="50" t="s">
-        <v>297</v>
-      </c>
-      <c r="G55" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="I55" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="J55" s="30" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="B56" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="I56" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="J56" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="B57" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D57" s="10"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" s="6" customFormat="1">
-      <c r="A59" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="B60" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="H60" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="I60" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="B61" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="E61" s="50" t="s">
-        <v>297</v>
-      </c>
-      <c r="F61" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="H61" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="I61" s="30" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="B62" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="H62" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="I62" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="B63" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C63" s="84" t="s">
-        <v>207</v>
-      </c>
-      <c r="D63" s="85"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
-      <c r="A65" s="29" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" s="2" customFormat="1">
-      <c r="A66" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
-      <c r="B67" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="H67" s="30" t="s">
-        <v>385</v>
-      </c>
-      <c r="I67" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="J67" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="K67" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="L67" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="M67" s="10" t="s">
-        <v>157</v>
+      <c r="D67" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="B68" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>214</v>
+        <v>22</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>203</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>216</v>
+        <v>284</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="H68" s="30" t="s">
-        <v>472</v>
-      </c>
-      <c r="I68" s="50" t="s">
-        <v>297</v>
-      </c>
-      <c r="J68" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="K68" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="L68" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="M68" s="30" t="s">
-        <v>283</v>
+        <v>156</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I68" s="10" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="B69" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>90</v>
+        <v>13</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E69" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="F69" s="50" t="s">
+        <v>290</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="H69" s="30" t="s">
-        <v>386</v>
-      </c>
-      <c r="I69" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="I69" s="30" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="B70" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="E70" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="J69" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="K69" s="10" t="s">
+      <c r="F70" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G70" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="L69" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="M69" s="11" t="s">
+      <c r="H70" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="I70" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
-      <c r="B70" s="10" t="s">
+    <row r="71" spans="1:13">
+      <c r="B71" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C70" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="D70" s="11"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="11"/>
-      <c r="L70" s="11"/>
-      <c r="M70" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
-      <c r="A71" s="29" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
-      <c r="A72" s="55" t="s">
-        <v>271</v>
-      </c>
-      <c r="B72" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="C72" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
-      <c r="B73" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="H73" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="I73" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="B74" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="E74" s="50" t="s">
-        <v>297</v>
-      </c>
-      <c r="F74" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="H74" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="I74" s="30" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
-      <c r="B75" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="F75" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="H75" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="I75" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
-      <c r="B76" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C76" s="86" t="s">
+      <c r="C71" s="84" t="s">
         <v>225</v>
       </c>
-      <c r="D76" s="87"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11" t="s">
+      <c r="D71" s="85"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11" t="s">
         <v>164</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C71:D71"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5312,10 +5190,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U64"/>
+  <dimension ref="A1:U77"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5347,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1">
@@ -5355,7 +5233,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>149</v>
@@ -5366,55 +5244,55 @@
         <v>4</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1">
       <c r="A4"/>
       <c r="B4"/>
     </row>
-    <row r="5" spans="1:15" s="58" customFormat="1">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
+    <row r="5" spans="1:15" s="56" customFormat="1">
+      <c r="A5" s="57"/>
+      <c r="B5" s="57"/>
     </row>
     <row r="6" spans="1:15" s="34" customFormat="1">
       <c r="A6" s="12" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>360</v>
-      </c>
-      <c r="C6" s="66" t="s">
+        <v>352</v>
+      </c>
+      <c r="C6" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="67" t="s">
-        <v>387</v>
+      <c r="D6" s="65" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="B7" s="50" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="J7" s="10" t="s">
         <v>4</v>
@@ -5423,13 +5301,13 @@
         <v>155</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="M7" s="10" t="s">
         <v>156</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="O7" s="10" t="s">
         <v>157</v>
@@ -5440,69 +5318,69 @@
         <v>13</v>
       </c>
       <c r="C8" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>297</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>300</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>301</v>
+      </c>
+      <c r="I8" s="50" t="s">
         <v>302</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>303</v>
-      </c>
-      <c r="E8" s="50" t="s">
-        <v>304</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>305</v>
-      </c>
-      <c r="G8" s="50" t="s">
-        <v>306</v>
-      </c>
-      <c r="H8" s="50" t="s">
-        <v>307</v>
-      </c>
-      <c r="I8" s="50" t="s">
-        <v>308</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>161</v>
       </c>
       <c r="K8" s="50" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="L8" s="50" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="O8" s="30" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="B9" s="11" t="s">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>92</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>163</v>
@@ -5511,16 +5389,16 @@
         <v>145</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="M9" s="10" t="s">
         <v>145</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="O9" s="30" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -5545,43 +5423,43 @@
     </row>
     <row r="11" spans="1:15" s="4" customFormat="1"/>
     <row r="12" spans="1:15" s="49" customFormat="1">
-      <c r="A12" s="56" t="s">
-        <v>299</v>
-      </c>
-      <c r="B12" s="56" t="s">
-        <v>442</v>
-      </c>
-      <c r="C12" s="66" t="s">
+      <c r="A12" s="54" t="s">
+        <v>480</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>434</v>
+      </c>
+      <c r="C12" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="68" t="s">
-        <v>388</v>
+      <c r="D12" s="66" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="B13" s="50" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>327</v>
-      </c>
       <c r="F13" s="10" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>4</v>
@@ -5590,13 +5468,13 @@
         <v>155</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="M13" s="10" t="s">
         <v>156</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="O13" s="10" t="s">
         <v>157</v>
@@ -5607,66 +5485,66 @@
         <v>13</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="I14" s="50" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="J14" s="10" t="s">
         <v>161</v>
       </c>
       <c r="K14" s="50" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="L14" s="50" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="O14" s="30" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="B15" s="11" t="s">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>92</v>
@@ -5678,16 +5556,16 @@
         <v>145</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="M15" s="10" t="s">
         <v>145</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="O15" s="30" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -5696,7 +5574,7 @@
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="11" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -5714,48 +5592,48 @@
     </row>
     <row r="18" spans="1:17" s="6" customFormat="1">
       <c r="A18" s="16" t="s">
-        <v>335</v>
+        <v>294</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>443</v>
-      </c>
-      <c r="C18" s="67" t="s">
-        <v>390</v>
+        <v>435</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>382</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="B19" s="50" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C19" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="I19" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="J19" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="K19" s="10" t="s">
         <v>337</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>344</v>
       </c>
       <c r="L19" s="10" t="s">
         <v>4</v>
@@ -5764,13 +5642,13 @@
         <v>155</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="O19" s="10" t="s">
         <v>156</v>
       </c>
       <c r="P19" s="10" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="Q19" s="10" t="s">
         <v>157</v>
@@ -5781,81 +5659,81 @@
         <v>13</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="D20" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="K20" s="10" t="s">
         <v>347</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>354</v>
       </c>
       <c r="L20" s="10" t="s">
         <v>161</v>
       </c>
       <c r="M20" s="50" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="N20" s="50" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="Q20" s="30" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="B21" s="11" t="s">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>356</v>
+        <v>289</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="L21" s="10" t="s">
         <v>163</v>
@@ -5864,16 +5742,16 @@
         <v>145</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="O21" s="10" t="s">
         <v>145</v>
       </c>
       <c r="P21" s="10" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="Q21" s="30" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -5901,130 +5779,130 @@
     <row r="23" spans="1:17" s="1" customFormat="1"/>
     <row r="24" spans="1:17" s="4" customFormat="1">
       <c r="A24" s="16" t="s">
-        <v>300</v>
+        <v>481</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>448</v>
-      </c>
-      <c r="C24" s="67" t="s">
-        <v>390</v>
+        <v>440</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>382</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="B25" s="50" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="O25" s="10" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="B26" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="F26" s="50" t="s">
+        <v>339</v>
+      </c>
+      <c r="G26" s="50" t="s">
+        <v>433</v>
+      </c>
+      <c r="H26" s="50" t="s">
+        <v>444</v>
+      </c>
+      <c r="I26" s="50" t="s">
+        <v>439</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="K26" s="50" t="s">
+        <v>446</v>
+      </c>
+      <c r="L26" s="50" t="s">
+        <v>447</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="N26" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="O26" s="30" t="s">
         <v>450</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>446</v>
-      </c>
-      <c r="F26" s="50" t="s">
-        <v>346</v>
-      </c>
-      <c r="G26" s="50" t="s">
-        <v>441</v>
-      </c>
-      <c r="H26" s="50" t="s">
-        <v>452</v>
-      </c>
-      <c r="I26" s="50" t="s">
-        <v>447</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="K26" s="50" t="s">
-        <v>454</v>
-      </c>
-      <c r="L26" s="50" t="s">
-        <v>455</v>
-      </c>
-      <c r="M26" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="N26" s="30" t="s">
-        <v>457</v>
-      </c>
-      <c r="O26" s="30" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="B27" s="11" t="s">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="J27" s="10" t="s">
         <v>163</v>
@@ -6033,16 +5911,16 @@
         <v>145</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="M27" s="10" t="s">
         <v>145</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="O27" s="30" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -6067,18 +5945,18 @@
     </row>
     <row r="29" spans="1:17" s="1" customFormat="1"/>
     <row r="30" spans="1:17" s="1" customFormat="1"/>
-    <row r="31" spans="1:17" s="66" customFormat="1">
-      <c r="A31" s="65" t="s">
+    <row r="31" spans="1:17" s="64" customFormat="1">
+      <c r="A31" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="65" t="s">
-        <v>263</v>
-      </c>
-      <c r="C31" s="66" t="s">
+      <c r="B31" s="63" t="s">
+        <v>259</v>
+      </c>
+      <c r="C31" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="67" t="s">
-        <v>392</v>
+      <c r="D31" s="65" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -6116,16 +5994,16 @@
         <v>155</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="N32" s="10" t="s">
         <v>156</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -6133,7 +6011,7 @@
         <v>13</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>34</v>
@@ -6157,27 +6035,27 @@
         <v>40</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="L33" s="50" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="M33" s="50" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="N33" s="30" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="O33" s="30" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="P33" s="30" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="34" spans="1:16">
       <c r="B34" s="11" t="s">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>43</v>
@@ -6210,16 +6088,16 @@
         <v>145</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="N34" s="10" t="s">
         <v>145</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="P34" s="30" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -6243,18 +6121,18 @@
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="66" customFormat="1">
-      <c r="A37" s="55" t="s">
-        <v>395</v>
-      </c>
-      <c r="B37" s="55" t="s">
-        <v>384</v>
-      </c>
-      <c r="C37" s="66" t="s">
+    <row r="37" spans="1:16" s="64" customFormat="1">
+      <c r="A37" s="53" t="s">
+        <v>387</v>
+      </c>
+      <c r="B37" s="53" t="s">
+        <v>376</v>
+      </c>
+      <c r="C37" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="67" t="s">
-        <v>393</v>
+      <c r="D37" s="65" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -6262,17 +6140,17 @@
         <v>22</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="10" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="H38" s="10" t="s">
         <v>4</v>
@@ -6281,16 +6159,16 @@
         <v>155</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="K38" s="10" t="s">
         <v>156</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -6298,49 +6176,49 @@
         <v>233</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="30" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="H39" s="10" t="s">
         <v>161</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
     </row>
     <row r="40" spans="1:16">
       <c r="B40" s="11" t="s">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="10" t="s">
@@ -6353,16 +6231,16 @@
         <v>145</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="K40" s="10" t="s">
         <v>145</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="M40" s="30" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -6389,7 +6267,7 @@
         <v>49</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>8</v>
@@ -6406,7 +6284,7 @@
         <v>51</v>
       </c>
       <c r="D44" s="50" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E44" s="30" t="s">
         <v>230</v>
@@ -6415,16 +6293,16 @@
         <v>52</v>
       </c>
       <c r="G44" s="50" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H44" s="50" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I44" s="50" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="J44" s="50" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K44" s="10" t="s">
         <v>4</v>
@@ -6433,74 +6311,74 @@
         <v>155</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="N44" s="10" t="s">
         <v>156</v>
       </c>
       <c r="O44" s="10" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="P44" s="10" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" s="72" customFormat="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="70" customFormat="1">
       <c r="B45" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="D45" s="73" t="s">
-        <v>430</v>
-      </c>
-      <c r="E45" s="73" t="s">
-        <v>431</v>
-      </c>
-      <c r="F45" s="73" t="s">
-        <v>429</v>
-      </c>
-      <c r="G45" s="73" t="s">
-        <v>432</v>
-      </c>
-      <c r="H45" s="73" t="s">
-        <v>433</v>
-      </c>
-      <c r="I45" s="73" t="s">
-        <v>434</v>
-      </c>
-      <c r="J45" s="73" t="s">
-        <v>435</v>
+        <v>420</v>
+      </c>
+      <c r="D45" s="71" t="s">
+        <v>422</v>
+      </c>
+      <c r="E45" s="71" t="s">
+        <v>423</v>
+      </c>
+      <c r="F45" s="71" t="s">
+        <v>421</v>
+      </c>
+      <c r="G45" s="71" t="s">
+        <v>424</v>
+      </c>
+      <c r="H45" s="71" t="s">
+        <v>425</v>
+      </c>
+      <c r="I45" s="71" t="s">
+        <v>426</v>
+      </c>
+      <c r="J45" s="71" t="s">
+        <v>427</v>
       </c>
       <c r="K45" s="10" t="s">
         <v>161</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="M45" s="10" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="N45" s="10" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="O45" s="10" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="P45" s="10" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
     </row>
     <row r="46" spans="1:16">
       <c r="B46" s="11" t="s">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>44</v>
@@ -6518,7 +6396,7 @@
         <v>175</v>
       </c>
       <c r="J46" s="30" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="K46" s="10" t="s">
         <v>163</v>
@@ -6527,16 +6405,16 @@
         <v>145</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="N46" s="10" t="s">
         <v>145</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="P46" s="30" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -6567,14 +6445,14 @@
       <c r="A49" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B49" s="69" t="s">
-        <v>414</v>
+      <c r="B49" s="67" t="s">
+        <v>406</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -6588,19 +6466,19 @@
         <v>65</v>
       </c>
       <c r="E50" s="50" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="F50" s="50" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G50" s="50" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="H50" s="50" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I50" s="30" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="J50" s="10" t="s">
         <v>4</v>
@@ -6609,119 +6487,119 @@
         <v>155</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="M50" s="10" t="s">
         <v>156</v>
       </c>
       <c r="N50" s="10" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="O50" s="10" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="P50" s="30" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q50" s="30" t="s">
+        <v>479</v>
+      </c>
+      <c r="R50" s="30" t="s">
+        <v>478</v>
+      </c>
+      <c r="S50" s="30" t="s">
+        <v>476</v>
+      </c>
+      <c r="T50" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="U50" s="10" t="s">
         <v>475</v>
-      </c>
-      <c r="Q50" s="30" t="s">
-        <v>487</v>
-      </c>
-      <c r="R50" s="30" t="s">
-        <v>486</v>
-      </c>
-      <c r="S50" s="30" t="s">
-        <v>484</v>
-      </c>
-      <c r="T50" s="30" t="s">
-        <v>485</v>
-      </c>
-      <c r="U50" s="10" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="51" spans="1:21">
       <c r="B51" s="30" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="E51" s="50" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="F51" s="50" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="G51" s="50" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="H51" s="50" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="I51" s="30" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="J51" s="30" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="K51" s="50" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="L51" s="50" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="M51" s="30" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="N51" s="30" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="O51" s="30" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="P51" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q51" s="30" t="s">
+        <v>470</v>
+      </c>
+      <c r="R51" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="S51" s="30" t="s">
+        <v>472</v>
+      </c>
+      <c r="T51" s="30" t="s">
+        <v>473</v>
+      </c>
+      <c r="U51" s="30" t="s">
         <v>474</v>
-      </c>
-      <c r="Q51" s="30" t="s">
-        <v>478</v>
-      </c>
-      <c r="R51" s="30" t="s">
-        <v>479</v>
-      </c>
-      <c r="S51" s="30" t="s">
-        <v>480</v>
-      </c>
-      <c r="T51" s="30" t="s">
-        <v>481</v>
-      </c>
-      <c r="U51" s="30" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="52" spans="1:21">
       <c r="B52" s="11" t="s">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>44</v>
       </c>
       <c r="E52" s="30" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>145</v>
       </c>
       <c r="G52" s="30" t="s">
-        <v>382</v>
-      </c>
-      <c r="H52" s="71" t="s">
-        <v>382</v>
+        <v>374</v>
+      </c>
+      <c r="H52" s="69" t="s">
+        <v>374</v>
       </c>
       <c r="I52" s="10" t="s">
         <v>89</v>
@@ -6733,34 +6611,34 @@
         <v>145</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="M52" s="10" t="s">
         <v>145</v>
       </c>
       <c r="N52" s="10" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="O52" s="30" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="P52" s="30" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="Q52" s="30" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="R52" s="30" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="S52" s="30" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="T52" s="30" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="U52" s="30" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -6794,17 +6672,17 @@
       <c r="U53" s="11"/>
     </row>
     <row r="55" spans="1:21" s="6" customFormat="1">
-      <c r="A55" s="70" t="s">
-        <v>397</v>
-      </c>
-      <c r="B55" s="69" t="s">
-        <v>396</v>
+      <c r="A55" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="B55" s="67" t="s">
+        <v>388</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -6815,17 +6693,17 @@
         <v>64</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="E56" s="30" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="30" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="H56" s="30" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -6836,38 +6714,38 @@
         <v>76</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="E57" s="30" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="30" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="H57" s="30" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="58" spans="1:21">
       <c r="B58" s="11" t="s">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>44</v>
       </c>
       <c r="E58" s="30" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F58" s="11"/>
       <c r="G58" s="30" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H58" s="30" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -6883,8 +6761,376 @@
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
     </row>
+    <row r="61" spans="1:21" s="6" customFormat="1">
+      <c r="A61" s="68" t="s">
+        <v>482</v>
+      </c>
+      <c r="B61" s="67" t="s">
+        <v>485</v>
+      </c>
+      <c r="D61" s="35"/>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="B62" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="10"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="50" t="s">
+        <v>250</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="J62" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="K62" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="B63" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="71" t="s">
+        <v>427</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="J63" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="K63" s="10" t="s">
+        <v>416</v>
+      </c>
+    </row>
     <row r="64" spans="1:21">
-      <c r="P64" s="29"/>
+      <c r="B64" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C64" s="10"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="J64" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="K64" s="30" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="B65" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="10"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" s="6" customFormat="1">
+      <c r="A67" s="68" t="s">
+        <v>484</v>
+      </c>
+      <c r="B67" s="67"/>
+      <c r="D67" s="35"/>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="B68" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="50" t="s">
+        <v>250</v>
+      </c>
+      <c r="J68" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K68" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="L68" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="M68" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="N68" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="O68" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="B69" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="71" t="s">
+        <v>427</v>
+      </c>
+      <c r="J69" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="K69" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="L69" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="M69" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="N69" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="O69" s="10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="B70" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D70" s="11"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="J70" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="K70" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="L70" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="M70" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="N70" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="O70" s="30" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="B71" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" s="6" customFormat="1">
+      <c r="A73" s="68" t="s">
+        <v>483</v>
+      </c>
+      <c r="B73" s="67"/>
+      <c r="D73" s="35"/>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="B74" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="50" t="s">
+        <v>250</v>
+      </c>
+      <c r="J74" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K74" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="L74" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="M74" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="N74" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="O74" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="B75" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="71" t="s">
+        <v>427</v>
+      </c>
+      <c r="J75" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="K75" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="L75" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="M75" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="N75" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="O75" s="10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="B76" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D76" s="11"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="J76" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="K76" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="L76" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="M76" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="N76" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="O76" s="30" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="B77" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11" t="s">
+        <v>164</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -6897,8 +7143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD20"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A16" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6950,10 +7196,10 @@
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1">
       <c r="A4" s="29" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1">
@@ -7032,7 +7278,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -7081,7 +7327,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>34</v>
@@ -7169,7 +7415,7 @@
         <v>49</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>8</v>
@@ -7209,31 +7455,31 @@
     </row>
     <row r="24" spans="1:15">
       <c r="B24" s="10" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C24" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="J24" s="11" t="s">
         <v>373</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="H24" s="26" t="s">
-        <v>378</v>
-      </c>
-      <c r="I24" s="26" t="s">
-        <v>380</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -7256,7 +7502,7 @@
         <v>17</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>59</v>
@@ -7320,7 +7566,7 @@
         <v>68</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>69</v>
@@ -7472,7 +7718,7 @@
         <v>8</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -7666,7 +7912,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -7789,7 +8035,7 @@
         <v>8</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7880,1154 +8126,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T67"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="19.875" customWidth="1"/>
-    <col min="10" max="10" width="21.375" customWidth="1"/>
-    <col min="11" max="11" width="15.875" customWidth="1"/>
-    <col min="12" max="12" width="12.75" customWidth="1"/>
-    <col min="13" max="13" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.75" customWidth="1"/>
-    <col min="18" max="18" width="20" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="1" customFormat="1">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="1" customFormat="1">
-      <c r="A4"/>
-      <c r="B4"/>
-    </row>
-    <row r="5" spans="1:16" s="58" customFormat="1">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-    </row>
-    <row r="6" spans="1:16" s="34" customFormat="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="52"/>
-      <c r="D6" s="54"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="B7" s="11"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="B9" s="11"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11" spans="1:16" s="4" customFormat="1"/>
-    <row r="12" spans="1:16" s="4" customFormat="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="55"/>
-      <c r="D12" s="53"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="B15" s="11"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-    </row>
-    <row r="17" spans="1:20" s="1" customFormat="1"/>
-    <row r="18" spans="1:20" s="1" customFormat="1"/>
-    <row r="19" spans="1:20" s="49" customFormat="1">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="50"/>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="50"/>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="B22" s="11"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="51"/>
-    </row>
-    <row r="24" spans="1:20" s="1" customFormat="1"/>
-    <row r="25" spans="1:20" s="58" customFormat="1">
-      <c r="A25" s="57"/>
-    </row>
-    <row r="26" spans="1:20" s="49" customFormat="1">
-      <c r="A26" s="56"/>
-      <c r="B26" s="56"/>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="B27" s="11"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="B28" s="11"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="B29" s="11"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="32" spans="1:20" s="6" customFormat="1">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="B33" s="11"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="B34" s="11"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-    </row>
-    <row r="38" spans="1:8" s="6" customFormat="1">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="B39" s="11"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="B40" s="11"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="11"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-    </row>
-    <row r="44" spans="1:8" s="6" customFormat="1">
-      <c r="A44" s="16"/>
-      <c r="B44" s="17"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="B45" s="11"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="11"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="B48" s="10"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-    </row>
-    <row r="50" spans="1:11" s="6" customFormat="1">
-      <c r="A50" s="16"/>
-      <c r="B50" s="17"/>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="B51" s="11"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="11"/>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="B54" s="10"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-    </row>
-    <row r="57" spans="1:11" s="34" customFormat="1">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="B58" s="11"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="B60" s="11"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="11"/>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="B61" s="10"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="18"/>
-      <c r="B63" s="19"/>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="B64" s="11"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-    </row>
-    <row r="65" spans="2:7">
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-    </row>
-    <row r="66" spans="2:7">
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="11"/>
-    </row>
-    <row r="67" spans="2:7">
-      <c r="B67" s="10"/>
-      <c r="C67" s="86"/>
-      <c r="D67" s="87"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C67:D67"/>
-  </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="26" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T67"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="19.875" customWidth="1"/>
-    <col min="10" max="10" width="21.375" customWidth="1"/>
-    <col min="11" max="11" width="15.875" customWidth="1"/>
-    <col min="12" max="12" width="12.75" customWidth="1"/>
-    <col min="13" max="13" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.75" customWidth="1"/>
-    <col min="18" max="18" width="20" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="1" customFormat="1">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="1" customFormat="1">
-      <c r="A4"/>
-      <c r="B4"/>
-    </row>
-    <row r="5" spans="1:16" s="58" customFormat="1">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-    </row>
-    <row r="6" spans="1:16" s="34" customFormat="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="52"/>
-      <c r="D6" s="54"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="B7" s="11"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="B9" s="11"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11" spans="1:16" s="4" customFormat="1"/>
-    <row r="12" spans="1:16" s="4" customFormat="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="55"/>
-      <c r="D12" s="53"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="B15" s="11"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-    </row>
-    <row r="17" spans="1:20" s="1" customFormat="1"/>
-    <row r="18" spans="1:20" s="1" customFormat="1"/>
-    <row r="19" spans="1:20" s="49" customFormat="1">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="50"/>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="50"/>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="B22" s="11"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="51"/>
-    </row>
-    <row r="24" spans="1:20" s="1" customFormat="1"/>
-    <row r="25" spans="1:20" s="58" customFormat="1">
-      <c r="A25" s="57"/>
-    </row>
-    <row r="26" spans="1:20" s="49" customFormat="1">
-      <c r="A26" s="56"/>
-      <c r="B26" s="56"/>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="B27" s="11"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="B28" s="11"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="B29" s="11"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="32" spans="1:20" s="6" customFormat="1">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="B33" s="11"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="B34" s="11"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-    </row>
-    <row r="38" spans="1:8" s="6" customFormat="1">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="B39" s="11"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="B40" s="11"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="11"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-    </row>
-    <row r="44" spans="1:8" s="6" customFormat="1">
-      <c r="A44" s="16"/>
-      <c r="B44" s="17"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="B45" s="11"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="11"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="B48" s="10"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-    </row>
-    <row r="50" spans="1:11" s="6" customFormat="1">
-      <c r="A50" s="16"/>
-      <c r="B50" s="17"/>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="B51" s="11"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="11"/>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="B54" s="10"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-    </row>
-    <row r="57" spans="1:11" s="34" customFormat="1">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="B58" s="11"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="B60" s="11"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="11"/>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="B61" s="10"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="18"/>
-      <c r="B63" s="19"/>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="B64" s="11"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-    </row>
-    <row r="65" spans="2:7">
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-    </row>
-    <row r="66" spans="2:7">
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="11"/>
-    </row>
-    <row r="67" spans="2:7">
-      <c r="B67" s="10"/>
-      <c r="C67" s="86"/>
-      <c r="D67" s="87"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C67:D67"/>
-  </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="26" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K47"/>
   <sheetViews>
@@ -9064,7 +8162,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
@@ -9072,7 +8170,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>148</v>
@@ -9086,16 +8184,16 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1"/>
-    <row r="5" spans="1:7" s="58" customFormat="1">
-      <c r="A5" s="57"/>
+    <row r="5" spans="1:7" s="56" customFormat="1">
+      <c r="A5" s="55"/>
     </row>
     <row r="6" spans="1:7" s="49" customFormat="1">
-      <c r="A6" s="56"/>
-      <c r="B6" s="56"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="11"/>
@@ -9275,8 +8373,8 @@
     </row>
     <row r="34" spans="1:11">
       <c r="B34" s="10"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="85"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="83"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
@@ -9363,8 +8461,8 @@
     </row>
     <row r="47" spans="1:11">
       <c r="B47" s="10"/>
-      <c r="C47" s="86"/>
-      <c r="D47" s="87"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="85"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>

--- a/design/数据库设计.xlsx
+++ b/design/数据库设计.xlsx
@@ -13,16 +13,16 @@
   </bookViews>
   <sheets>
     <sheet name="版本记录" sheetId="7" r:id="rId1"/>
-    <sheet name="后台管理数据库表结构设计" sheetId="3" r:id="rId2"/>
-    <sheet name="爬虫管理" sheetId="11" r:id="rId3"/>
-    <sheet name="数据流转表结构设计" sheetId="1" r:id="rId4"/>
-    <sheet name="数据库表结构设计" sheetId="8" r:id="rId5"/>
+    <sheet name="后台管理" sheetId="3" r:id="rId2"/>
+    <sheet name="数据管理" sheetId="11" r:id="rId3"/>
+    <sheet name="数据流转表结构设计" sheetId="12" r:id="rId4"/>
+    <sheet name="结构设计" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">版本记录!$A$1:$I$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">后台管理数据库表结构设计!$A$1:$M$71</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">爬虫管理!$A$1:$U$77</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">数据库表结构设计!$A$1:$K$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">后台管理!$A$1:$M$71</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">结构设计!$A$1:$K$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">数据管理!$A$1:$W$78</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">数据流转表结构设计!$A$1:$U$54</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -30,53 +30,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="532">
   <si>
     <t xml:space="preserve">数据库 </t>
   </si>
   <si>
-    <t>datatransform</t>
-  </si>
-  <si>
     <t>位置</t>
   </si>
   <si>
-    <t>1：是，0：否</t>
-  </si>
-  <si>
     <t>描述</t>
   </si>
   <si>
-    <t>数据库传输配置表结构</t>
-  </si>
-  <si>
     <t>数据库信息</t>
   </si>
   <si>
-    <t>sys_transform_control</t>
-  </si>
-  <si>
     <t>说明</t>
   </si>
   <si>
-    <t>通过状态改变控制程序启动和暂停</t>
-  </si>
-  <si>
     <t>唯一约束建</t>
   </si>
   <si>
-    <t>程序id</t>
-  </si>
-  <si>
-    <t>状态</t>
-  </si>
-  <si>
     <t>uuid</t>
   </si>
   <si>
-    <t>system_id</t>
-  </si>
-  <si>
     <t>flag</t>
   </si>
   <si>
@@ -89,9 +65,6 @@
     <t>UUID()</t>
   </si>
   <si>
-    <t>外键系统id</t>
-  </si>
-  <si>
     <t>结构化数据库之间相互导数据</t>
   </si>
   <si>
@@ -125,9 +98,6 @@
     <t>驱动类</t>
   </si>
   <si>
-    <t>控制器</t>
-  </si>
-  <si>
     <t>拥有者</t>
   </si>
   <si>
@@ -155,9 +125,6 @@
     <t>driver</t>
   </si>
   <si>
-    <t>transform_control</t>
-  </si>
-  <si>
     <t>owner</t>
   </si>
   <si>
@@ -191,60 +158,16 @@
     <t>表描述</t>
   </si>
   <si>
-    <t>修改状态</t>
-  </si>
-  <si>
-    <t>是否可删除源表数据</t>
-  </si>
-  <si>
-    <t>不删除的同步筛选条件</t>
-  </si>
-  <si>
-    <t>分类</t>
-  </si>
-  <si>
     <t>create_flag</t>
   </si>
   <si>
     <t>varchar（200）</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>varchar（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>400</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
     <t>外键</t>
   </si>
   <si>
     <t>列信息</t>
-  </si>
-  <si>
-    <t>sys_column_info</t>
   </si>
   <si>
     <t>程序时时运行 通过配置表使得程序读取表中信息去自动进行数据的抽取入到oracle中 执行过程每千条数据进行一次抽取提交，并删除mysql库中的数据</t>
@@ -848,22 +771,6 @@
     <t>联合建</t>
   </si>
   <si>
-    <t>excel_sheet_name</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否文件夹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_DIR</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>数据库表名称</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -905,18 +812,6 @@
   </si>
   <si>
     <t>机构项目关系</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动入库用</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>表的注释说明 做表关系映射用</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库数据统计用</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -994,13 +889,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>列类型</t>
-  </si>
-  <si>
-    <t>sys_database_info</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>sys_system</t>
     </r>
@@ -1170,10 +1058,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>系统主要目的进行多个结构化数据库之间/文件数据库之间的数据整理，统计，合并</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>主要目的是进行后台系统管理，企业信息管理，用户管理</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1465,131 +1349,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>discription</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_time</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_user</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>updata_time</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>updata_user</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>标记</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>是否约束主键</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_table_info</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>type</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>database_uuid</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>table_name</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>table_disc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_flag</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>transform_control</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>elete_data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_control</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2·</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>screening</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>conditions</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>classify</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1610,7 +1374,380 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>头像</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(1000)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>种子列表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面分类规则</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据提取详细规则</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>表分类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库表分类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据统计表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天每个表的增量信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>增量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>able_name</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ll_count</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nc_number</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_date</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ate</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>样式</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+  </si>
+  <si>
+    <t>create_user</t>
+  </si>
+  <si>
+    <t>updata_time</t>
+  </si>
+  <si>
+    <t>updata_user</t>
+  </si>
+  <si>
     <t>delete_flag</t>
+  </si>
+  <si>
+    <t>type_name</t>
+  </si>
+  <si>
+    <t>type_class</t>
+  </si>
+  <si>
+    <t>type_order</t>
+  </si>
+  <si>
+    <t>database_uuid</t>
+  </si>
+  <si>
+    <t>table_disc</t>
+  </si>
+  <si>
+    <t>type_uuid</t>
+  </si>
+  <si>
+    <t>table_name</t>
+  </si>
+  <si>
+    <t>table_desc</t>
+  </si>
+  <si>
+    <t>table_rows</t>
+  </si>
+  <si>
+    <t>table_space</t>
+  </si>
+  <si>
+    <t>table_order</t>
+  </si>
+  <si>
+    <t>type_icon</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_uuid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_seed_ruler_info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_seed_ruler_colum_info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruler_uuid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruler_colum_uuid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruler_colum_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cols_name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_seed_result_ruler_info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruler_uuid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cols_uuid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>discription</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_user</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>updata_time</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>updata_user</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete_flag</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>标记</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>列名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>列id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>表id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则列名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则列id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ead_pic</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_discription</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>colsAlign</t>
+  </si>
+  <si>
+    <t>colsValign</t>
+  </si>
+  <si>
+    <t>colsWidth</t>
+  </si>
+  <si>
+    <t>colsSwitchable</t>
+  </si>
+  <si>
+    <t>规则组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果配置映射关系</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据分析组</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据分析详细条件</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据分析分类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_uuid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_dbms_database_info</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_dbms_table_type_info</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1626,68 +1763,23 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>table_type_info</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>头像</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(1000)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>种子列表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面分类规则</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据提取详细规则</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>结果</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库连接</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>表分类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>列信息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库表分类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>sys_</t>
+      <t>dbms_</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>result</t>
+      <t>table_info</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sys_dbms_result</t>
     </r>
     <r>
       <rPr>
@@ -1723,23 +1815,119 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>数据统计表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天每个表的增量信息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名名</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据量</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>增量</t>
+    <t>sys_dbms_chart_dimension_group</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_dbms_chart_dimension</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_dbms_chart_dimension_data</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_order</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>theme</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>discription</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(36)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(36)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>chartType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>图表种类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>endNum</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回结果结束数据</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>startNum</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始数据</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>dimeOrder</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>countType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>theme</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>width</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>heigth</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1755,13 +1943,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>able_name</t>
+      <t>able_uuid</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>a</t>
+      <t>表i</t>
     </r>
     <r>
       <rPr>
@@ -1772,9 +1960,319 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ll_count</t>
+      <t>d</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>olumn_uuid1</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计的字段</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计字段2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>column_uuid2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>colsUuid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>列id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>colsDesc</t>
+  </si>
+  <si>
+    <t>列含义</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>conditions</t>
+  </si>
+  <si>
+    <t>值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>符号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>dimeUuid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sys_dbms_colmn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e_info</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>列的注释说明</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>userIcon</t>
+  </si>
+  <si>
+    <t>入库数据统计用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>表的注释说明 做表关系映射用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_DIR</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>excel_sheet_name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否文件夹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动入库用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否约束主键</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_column_info</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>varchar（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>2·</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>classify</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>screening</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>conditions</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>elete_data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_control</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>transform_control</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_flag</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_disc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>database_uuid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>不删除的同步筛选条件</t>
+  </si>
+  <si>
+    <t>是否可删除源表数据</t>
+  </si>
+  <si>
+    <t>控制器</t>
+  </si>
+  <si>
+    <t>修改状态</t>
+  </si>
+  <si>
+    <t>数据库表名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_table_info</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>transform_control</t>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_database_info</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键系统id</t>
+  </si>
+  <si>
+    <t>system_id</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>程序id</t>
+  </si>
+  <si>
+    <t>通过状态改变控制程序启动和暂停</t>
+  </si>
+  <si>
+    <t>sys_transform_control</t>
+  </si>
+  <si>
+    <t>系统主要目的进行多个结构化数据库之间/文件数据库之间的数据整理，统计，合并</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库传输配置表结构</t>
+  </si>
+  <si>
+    <t>1：是，0：否</t>
+  </si>
+  <si>
+    <t>datatransform</t>
   </si>
   <si>
     <r>
@@ -1789,92 +2287,15 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>nc_number</t>
+      <t>nt</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>data_date</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ate</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段展示时排序</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段的长度</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段的翻译</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段类型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>discription</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_column_info</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>co</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ls</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_name</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>table_uuid</t>
+    <t>varchar(36)</t>
+  </si>
+  <si>
+    <t>varchar(36)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1903,6 +2324,12 @@
       <t>）</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>colsIndex</t>
+  </si>
+  <si>
+    <t>colsVisible</t>
   </si>
   <si>
     <r>
@@ -1943,200 +2370,17 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>样式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_time</t>
-  </si>
-  <si>
-    <t>create_user</t>
-  </si>
-  <si>
-    <t>updata_time</t>
-  </si>
-  <si>
-    <t>updata_user</t>
-  </si>
-  <si>
-    <t>delete_flag</t>
-  </si>
-  <si>
-    <t>type_name</t>
-  </si>
-  <si>
-    <t>type_class</t>
-  </si>
-  <si>
-    <t>type_order</t>
-  </si>
-  <si>
-    <t>database_uuid</t>
-  </si>
-  <si>
-    <t>table_disc</t>
-  </si>
-  <si>
-    <t>type_uuid</t>
-  </si>
-  <si>
-    <t>table_name</t>
-  </si>
-  <si>
-    <t>table_desc</t>
-  </si>
-  <si>
-    <t>table_rows</t>
-  </si>
-  <si>
-    <t>table_space</t>
-  </si>
-  <si>
-    <t>table_order</t>
+    <t>cols_order</t>
+  </si>
+  <si>
+    <t>cold_type</t>
   </si>
   <si>
     <t>cols_desc</t>
   </si>
   <si>
-    <t>cold_type</t>
-  </si>
-  <si>
-    <t>cold_length</t>
-  </si>
-  <si>
-    <t>cols_order</t>
-  </si>
-  <si>
-    <t>type_icon</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>table_uuid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_seed_ruler_info</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_seed_ruler_colum_info</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ruler_uuid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ruler_colum_uuid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ruler_colum_name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cols_name</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_seed_result_ruler_info</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ruler_uuid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cols_uuid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>discription</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_time</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_user</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>updata_time</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>updata_user</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete_flag</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>标记</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新人</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新时间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>插入人</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>插入时间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>列名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>列id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>表id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则列名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则列id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
-      <t>h</t>
+      <t>co</t>
     </r>
     <r>
       <rPr>
@@ -2147,88 +2391,84 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ead_pic</t>
+      <t>ls</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization_discription</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>colsAlign</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_name</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_uuid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户查询列配置</t>
+  </si>
+  <si>
+    <t>列项目的选项卡隐藏</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>列项目隐藏</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每列的宽度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对齐方式</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(36)</t>
-  </si>
-  <si>
-    <t>varchar(36)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>colsValign</t>
-  </si>
-  <si>
-    <t>colsWidth</t>
-  </si>
-  <si>
-    <t>colsVisible</t>
-  </si>
-  <si>
-    <t>colsSwitchable</t>
-  </si>
-  <si>
-    <t>colsIndex</t>
-  </si>
-  <si>
-    <t>用户查询列配置</t>
-  </si>
-  <si>
-    <t>列项目隐藏</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>列项目的选项卡隐藏</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>每列的宽度</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>对齐方式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>结果配置映射关系</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据分析组</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据分析详细条件</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据分析分类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_chart_dimension_group</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>group_uuid</t>
+    <t>字段类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段展示时排序</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段的长度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>列类型</t>
+  </si>
+  <si>
+    <t>字段的翻译</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cols_length</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>图表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxLength</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段最大长度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段信息</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2333,7 +2573,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -2727,21 +2967,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="hair">
@@ -2759,7 +2984,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2827,9 +3052,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -2949,13 +3171,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2965,9 +3184,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -3017,6 +3233,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3360,484 +3582,484 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="31"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="34"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="33"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="34"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="34"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="33"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="33"/>
-      <c r="B4" s="72" t="s">
-        <v>244</v>
-      </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="34"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="69" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="33"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="33"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="34"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="33"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="33"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="34"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="33"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="33"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="34"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="33"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="34"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="33"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="33"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="34"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="33"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="34"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="33"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="33"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="34"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="33"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="33"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="34"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="33"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="33"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="34"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="33"/>
     </row>
     <row r="14" spans="1:11" ht="14.25" thickBot="1">
-      <c r="A14" s="33"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="34"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="33"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" thickTop="1">
-      <c r="A15" s="33"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="34"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="33"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="33"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="34"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="33"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="33"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="34"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="33"/>
     </row>
     <row r="18" spans="1:11" ht="14.25" thickBot="1">
-      <c r="A18" s="33"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="34"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="33"/>
     </row>
     <row r="19" spans="1:11" ht="14.25" thickTop="1">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="34"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="33"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="33"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="33"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" thickBot="1">
-      <c r="A21" s="33"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="34"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="33"/>
     </row>
     <row r="22" spans="1:11" ht="14.25" thickTop="1">
-      <c r="A22" s="33"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="34"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="33"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="33"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="34"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="33"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="33"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="34"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="33"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="33"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="34"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="33"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="33"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="34"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="33"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="33"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="34"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="33"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="33"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="34"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="33"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="33"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="34"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="33"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="33"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="34"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="33"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="33"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="34"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="33"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="33"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="34"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="33"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="33"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="34"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="33"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="45"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="34"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="33"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="B35" s="36"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="38"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="37"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="B36" s="36"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="38"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="37"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="B37" s="36"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="38"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="37"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="B38" s="39"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="41"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3857,7 +4079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A37" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
@@ -3883,37 +4105,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1">
-      <c r="A4" s="29" t="s">
-        <v>280</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>282</v>
+      <c r="A4" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1">
@@ -3933,247 +4155,247 @@
       <c r="B8"/>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1">
-      <c r="A9" s="29" t="s">
-        <v>268</v>
+      <c r="A9" s="28" t="s">
+        <v>242</v>
       </c>
       <c r="B9"/>
     </row>
-    <row r="10" spans="1:13" s="61" customFormat="1">
-      <c r="A10" s="59" t="s">
-        <v>151</v>
-      </c>
-      <c r="B10" s="60" t="s">
-        <v>235</v>
-      </c>
-      <c r="C10" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="61" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="29" customFormat="1">
-      <c r="B11" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" s="30" t="s">
+    <row r="10" spans="1:13" s="60" customFormat="1">
+      <c r="A10" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="30" t="s">
-        <v>154</v>
+      <c r="D10" s="60" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="28" customFormat="1">
+      <c r="B11" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>137</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="L11" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="M11" s="29" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="29" customFormat="1">
-      <c r="B12" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="F12" s="50" t="s">
-        <v>292</v>
-      </c>
-      <c r="G12" s="50" t="s">
-        <v>290</v>
+        <v>140</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="M11" s="28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="28" customFormat="1">
+      <c r="B12" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>265</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>263</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="J12" s="30" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="29" customFormat="1">
-      <c r="B13" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>43</v>
+        <v>260</v>
+      </c>
+      <c r="J12" s="29" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="28" customFormat="1">
+      <c r="B13" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>32</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="29" customFormat="1">
-      <c r="B14" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="28" customFormat="1">
+      <c r="B14" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="62" customFormat="1"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="61" customFormat="1"/>
     <row r="16" spans="1:13" s="2" customFormat="1" hidden="1">
-      <c r="A16" s="59" t="s">
-        <v>261</v>
-      </c>
-      <c r="B16" s="60" t="s">
-        <v>260</v>
+      <c r="A16" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>234</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="61" t="s">
-        <v>266</v>
+        <v>4</v>
+      </c>
+      <c r="D16" s="60" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:13" hidden="1">
       <c r="B17" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>275</v>
+        <v>13</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>249</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:13" hidden="1">
       <c r="B18" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="C18" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" s="49" t="s">
+        <v>265</v>
+      </c>
+      <c r="H18" s="49" t="s">
         <v>263</v>
       </c>
-      <c r="D18" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>277</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="G18" s="50" t="s">
-        <v>292</v>
-      </c>
-      <c r="H18" s="50" t="s">
-        <v>290</v>
-      </c>
       <c r="I18" s="10" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="K18" s="30" t="s">
-        <v>279</v>
+        <v>260</v>
+      </c>
+      <c r="K18" s="29" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:13" hidden="1">
       <c r="B19" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>289</v>
+        <v>262</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>262</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>264</v>
+        <v>106</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>238</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:13" hidden="1">
       <c r="B20" s="10" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="11"/>
@@ -4184,147 +4406,147 @@
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="3" customFormat="1"/>
     <row r="22" spans="1:13" s="4" customFormat="1">
-      <c r="A22" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="B22" s="58" t="s">
-        <v>166</v>
+      <c r="A22" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="57" t="s">
+        <v>149</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="B23" s="13" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C23" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>170</v>
-      </c>
       <c r="G23" s="10" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="B24" s="11" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="G24" s="30" t="s">
-        <v>278</v>
+        <v>256</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>252</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="I24" s="50" t="s">
-        <v>292</v>
-      </c>
-      <c r="J24" s="50" t="s">
-        <v>290</v>
+        <v>144</v>
+      </c>
+      <c r="I24" s="49" t="s">
+        <v>265</v>
+      </c>
+      <c r="J24" s="49" t="s">
+        <v>263</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="M24" s="30" t="s">
-        <v>279</v>
+        <v>260</v>
+      </c>
+      <c r="M24" s="29" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="B25" s="11" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="B26" s="10" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="10"/>
@@ -4335,110 +4557,110 @@
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="1" customFormat="1"/>
     <row r="28" spans="1:13" s="1" customFormat="1">
-      <c r="A28" s="29" t="s">
-        <v>269</v>
+      <c r="A28" s="28" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="5" customFormat="1" hidden="1">
       <c r="A29" s="14" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:13" hidden="1">
       <c r="B30" s="11" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:13" hidden="1">
       <c r="B31" s="11" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="E31" s="50" t="s">
-        <v>292</v>
-      </c>
-      <c r="F31" s="50" t="s">
-        <v>290</v>
+        <v>215</v>
+      </c>
+      <c r="E31" s="49" t="s">
+        <v>265</v>
+      </c>
+      <c r="F31" s="49" t="s">
+        <v>263</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="I31" s="30" t="s">
-        <v>279</v>
+        <v>260</v>
+      </c>
+      <c r="I31" s="29" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:13" hidden="1">
       <c r="B32" s="11" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:10" hidden="1">
       <c r="B33" s="10" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="11"/>
@@ -4447,105 +4669,105 @@
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="1" customFormat="1"/>
     <row r="35" spans="1:10" s="5" customFormat="1">
       <c r="A35" s="14" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="B36" s="11" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="B37" s="11" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="E37" s="50" t="s">
-        <v>292</v>
-      </c>
-      <c r="F37" s="50" t="s">
-        <v>290</v>
+        <v>401</v>
+      </c>
+      <c r="E37" s="49" t="s">
+        <v>265</v>
+      </c>
+      <c r="F37" s="49" t="s">
+        <v>263</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="I37" s="30" t="s">
-        <v>279</v>
+        <v>260</v>
+      </c>
+      <c r="I37" s="29" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="B38" s="11" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="B39" s="10" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="11"/>
@@ -4554,121 +4776,121 @@
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="29" t="s">
-        <v>270</v>
+      <c r="A41" s="28" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1">
       <c r="A42" s="16" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="B43" s="11" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="B44" s="11" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="F44" s="50" t="s">
-        <v>292</v>
-      </c>
-      <c r="G44" s="50" t="s">
-        <v>290</v>
+        <v>173</v>
+      </c>
+      <c r="F44" s="49" t="s">
+        <v>265</v>
+      </c>
+      <c r="G44" s="49" t="s">
+        <v>263</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="J44" s="30" t="s">
-        <v>279</v>
+        <v>260</v>
+      </c>
+      <c r="J44" s="29" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="B45" s="11" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="B46" s="10" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="11"/>
@@ -4677,121 +4899,121 @@
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
       <c r="J46" s="11" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="29" t="s">
-        <v>271</v>
+      <c r="A47" s="28" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="48" spans="1:10" s="6" customFormat="1">
       <c r="A48" s="16" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="B49" s="11" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="B50" s="11" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="F50" s="50" t="s">
-        <v>292</v>
-      </c>
-      <c r="G50" s="50" t="s">
-        <v>290</v>
+        <v>182</v>
+      </c>
+      <c r="F50" s="49" t="s">
+        <v>265</v>
+      </c>
+      <c r="G50" s="49" t="s">
+        <v>263</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="J50" s="30" t="s">
-        <v>279</v>
+        <v>260</v>
+      </c>
+      <c r="J50" s="29" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="B51" s="11" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="B52" s="10" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="11"/>
@@ -4800,256 +5022,256 @@
       <c r="H52" s="11"/>
       <c r="I52" s="11"/>
       <c r="J52" s="11" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:13" s="6" customFormat="1">
       <c r="A54" s="16" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="B55" s="11" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="B56" s="11" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="E56" s="50" t="s">
-        <v>292</v>
-      </c>
-      <c r="F56" s="50" t="s">
-        <v>290</v>
+        <v>189</v>
+      </c>
+      <c r="E56" s="49" t="s">
+        <v>265</v>
+      </c>
+      <c r="F56" s="49" t="s">
+        <v>263</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="I56" s="30" t="s">
-        <v>279</v>
+        <v>260</v>
+      </c>
+      <c r="I56" s="29" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="B57" s="11" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="B58" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C58" s="82" t="s">
-        <v>207</v>
-      </c>
-      <c r="D58" s="83"/>
+        <v>37</v>
+      </c>
+      <c r="C58" s="79" t="s">
+        <v>190</v>
+      </c>
+      <c r="D58" s="80"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
       <c r="I58" s="11" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="29" t="s">
-        <v>272</v>
+      <c r="A60" s="28" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="61" spans="1:13" s="2" customFormat="1">
       <c r="A61" s="8" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="B62" s="11" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>463</v>
+        <v>399</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="H62" s="30" t="s">
-        <v>377</v>
+        <v>195</v>
+      </c>
+      <c r="H62" s="29" t="s">
+        <v>331</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="L62" s="10" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="M62" s="10" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="B63" s="11" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="H63" s="30" t="s">
-        <v>464</v>
-      </c>
-      <c r="I63" s="50" t="s">
-        <v>292</v>
-      </c>
-      <c r="J63" s="50" t="s">
-        <v>290</v>
+        <v>200</v>
+      </c>
+      <c r="H63" s="29" t="s">
+        <v>400</v>
+      </c>
+      <c r="I63" s="49" t="s">
+        <v>265</v>
+      </c>
+      <c r="J63" s="49" t="s">
+        <v>263</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="L63" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="M63" s="30" t="s">
-        <v>279</v>
+        <v>260</v>
+      </c>
+      <c r="M63" s="29" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="B64" s="11" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="H64" s="30" t="s">
-        <v>378</v>
+        <v>201</v>
+      </c>
+      <c r="H64" s="29" t="s">
+        <v>332</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="L64" s="10" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="M64" s="11" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="B65" s="10" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="10"/>
@@ -5061,120 +5283,120 @@
       <c r="K65" s="11"/>
       <c r="L65" s="11"/>
       <c r="M65" s="11" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="29" t="s">
-        <v>273</v>
+      <c r="A66" s="28" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="53" t="s">
-        <v>267</v>
+      <c r="A67" s="52" t="s">
+        <v>241</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="B68" s="11" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="B69" s="11" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="E69" s="50" t="s">
-        <v>292</v>
-      </c>
-      <c r="F69" s="50" t="s">
-        <v>290</v>
+        <v>207</v>
+      </c>
+      <c r="E69" s="49" t="s">
+        <v>265</v>
+      </c>
+      <c r="F69" s="49" t="s">
+        <v>263</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="I69" s="30" t="s">
-        <v>279</v>
+        <v>260</v>
+      </c>
+      <c r="I69" s="29" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="B70" s="11" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="B71" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C71" s="84" t="s">
-        <v>225</v>
-      </c>
-      <c r="D71" s="85"/>
+        <v>37</v>
+      </c>
+      <c r="C71" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="D71" s="82"/>
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
       <c r="H71" s="11"/>
       <c r="I71" s="11" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -5190,10 +5412,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U77"/>
+  <dimension ref="A1:W77"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5218,6 +5440,9 @@
     <col min="18" max="18" width="20" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17.25" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.375" customWidth="1"/>
+    <col min="22" max="22" width="11.625" customWidth="1"/>
+    <col min="23" max="23" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -5225,185 +5450,185 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>295</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1">
       <c r="A4"/>
       <c r="B4"/>
     </row>
-    <row r="5" spans="1:15" s="56" customFormat="1">
-      <c r="A5" s="57"/>
-      <c r="B5" s="57"/>
-    </row>
-    <row r="6" spans="1:15" s="34" customFormat="1">
+    <row r="5" spans="1:15" s="55" customFormat="1">
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+    </row>
+    <row r="6" spans="1:15" s="33" customFormat="1">
       <c r="A6" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="B6" s="52" t="s">
-        <v>352</v>
-      </c>
-      <c r="C6" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="65" t="s">
-        <v>379</v>
+        <v>266</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>325</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="63" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="B8" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>270</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>271</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>272</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="H8" s="49" t="s">
+        <v>274</v>
+      </c>
+      <c r="I8" s="49" t="s">
+        <v>275</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="K8" s="49" t="s">
+        <v>265</v>
+      </c>
+      <c r="L8" s="49" t="s">
+        <v>263</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="O8" s="29" t="s">
         <v>253</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>312</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>309</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="B8" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>296</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>297</v>
-      </c>
-      <c r="E8" s="50" t="s">
-        <v>298</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>299</v>
-      </c>
-      <c r="G8" s="50" t="s">
-        <v>300</v>
-      </c>
-      <c r="H8" s="50" t="s">
-        <v>301</v>
-      </c>
-      <c r="I8" s="50" t="s">
-        <v>302</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="K8" s="50" t="s">
-        <v>292</v>
-      </c>
-      <c r="L8" s="50" t="s">
-        <v>290</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="O8" s="30" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="B9" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>314</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>310</v>
+        <v>262</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>283</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="O9" s="30" t="s">
-        <v>374</v>
+        <v>258</v>
+      </c>
+      <c r="O9" s="29" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="B10" s="10" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="11"/>
@@ -5411,170 +5636,170 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="51"/>
+      <c r="I10" s="50"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="4" customFormat="1"/>
-    <row r="12" spans="1:15" s="49" customFormat="1">
-      <c r="A12" s="54" t="s">
-        <v>480</v>
-      </c>
-      <c r="B12" s="54" t="s">
-        <v>434</v>
-      </c>
-      <c r="C12" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="66" t="s">
-        <v>380</v>
+    <row r="12" spans="1:15" s="48" customFormat="1">
+      <c r="A12" s="53" t="s">
+        <v>406</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>370</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="B14" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="I14" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" s="49" t="s">
+        <v>265</v>
+      </c>
+      <c r="L14" s="49" t="s">
+        <v>263</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="O14" s="29" t="s">
         <v>253</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="M13" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="N13" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="O13" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="B14" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="I14" s="50" t="s">
-        <v>300</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="K14" s="50" t="s">
-        <v>292</v>
-      </c>
-      <c r="L14" s="50" t="s">
-        <v>290</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="N14" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="O14" s="30" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="B15" s="11" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="O15" s="30" t="s">
-        <v>374</v>
+        <v>258</v>
+      </c>
+      <c r="O15" s="29" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="B16" s="10" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="11" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -5587,176 +5812,176 @@
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="6" customFormat="1">
       <c r="A18" s="16" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>435</v>
-      </c>
-      <c r="C18" s="65" t="s">
-        <v>382</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>381</v>
+        <v>371</v>
+      </c>
+      <c r="C18" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="B20" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="M20" s="49" t="s">
+        <v>265</v>
+      </c>
+      <c r="N20" s="49" t="s">
+        <v>263</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="P20" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q20" s="29" t="s">
         <v>253</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="M19" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="N19" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="P19" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q19" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="B20" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="M20" s="50" t="s">
-        <v>292</v>
-      </c>
-      <c r="N20" s="50" t="s">
-        <v>290</v>
-      </c>
-      <c r="O20" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="P20" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q20" s="30" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="B21" s="11" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="P21" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q21" s="30" t="s">
-        <v>374</v>
+        <v>258</v>
+      </c>
+      <c r="Q21" s="29" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="B22" s="10" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -5773,159 +5998,159 @@
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="11" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1"/>
     <row r="24" spans="1:17" s="4" customFormat="1">
       <c r="A24" s="16" t="s">
-        <v>481</v>
+        <v>407</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>440</v>
-      </c>
-      <c r="C24" s="65" t="s">
+        <v>376</v>
+      </c>
+      <c r="C24" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="B25" s="49" t="s">
+        <v>377</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="B26" s="49" t="s">
+        <v>378</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="F26" s="49" t="s">
+        <v>312</v>
+      </c>
+      <c r="G26" s="49" t="s">
+        <v>369</v>
+      </c>
+      <c r="H26" s="49" t="s">
+        <v>380</v>
+      </c>
+      <c r="I26" s="49" t="s">
+        <v>375</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="K26" s="49" t="s">
         <v>382</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="L26" s="49" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="B25" s="50" t="s">
-        <v>441</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="M25" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="N25" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="O25" s="10" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="B26" s="50" t="s">
-        <v>442</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="F26" s="50" t="s">
-        <v>339</v>
-      </c>
-      <c r="G26" s="50" t="s">
-        <v>433</v>
-      </c>
-      <c r="H26" s="50" t="s">
-        <v>444</v>
-      </c>
-      <c r="I26" s="50" t="s">
-        <v>439</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="K26" s="50" t="s">
-        <v>446</v>
-      </c>
-      <c r="L26" s="50" t="s">
-        <v>447</v>
-      </c>
       <c r="M26" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="N26" s="30" t="s">
-        <v>449</v>
-      </c>
-      <c r="O26" s="30" t="s">
-        <v>450</v>
+        <v>384</v>
+      </c>
+      <c r="N26" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="O26" s="29" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="B27" s="11" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="O27" s="30" t="s">
-        <v>374</v>
+        <v>258</v>
+      </c>
+      <c r="O27" s="29" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="B28" s="10" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="11"/>
@@ -5940,173 +6165,177 @@
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
       <c r="O28" s="11" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:17" s="1" customFormat="1"/>
-    <row r="30" spans="1:17" s="1" customFormat="1"/>
-    <row r="31" spans="1:17" s="64" customFormat="1">
-      <c r="A31" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="C31" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="65" t="s">
-        <v>384</v>
+    <row r="30" spans="1:17" s="33" customFormat="1">
+      <c r="A30" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="B32" s="11" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33" spans="1:16">
       <c r="B33" s="11" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>364</v>
+        <v>329</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>526</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="L33" s="50" t="s">
-        <v>356</v>
-      </c>
-      <c r="M33" s="50" t="s">
-        <v>357</v>
-      </c>
-      <c r="N33" s="30" t="s">
-        <v>358</v>
-      </c>
-      <c r="O33" s="30" t="s">
-        <v>359</v>
-      </c>
-      <c r="P33" s="30" t="s">
-        <v>375</v>
+        <v>251</v>
+      </c>
+      <c r="L33" s="49" t="s">
+        <v>265</v>
+      </c>
+      <c r="M33" s="49" t="s">
+        <v>263</v>
+      </c>
+      <c r="N33" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="O33" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="P33" s="29" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="34" spans="1:16">
       <c r="B34" s="11" t="s">
-        <v>289</v>
+        <v>8</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>45</v>
+        <v>33</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="P34" s="30" t="s">
-        <v>374</v>
+        <v>258</v>
+      </c>
+      <c r="P34" s="29" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:16">
       <c r="B35" s="10" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
+      <c r="E35" s="10"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
@@ -6118,134 +6347,135 @@
       <c r="N35" s="11"/>
       <c r="O35" s="11"/>
       <c r="P35" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" s="64" customFormat="1">
-      <c r="A37" s="53" t="s">
-        <v>387</v>
-      </c>
-      <c r="B37" s="53" t="s">
-        <v>376</v>
-      </c>
-      <c r="C37" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="65" t="s">
-        <v>385</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" s="1" customFormat="1"/>
+    <row r="37" spans="1:16" s="62" customFormat="1">
+      <c r="A37" s="52" t="s">
+        <v>339</v>
+      </c>
+      <c r="B37" s="52" t="s">
+        <v>413</v>
+      </c>
+      <c r="C37" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="63" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="38" spans="1:16">
       <c r="B38" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>249</v>
-      </c>
-      <c r="E38" s="30" t="s">
-        <v>251</v>
+        <v>13</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>227</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="10" t="s">
-        <v>411</v>
+        <v>351</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
     </row>
     <row r="39" spans="1:16">
-      <c r="B39" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>417</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>418</v>
-      </c>
-      <c r="E39" s="30" t="s">
-        <v>419</v>
+      <c r="B39" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>359</v>
       </c>
       <c r="F39" s="11"/>
-      <c r="G39" s="30" t="s">
-        <v>432</v>
+      <c r="G39" s="29" t="s">
+        <v>368</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>412</v>
+        <v>352</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>413</v>
+        <v>353</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>414</v>
+        <v>354</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>415</v>
+        <v>355</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>416</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40" spans="1:16">
       <c r="B40" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="D40" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="E40" s="30" t="s">
-        <v>349</v>
+        <v>262</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="E40" s="29" t="s">
+        <v>322</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="10" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="M40" s="30" t="s">
-        <v>374</v>
+        <v>258</v>
+      </c>
+      <c r="M40" s="29" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="41" spans="1:16">
       <c r="B41" s="10" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
@@ -6258,171 +6488,171 @@
       <c r="K41" s="11"/>
       <c r="L41" s="11"/>
       <c r="M41" s="11" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:16" s="1" customFormat="1" ht="11.25" customHeight="1"/>
     <row r="43" spans="1:16" s="6" customFormat="1">
       <c r="A43" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>362</v>
+        <v>38</v>
+      </c>
+      <c r="B43" s="65" t="s">
+        <v>414</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:16">
       <c r="B44" s="10" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D44" s="50" t="s">
-        <v>254</v>
-      </c>
-      <c r="E44" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="49" t="s">
         <v>230</v>
       </c>
+      <c r="E44" s="29" t="s">
+        <v>209</v>
+      </c>
       <c r="F44" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G44" s="50" t="s">
-        <v>255</v>
-      </c>
-      <c r="H44" s="50" t="s">
-        <v>256</v>
-      </c>
-      <c r="I44" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="G44" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="H44" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="I44" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="J44" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M44" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="J44" s="50" t="s">
-        <v>250</v>
-      </c>
-      <c r="K44" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="L44" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="M44" s="10" t="s">
-        <v>284</v>
-      </c>
       <c r="N44" s="10" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="O44" s="10" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="P44" s="10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="67" customFormat="1">
+      <c r="B45" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="10" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" s="70" customFormat="1">
-      <c r="B45" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="D45" s="71" t="s">
-        <v>422</v>
-      </c>
-      <c r="E45" s="71" t="s">
-        <v>423</v>
-      </c>
-      <c r="F45" s="71" t="s">
-        <v>421</v>
-      </c>
-      <c r="G45" s="71" t="s">
-        <v>424</v>
-      </c>
-      <c r="H45" s="71" t="s">
-        <v>425</v>
-      </c>
-      <c r="I45" s="71" t="s">
-        <v>426</v>
-      </c>
-      <c r="J45" s="71" t="s">
-        <v>427</v>
+      <c r="D45" s="68" t="s">
+        <v>362</v>
+      </c>
+      <c r="E45" s="68" t="s">
+        <v>363</v>
+      </c>
+      <c r="F45" s="68" t="s">
+        <v>361</v>
+      </c>
+      <c r="G45" s="68" t="s">
+        <v>364</v>
+      </c>
+      <c r="H45" s="68" t="s">
+        <v>365</v>
+      </c>
+      <c r="I45" s="68" t="s">
+        <v>366</v>
+      </c>
+      <c r="J45" s="68" t="s">
+        <v>367</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>412</v>
+        <v>352</v>
       </c>
       <c r="M45" s="10" t="s">
-        <v>413</v>
+        <v>353</v>
       </c>
       <c r="N45" s="10" t="s">
-        <v>414</v>
+        <v>354</v>
       </c>
       <c r="O45" s="10" t="s">
-        <v>415</v>
+        <v>355</v>
       </c>
       <c r="P45" s="10" t="s">
-        <v>416</v>
+        <v>356</v>
       </c>
     </row>
     <row r="46" spans="1:16">
       <c r="B46" s="11" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="J46" s="30" t="s">
-        <v>374</v>
+        <v>158</v>
+      </c>
+      <c r="J46" s="29" t="s">
+        <v>330</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="N46" s="10" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="P46" s="30" t="s">
-        <v>374</v>
+        <v>258</v>
+      </c>
+      <c r="P46" s="29" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="47" spans="1:16">
       <c r="B47" s="10" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="11"/>
@@ -6437,323 +6667,344 @@
       <c r="N47" s="11"/>
       <c r="O47" s="11"/>
       <c r="P47" s="11" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:16" s="1" customFormat="1" ht="11.25" customHeight="1"/>
-    <row r="49" spans="1:21" s="6" customFormat="1">
-      <c r="A49" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" s="67" t="s">
-        <v>406</v>
+    <row r="49" spans="1:23" s="6" customFormat="1">
+      <c r="A49" s="66" t="s">
+        <v>531</v>
+      </c>
+      <c r="B49" s="65" t="s">
+        <v>460</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="35" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21">
+        <v>4</v>
+      </c>
+      <c r="D49" s="34" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
       <c r="B50" s="10" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E50" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50" s="49" t="s">
+        <v>525</v>
+      </c>
+      <c r="F50" s="49" t="s">
+        <v>524</v>
+      </c>
+      <c r="G50" s="49" t="s">
+        <v>523</v>
+      </c>
+      <c r="H50" s="49" t="s">
+        <v>522</v>
+      </c>
+      <c r="I50" s="29" t="s">
+        <v>521</v>
+      </c>
+      <c r="J50" s="29" t="s">
+        <v>520</v>
+      </c>
+      <c r="K50" s="29" t="s">
+        <v>520</v>
+      </c>
+      <c r="L50" s="29" t="s">
+        <v>519</v>
+      </c>
+      <c r="M50" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="N50" s="29" t="s">
+        <v>517</v>
+      </c>
+      <c r="O50" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="P50" s="49" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q50" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="R50" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S50" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="T50" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="U50" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="V50" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="W50" s="10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" s="67" customFormat="1">
+      <c r="B51" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>515</v>
+      </c>
+      <c r="D51" s="29" t="s">
+        <v>514</v>
+      </c>
+      <c r="E51" s="49" t="s">
+        <v>513</v>
+      </c>
+      <c r="F51" s="49" t="s">
+        <v>512</v>
+      </c>
+      <c r="G51" s="49" t="s">
+        <v>527</v>
+      </c>
+      <c r="H51" s="49" t="s">
+        <v>511</v>
+      </c>
+      <c r="I51" s="29" t="s">
+        <v>510</v>
+      </c>
+      <c r="J51" s="29" t="s">
         <v>402</v>
       </c>
-      <c r="F50" s="50" t="s">
+      <c r="K51" s="29" t="s">
+        <v>403</v>
+      </c>
+      <c r="L51" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="M51" s="29" t="s">
+        <v>509</v>
+      </c>
+      <c r="N51" s="29" t="s">
+        <v>405</v>
+      </c>
+      <c r="O51" s="29" t="s">
+        <v>508</v>
+      </c>
+      <c r="P51" s="68" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q51" s="29" t="s">
+        <v>529</v>
+      </c>
+      <c r="R51" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="S51" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="T51" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="U51" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="V51" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="W51" s="10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
+      <c r="B52" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>507</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="G52" s="29" t="s">
+        <v>504</v>
+      </c>
+      <c r="H52" s="84" t="s">
+        <v>504</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J52" s="29" t="s">
+        <v>506</v>
+      </c>
+      <c r="K52" s="29" t="s">
+        <v>505</v>
+      </c>
+      <c r="L52" s="29" t="s">
+        <v>505</v>
+      </c>
+      <c r="M52" s="29" t="s">
+        <v>505</v>
+      </c>
+      <c r="N52" s="29" t="s">
+        <v>505</v>
+      </c>
+      <c r="O52" s="29" t="s">
+        <v>505</v>
+      </c>
+      <c r="P52" s="29" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q52" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="R52" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="S52" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="T52" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="G50" s="50" t="s">
-        <v>401</v>
-      </c>
-      <c r="H50" s="50" t="s">
-        <v>400</v>
-      </c>
-      <c r="I50" s="30" t="s">
-        <v>403</v>
-      </c>
-      <c r="J50" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K50" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="L50" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="M50" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="N50" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="O50" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="P50" s="30" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q50" s="30" t="s">
-        <v>479</v>
-      </c>
-      <c r="R50" s="30" t="s">
-        <v>478</v>
-      </c>
-      <c r="S50" s="30" t="s">
-        <v>476</v>
-      </c>
-      <c r="T50" s="30" t="s">
-        <v>477</v>
-      </c>
-      <c r="U50" s="10" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21">
-      <c r="B51" s="30" t="s">
-        <v>404</v>
-      </c>
-      <c r="C51" s="30" t="s">
-        <v>408</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>407</v>
-      </c>
-      <c r="E51" s="50" t="s">
-        <v>428</v>
-      </c>
-      <c r="F51" s="50" t="s">
-        <v>429</v>
-      </c>
-      <c r="G51" s="50" t="s">
-        <v>430</v>
-      </c>
-      <c r="H51" s="50" t="s">
-        <v>431</v>
-      </c>
-      <c r="I51" s="30" t="s">
-        <v>410</v>
-      </c>
-      <c r="J51" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="K51" s="50" t="s">
-        <v>356</v>
-      </c>
-      <c r="L51" s="50" t="s">
-        <v>357</v>
-      </c>
-      <c r="M51" s="30" t="s">
-        <v>358</v>
-      </c>
-      <c r="N51" s="30" t="s">
-        <v>359</v>
-      </c>
-      <c r="O51" s="30" t="s">
-        <v>375</v>
-      </c>
-      <c r="P51" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q51" s="30" t="s">
-        <v>470</v>
-      </c>
-      <c r="R51" s="30" t="s">
-        <v>471</v>
-      </c>
-      <c r="S51" s="30" t="s">
-        <v>472</v>
-      </c>
-      <c r="T51" s="30" t="s">
-        <v>473</v>
-      </c>
-      <c r="U51" s="30" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21">
-      <c r="B52" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="D52" s="11" t="s">
+      <c r="U52" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="V52" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="W52" s="29" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
+      <c r="B53" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="E52" s="30" t="s">
-        <v>409</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="G52" s="30" t="s">
-        <v>374</v>
-      </c>
-      <c r="H52" s="69" t="s">
-        <v>374</v>
-      </c>
-      <c r="I52" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="J52" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="K52" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="L52" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="M52" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="N52" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="O52" s="30" t="s">
-        <v>374</v>
-      </c>
-      <c r="P52" s="30" t="s">
-        <v>469</v>
-      </c>
-      <c r="Q52" s="30" t="s">
-        <v>468</v>
-      </c>
-      <c r="R52" s="30" t="s">
-        <v>468</v>
-      </c>
-      <c r="S52" s="30" t="s">
-        <v>468</v>
-      </c>
-      <c r="T52" s="30" t="s">
-        <v>468</v>
-      </c>
-      <c r="U52" s="30" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21">
-      <c r="B53" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>60</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="H53" s="51"/>
+        <v>147</v>
+      </c>
+      <c r="H53" s="50"/>
       <c r="I53" s="10"/>
       <c r="J53" s="11"/>
       <c r="K53" s="11"/>
       <c r="L53" s="11"/>
       <c r="M53" s="11"/>
       <c r="N53" s="11"/>
-      <c r="O53" s="11" t="s">
-        <v>164</v>
-      </c>
+      <c r="O53" s="11"/>
       <c r="P53" s="11"/>
       <c r="Q53" s="11"/>
       <c r="R53" s="11"/>
       <c r="S53" s="11"/>
       <c r="T53" s="11"/>
       <c r="U53" s="11"/>
-    </row>
-    <row r="55" spans="1:21" s="6" customFormat="1">
-      <c r="A55" s="68" t="s">
-        <v>389</v>
-      </c>
-      <c r="B55" s="67" t="s">
-        <v>388</v>
+      <c r="V53" s="11"/>
+      <c r="W53" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1"/>
+    <row r="55" spans="1:23" s="6" customFormat="1">
+      <c r="A55" s="66" t="s">
+        <v>340</v>
+      </c>
+      <c r="B55" s="65" t="s">
+        <v>415</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="35" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21">
+        <v>4</v>
+      </c>
+      <c r="D55" s="34" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
       <c r="B56" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="E56" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="F56" s="10"/>
+      <c r="G56" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="H56" s="29" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
+      <c r="B57" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="E57" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="F57" s="10"/>
+      <c r="G57" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="H57" s="29" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
+      <c r="B58" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="F58" s="11"/>
+      <c r="G58" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="H58" s="29" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
+      <c r="B59" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D56" s="30" t="s">
-        <v>391</v>
-      </c>
-      <c r="E56" s="30" t="s">
-        <v>392</v>
-      </c>
-      <c r="F56" s="10"/>
-      <c r="G56" s="30" t="s">
-        <v>393</v>
-      </c>
-      <c r="H56" s="30" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21">
-      <c r="B57" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D57" s="30" t="s">
-        <v>394</v>
-      </c>
-      <c r="E57" s="30" t="s">
-        <v>395</v>
-      </c>
-      <c r="F57" s="10"/>
-      <c r="G57" s="30" t="s">
-        <v>396</v>
-      </c>
-      <c r="H57" s="30" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21">
-      <c r="B58" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="D58" s="11" t="s">
+      <c r="C59" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="E58" s="30" t="s">
-        <v>374</v>
-      </c>
-      <c r="F58" s="11"/>
-      <c r="G58" s="30" t="s">
-        <v>374</v>
-      </c>
-      <c r="H58" s="30" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21">
-      <c r="B59" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>60</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
@@ -6761,230 +7012,341 @@
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
     </row>
-    <row r="61" spans="1:21" s="6" customFormat="1">
-      <c r="A61" s="68" t="s">
-        <v>482</v>
-      </c>
-      <c r="B61" s="67" t="s">
-        <v>485</v>
-      </c>
-      <c r="D61" s="35"/>
-    </row>
-    <row r="62" spans="1:21">
+    <row r="61" spans="1:23" s="6" customFormat="1">
+      <c r="A61" s="66" t="s">
+        <v>408</v>
+      </c>
+      <c r="B61" s="65" t="s">
+        <v>416</v>
+      </c>
+      <c r="D61" s="34"/>
+    </row>
+    <row r="62" spans="1:23">
       <c r="B62" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>424</v>
+      </c>
+      <c r="E62" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G62" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="J62" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="K62" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="L62" s="10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
+      <c r="B63" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>419</v>
+      </c>
+      <c r="D63" s="29" t="s">
+        <v>421</v>
+      </c>
+      <c r="E63" s="68" t="s">
+        <v>420</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G63" s="29" t="s">
+        <v>422</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="J63" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="K63" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="L63" s="10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
+      <c r="B64" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C64" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="D64" s="29" t="s">
+        <v>425</v>
+      </c>
+      <c r="E64" s="29" t="s">
+        <v>423</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G64" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="J64" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="K64" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="L64" s="29" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
+      <c r="B65" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="C62" s="10"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="50" t="s">
-        <v>250</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="H62" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="I62" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="J62" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="K62" s="10" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21">
-      <c r="B63" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="71" t="s">
-        <v>427</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="H63" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="I63" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="J63" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="K63" s="10" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21">
-      <c r="B64" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="C64" s="10"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="30" t="s">
-        <v>374</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="H64" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="I64" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="J64" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="K64" s="30" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
-      <c r="B65" s="10" t="s">
-        <v>18</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
+      <c r="G65" s="10"/>
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
       <c r="J65" s="11"/>
-      <c r="K65" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" s="6" customFormat="1">
-      <c r="A67" s="68" t="s">
-        <v>484</v>
-      </c>
-      <c r="B67" s="67"/>
-      <c r="D67" s="35"/>
-    </row>
-    <row r="68" spans="1:15">
+      <c r="K65" s="11"/>
+      <c r="L65" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" s="6" customFormat="1">
+      <c r="A67" s="66" t="s">
+        <v>410</v>
+      </c>
+      <c r="B67" s="65" t="s">
+        <v>417</v>
+      </c>
+      <c r="D67" s="34"/>
+    </row>
+    <row r="68" spans="1:22">
       <c r="B68" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="E68" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="F68" s="10"/>
+      <c r="G68" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="H68" s="29" t="s">
+        <v>440</v>
+      </c>
+      <c r="I68" s="29" t="s">
+        <v>429</v>
+      </c>
+      <c r="J68" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="K68" s="29" t="s">
+        <v>431</v>
+      </c>
+      <c r="L68" s="29" t="s">
+        <v>442</v>
+      </c>
+      <c r="M68" s="49" t="s">
+        <v>444</v>
+      </c>
+      <c r="N68" s="29" t="s">
+        <v>446</v>
+      </c>
+      <c r="O68" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="P68" s="29" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q68" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R68" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S68" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="T68" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="U68" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="V68" s="10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
+      <c r="B69" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="D69" s="29" t="s">
+        <v>419</v>
+      </c>
+      <c r="E69" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="F69" s="10"/>
+      <c r="G69" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="H69" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="I69" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="J69" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="K69" s="29" t="s">
+        <v>430</v>
+      </c>
+      <c r="L69" s="29" t="s">
+        <v>441</v>
+      </c>
+      <c r="M69" s="68" t="s">
+        <v>443</v>
+      </c>
+      <c r="N69" s="29" t="s">
+        <v>445</v>
+      </c>
+      <c r="O69" s="29" t="s">
+        <v>447</v>
+      </c>
+      <c r="P69" s="29" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q69" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="R69" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="S69" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="T69" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="U69" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="V69" s="10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
+      <c r="B70" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E70" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="F70" s="11"/>
+      <c r="G70" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="I70" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="J70" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="K70" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="L70" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="M70" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="N70" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O70" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="P70" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q70" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="R70" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="S70" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="T70" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="U70" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="V70" s="29" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
+      <c r="B71" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="50" t="s">
-        <v>250</v>
-      </c>
-      <c r="J68" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K68" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="L68" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="M68" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="N68" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="O68" s="10" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
-      <c r="B69" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>486</v>
-      </c>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="71" t="s">
-        <v>427</v>
-      </c>
-      <c r="J69" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="K69" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="L69" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="M69" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="N69" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="O69" s="10" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
-      <c r="B70" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="D70" s="11"/>
-      <c r="E70" s="30"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="30"/>
-      <c r="I70" s="30" t="s">
-        <v>374</v>
-      </c>
-      <c r="J70" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="K70" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="L70" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="M70" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="N70" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="O70" s="30" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
-      <c r="B71" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>18</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
@@ -6993,129 +7355,164 @@
       <c r="H71" s="10"/>
       <c r="I71" s="11"/>
       <c r="J71" s="11"/>
-      <c r="K71" s="11"/>
-      <c r="L71" s="11"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
       <c r="M71" s="11"/>
       <c r="N71" s="11"/>
-      <c r="O71" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" s="6" customFormat="1">
-      <c r="A73" s="68" t="s">
-        <v>483</v>
-      </c>
-      <c r="B73" s="67"/>
-      <c r="D73" s="35"/>
-    </row>
-    <row r="74" spans="1:15">
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="11"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="11"/>
+      <c r="T71" s="11"/>
+      <c r="U71" s="11"/>
+      <c r="V71" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" s="6" customFormat="1">
+      <c r="A73" s="66" t="s">
+        <v>409</v>
+      </c>
+      <c r="B73" s="65" t="s">
+        <v>418</v>
+      </c>
+      <c r="D73" s="34"/>
+    </row>
+    <row r="74" spans="1:22">
       <c r="B74" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="E74" s="29" t="s">
+        <v>454</v>
+      </c>
+      <c r="F74" s="10"/>
+      <c r="G74" s="29" t="s">
+        <v>458</v>
+      </c>
+      <c r="H74" s="29" t="s">
+        <v>456</v>
+      </c>
+      <c r="I74" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="J74" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K74" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="L74" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="M74" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="N74" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="O74" s="10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
+      <c r="B75" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="29" t="s">
+        <v>459</v>
+      </c>
+      <c r="D75" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="E75" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="F75" s="10"/>
+      <c r="G75" s="29" t="s">
+        <v>457</v>
+      </c>
+      <c r="H75" s="29" t="s">
+        <v>455</v>
+      </c>
+      <c r="I75" s="68" t="s">
+        <v>367</v>
+      </c>
+      <c r="J75" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="K75" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="L75" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="M75" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="N75" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="O75" s="10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
+      <c r="B76" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H76" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="I76" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="J76" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="K76" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="L76" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="M76" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="N76" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="O76" s="29" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
+      <c r="B77" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C77" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="D74" s="30"/>
-      <c r="E74" s="30"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="30"/>
-      <c r="I74" s="50" t="s">
-        <v>250</v>
-      </c>
-      <c r="J74" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K74" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="L74" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="M74" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="N74" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="O74" s="10" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
-      <c r="B75" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" s="30"/>
-      <c r="E75" s="30"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="30"/>
-      <c r="I75" s="71" t="s">
-        <v>427</v>
-      </c>
-      <c r="J75" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="K75" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="L75" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="M75" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="N75" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="O75" s="10" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
-      <c r="B76" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="D76" s="11"/>
-      <c r="E76" s="30"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="30"/>
-      <c r="H76" s="30"/>
-      <c r="I76" s="30" t="s">
-        <v>374</v>
-      </c>
-      <c r="J76" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="K76" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="L76" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="M76" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="N76" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="O76" s="30" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
-      <c r="B77" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>18</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
@@ -7129,7 +7526,7 @@
       <c r="M77" s="11"/>
       <c r="N77" s="11"/>
       <c r="O77" s="11" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -7143,7 +7540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A16" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -7172,34 +7569,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1</v>
+        <v>503</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>503</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>3</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>501</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1">
-      <c r="A4" s="29" t="s">
-        <v>280</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>281</v>
+      <c r="A4" s="28" t="s">
+        <v>500</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1">
@@ -7212,189 +7609,189 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="21" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>7</v>
+        <v>498</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>497</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="22" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>11</v>
+        <v>496</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>12</v>
+        <v>495</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="B10" s="23" t="s">
-        <v>13</v>
+      <c r="B10" s="83" t="s">
+        <v>6</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>14</v>
+        <v>494</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="22" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="23">
+      <c r="B12" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="83" t="s">
+        <v>493</v>
+      </c>
+      <c r="D12" s="83">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="20" customFormat="1">
       <c r="A15" s="20" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>259</v>
+      <c r="A16" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>492</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="B17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="L17" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="B18" s="11" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>364</v>
+        <v>491</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>41</v>
+        <v>490</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="B19" s="11" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="B20" s="10" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -7412,111 +7809,111 @@
     <row r="21" spans="1:15" s="1" customFormat="1" ht="11.25" customHeight="1"/>
     <row r="22" spans="1:15" s="6" customFormat="1">
       <c r="A22" s="16" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>362</v>
+        <v>489</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="B23" s="10" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>230</v>
+        <v>40</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>488</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>53</v>
+        <v>487</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>31</v>
+        <v>486</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>54</v>
+        <v>485</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>55</v>
+        <v>484</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>56</v>
+        <v>483</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="B24" s="10" t="s">
-        <v>363</v>
+        <v>482</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>365</v>
+        <v>481</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>366</v>
+        <v>480</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>367</v>
+        <v>479</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>368</v>
+        <v>478</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="H24" s="26" t="s">
-        <v>370</v>
-      </c>
-      <c r="I24" s="26" t="s">
-        <v>372</v>
+        <v>477</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>475</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>373</v>
+        <v>474</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="B25" s="11" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>371</v>
+        <v>473</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>59</v>
+        <v>472</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="B26" s="10" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
@@ -7534,156 +7931,156 @@
     </row>
     <row r="28" spans="1:15" s="6" customFormat="1">
       <c r="A28" s="16" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>62</v>
+        <v>471</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="B29" s="10" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>361</v>
+        <v>470</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="M29" s="22" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="N29" s="22" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="O29" s="10" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="B30" s="10" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="M30" s="22" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="N30" s="22" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="B31" s="11" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="L31" s="11" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="M31" s="22" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="N31" s="22" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="O31" s="11" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="B32" s="10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
@@ -7704,185 +8101,185 @@
     </row>
     <row r="35" spans="1:18" s="20" customFormat="1">
       <c r="A35" s="20" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>95</v>
+      <c r="A36" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="29" t="s">
-        <v>241</v>
+        <v>4</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="37" spans="1:18">
       <c r="B37" s="11" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="L37" s="11" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="N37" s="11" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="O37" s="11" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="P37" s="11" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="Q37" s="11" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="R37" s="11" t="s">
-        <v>227</v>
+        <v>468</v>
       </c>
     </row>
     <row r="38" spans="1:18">
       <c r="B38" s="11" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="O38" s="11" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="P38" s="11" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="Q38" s="11" t="s">
-        <v>226</v>
+        <v>467</v>
       </c>
       <c r="R38" s="11" t="s">
-        <v>228</v>
+        <v>466</v>
       </c>
     </row>
     <row r="39" spans="1:18">
       <c r="B39" s="11" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="L39" s="11" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="O39" s="11" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="P39" s="11" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="Q39" s="11" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="R39" s="11" t="s">
-        <v>229</v>
+        <v>465</v>
       </c>
     </row>
     <row r="40" spans="1:18">
       <c r="B40" s="10" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -7903,111 +8300,111 @@
     </row>
     <row r="42" spans="1:18" s="6" customFormat="1">
       <c r="A42" s="16" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="35" t="s">
-        <v>242</v>
+        <v>4</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="43" spans="1:18">
       <c r="B43" s="10" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="I43" s="22" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:18">
       <c r="B44" s="10" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="F44" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="G44" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="H44" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="I44" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="J44" s="27" t="s">
-        <v>57</v>
+        <v>116</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G44" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H44" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I44" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="J44" s="26" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:18">
       <c r="B45" s="11" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:18">
       <c r="B46" s="10" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
@@ -8021,95 +8418,95 @@
     </row>
     <row r="49" spans="1:8" s="20" customFormat="1">
       <c r="A49" s="20" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="B50" s="25" t="s">
-        <v>137</v>
+      <c r="A50" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>120</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="29" t="s">
-        <v>243</v>
+        <v>4</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="B51" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="11" t="s">
-        <v>32</v>
-      </c>
       <c r="D51" s="11" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="B52" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="E52" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="F52" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="G52" s="27" t="s">
-        <v>145</v>
+        <v>6</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E52" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="F52" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="G52" s="26" t="s">
+        <v>128</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="B53" s="11" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="B54" s="10" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
@@ -8119,7 +8516,7 @@
       <c r="H54" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="30" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8130,7 +8527,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8162,38 +8559,38 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1"/>
-    <row r="5" spans="1:7" s="56" customFormat="1">
-      <c r="A5" s="55"/>
-    </row>
-    <row r="6" spans="1:7" s="49" customFormat="1">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
+    <row r="5" spans="1:7" s="55" customFormat="1">
+      <c r="A5" s="54"/>
+    </row>
+    <row r="6" spans="1:7" s="48" customFormat="1">
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="11"/>
@@ -8373,13 +8770,13 @@
     </row>
     <row r="34" spans="1:11">
       <c r="B34" s="10"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="83"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="80"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="37" spans="1:11" s="34" customFormat="1">
+    <row r="37" spans="1:11" s="33" customFormat="1">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
     </row>
@@ -8461,8 +8858,8 @@
     </row>
     <row r="47" spans="1:11">
       <c r="B47" s="10"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="85"/>
+      <c r="C47" s="81"/>
+      <c r="D47" s="82"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>

--- a/design/数据库设计.xlsx
+++ b/design/数据库设计.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\fuck\git\danyuan-application\design\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12390" windowHeight="5985" tabRatio="864" activeTab="2"/>
   </bookViews>
@@ -20,17 +15,17 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">版本记录!$A$1:$I$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">后台管理!$A$1:$M$71</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">结构设计!$A$1:$K$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">数据管理!$A$1:$W$78</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">数据流转表结构设计!$A$1:$U$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">后台管理!$A$1:$M$66</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">结构设计!$A$1:$K$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">数据管理!$A$1:$W$79</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">数据流转表结构设计!$A$1:$U$53</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="535">
   <si>
     <t xml:space="preserve">数据库 </t>
   </si>
@@ -1414,10 +1409,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>每天每个表的增量信息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>表名名</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1534,25 +1525,10 @@
     <t>type_order</t>
   </si>
   <si>
-    <t>database_uuid</t>
-  </si>
-  <si>
     <t>table_disc</t>
   </si>
   <si>
     <t>type_uuid</t>
-  </si>
-  <si>
-    <t>table_name</t>
-  </si>
-  <si>
-    <t>table_desc</t>
-  </si>
-  <si>
-    <t>table_rows</t>
-  </si>
-  <si>
-    <t>table_space</t>
   </si>
   <si>
     <t>table_order</t>
@@ -1743,78 +1719,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>sys_dbms_database_info</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_dbms_table_type_info</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>sys_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dbms_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>table_info</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>sys_dbms_result</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>anay_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>sys_dbms_chart_dimension_group</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2024,22 +1928,6 @@
   </si>
   <si>
     <t>dimeUuid</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>sys_dbms_colmn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>e_info</t>
-    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2471,11 +2359,103 @@
     <t>字段信息</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>sys_dbms_tabs_cols</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_info</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_dbms_tabs_type_info</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sys_dbms_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tabs_info</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_dbms_tabs_jdbc_info</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sys_dbms_cout_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>info</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天每个表的增量输出信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构化数据库</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一约束建</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdbc_uuid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>tabs_name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>tabs_desc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>tabs_rows</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>tabs_space</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>tabs_order</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -2984,7 +2964,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2992,9 +2972,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -3192,6 +3169,12 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3233,12 +3216,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3329,7 +3306,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3364,7 +3341,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3582,484 +3559,484 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="30"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="33"/>
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="32"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="33"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="33"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="32"/>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="70" t="s">
         <v>220</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="33"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="32"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="32"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="33"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="32"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="33"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="32"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="33"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="32"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="33"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="32"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="32"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="33"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="32"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="32"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="33"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="32"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="32"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="33"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="32"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="32"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="33"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="32"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="32"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="33"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="32"/>
     </row>
     <row r="14" spans="1:11" ht="14.25" thickBot="1">
-      <c r="A14" s="32"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="33"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="32"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" thickTop="1">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="33"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="32"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="33"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="32"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="32"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="33"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="32"/>
     </row>
     <row r="18" spans="1:11" ht="14.25" thickBot="1">
-      <c r="A18" s="32"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="33"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="32"/>
     </row>
     <row r="19" spans="1:11" ht="14.25" thickTop="1">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="33"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="32"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="33"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="32"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" thickBot="1">
-      <c r="A21" s="32"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="33"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="32"/>
     </row>
     <row r="22" spans="1:11" ht="14.25" thickTop="1">
-      <c r="A22" s="32"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="33"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="32"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="32"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="33"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="32"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="32"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="33"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="32"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="32"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="33"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="32"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="32"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="33"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="32"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="32"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="33"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="32"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="32"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="33"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="32"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="32"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="33"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="32"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="32"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="33"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="32"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="32"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="33"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="32"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="32"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="33"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="32"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="32"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="33"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="32"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="44"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="33"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="32"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="B35" s="35"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="37"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="36"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="B36" s="35"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="37"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="36"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="B37" s="35"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="37"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="36"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="B38" s="38"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="40"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4077,10 +4054,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4101,10 +4078,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4131,10 +4108,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>255</v>
       </c>
     </row>
@@ -4143,1266 +4120,1252 @@
       <c r="B5"/>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1">
-      <c r="A6"/>
+      <c r="A6" s="27" t="s">
+        <v>242</v>
+      </c>
       <c r="B6"/>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1">
-      <c r="A7"/>
-      <c r="B7"/>
-    </row>
-    <row r="8" spans="1:13" s="1" customFormat="1">
-      <c r="A8"/>
-      <c r="B8"/>
-    </row>
-    <row r="9" spans="1:13" s="1" customFormat="1">
-      <c r="A9" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="B9"/>
-    </row>
-    <row r="10" spans="1:13" s="60" customFormat="1">
-      <c r="A10" s="58" t="s">
+    <row r="7" spans="1:13" s="59" customFormat="1">
+      <c r="A7" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B7" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C7" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D7" s="59" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="28" customFormat="1">
-      <c r="B11" s="29" t="s">
+    <row r="8" spans="1:13" s="27" customFormat="1">
+      <c r="B8" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C8" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D8" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E8" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I8" s="9" t="s">
         <v>259</v>
       </c>
+      <c r="J8" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="M8" s="27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="27" customFormat="1">
+      <c r="B9" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="27" customFormat="1">
+      <c r="B10" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="27" customFormat="1">
+      <c r="B11" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
       <c r="J11" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="60" customFormat="1"/>
+    <row r="13" spans="1:13" s="2" customFormat="1" hidden="1">
+      <c r="A13" s="57" t="s">
+        <v>235</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="59" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" hidden="1">
+      <c r="B14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="K14" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="L11" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="M11" s="28" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="28" customFormat="1">
-      <c r="B12" s="29" t="s">
+    </row>
+    <row r="15" spans="1:13" hidden="1">
+      <c r="B15" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C12" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="D12" s="29" t="s">
+      <c r="C15" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="H15" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K15" s="28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" hidden="1">
+      <c r="B16" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" hidden="1">
+      <c r="B17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="3" customFormat="1">
+      <c r="A18" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="B19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="B20" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="H20" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="E12" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="F12" s="49" t="s">
+      <c r="I20" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="J20" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="K20" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="L20" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="J12" s="29" t="s">
+      <c r="M20" s="28" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="28" customFormat="1">
-      <c r="B13" s="29" t="s">
+    <row r="21" spans="1:13">
+      <c r="B21" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C13" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="E13" s="29" t="s">
+      <c r="C21" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F21" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="I21" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="J21" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="K21" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="L21" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="M21" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="28" customFormat="1">
-      <c r="B14" s="29" t="s">
+    <row r="22" spans="1:13">
+      <c r="B22" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11" t="s">
+      <c r="C22" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="61" customFormat="1"/>
-    <row r="16" spans="1:13" s="2" customFormat="1" hidden="1">
-      <c r="A16" s="58" t="s">
-        <v>235</v>
-      </c>
-      <c r="B16" s="59" t="s">
-        <v>234</v>
-      </c>
-      <c r="C16" s="2" t="s">
+    <row r="23" spans="1:13" s="1" customFormat="1"/>
+    <row r="24" spans="1:13" s="1" customFormat="1">
+      <c r="A24" s="27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="4" customFormat="1" hidden="1">
+      <c r="A25" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" hidden="1">
+      <c r="B26" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" hidden="1">
+      <c r="B27" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="E27" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="F27" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" hidden="1">
+      <c r="B28" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" hidden="1">
+      <c r="B29" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="4" customFormat="1">
+      <c r="A30" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="60" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" hidden="1">
-      <c r="B17" s="11" t="s">
+      <c r="D30" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="B31" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="G17" s="10" t="s">
+      <c r="C31" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="F31" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="G31" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="H31" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="I31" s="9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1">
-      <c r="B18" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>237</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="G18" s="49" t="s">
+    <row r="32" spans="1:13">
+      <c r="B32" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="E32" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="H18" s="49" t="s">
+      <c r="F32" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="G32" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="H32" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="K18" s="29" t="s">
+      <c r="I32" s="28" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1">
-      <c r="B19" s="11" t="s">
+    <row r="33" spans="1:10">
+      <c r="B33" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C19" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="F19" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="D33" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="F33" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="G33" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="H33" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="I33" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1">
-      <c r="B20" s="10" t="s">
+    <row r="34" spans="1:10">
+      <c r="B34" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11" t="s">
+      <c r="C34" s="9"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="3" customFormat="1"/>
-    <row r="22" spans="1:13" s="4" customFormat="1">
-      <c r="A22" s="57" t="s">
-        <v>148</v>
-      </c>
-      <c r="B22" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="C22" s="4" t="s">
+    <row r="36" spans="1:10">
+      <c r="A36" s="27" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="5" customFormat="1">
+      <c r="A37" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="B23" s="13" t="s">
+      <c r="D37" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="B38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="I23" s="10" t="s">
+      <c r="C38" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F38" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="G38" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="H38" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="L23" s="10" t="s">
+      <c r="I38" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="M23" s="10" t="s">
+      <c r="J38" s="9" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="B24" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="G24" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="I24" s="49" t="s">
-        <v>265</v>
-      </c>
-      <c r="J24" s="49" t="s">
-        <v>263</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="M24" s="29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="B25" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="M25" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="B26" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="1" customFormat="1"/>
-    <row r="28" spans="1:13" s="1" customFormat="1">
-      <c r="A28" s="28" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" s="5" customFormat="1" hidden="1">
-      <c r="A29" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" hidden="1">
-      <c r="B30" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" hidden="1">
-      <c r="B31" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="E31" s="49" t="s">
-        <v>265</v>
-      </c>
-      <c r="F31" s="49" t="s">
-        <v>263</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="I31" s="29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" hidden="1">
-      <c r="B32" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" hidden="1">
-      <c r="B33" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="1" customFormat="1"/>
-    <row r="35" spans="1:10" s="5" customFormat="1">
-      <c r="A35" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="B36" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="B37" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="E37" s="49" t="s">
-        <v>265</v>
-      </c>
-      <c r="F37" s="49" t="s">
-        <v>263</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="I37" s="29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="B38" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="B39" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F39" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="G39" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="J39" s="28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="B40" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="B41" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11" t="s">
+      <c r="C41" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="28" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="6" customFormat="1">
-      <c r="A42" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="C42" s="6" t="s">
+    <row r="42" spans="1:10">
+      <c r="A42" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="5" customFormat="1">
+      <c r="A43" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="B43" s="11" t="s">
+      <c r="D43" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="B44" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F43" s="10" t="s">
+      <c r="C44" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G43" s="10" t="s">
+      <c r="G44" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="H43" s="10" t="s">
+      <c r="H44" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="I43" s="10" t="s">
+      <c r="I44" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="J43" s="10" t="s">
+      <c r="J44" s="9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="B44" s="11" t="s">
+    <row r="45" spans="1:10">
+      <c r="B45" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="F44" s="49" t="s">
+      <c r="C45" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F45" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="G44" s="49" t="s">
+      <c r="G45" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="H44" s="10" t="s">
+      <c r="H45" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="I44" s="10" t="s">
+      <c r="I45" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="J44" s="29" t="s">
+      <c r="J45" s="28" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="B45" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="I45" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="J45" s="11" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="B46" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="B47" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11" t="s">
+      <c r="C47" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="28" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" s="6" customFormat="1">
-      <c r="A48" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="C48" s="6" t="s">
+    <row r="49" spans="1:13" s="5" customFormat="1">
+      <c r="A49" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="B49" s="11" t="s">
+      <c r="D49" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="B50" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F49" s="10" t="s">
+      <c r="C50" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G49" s="10" t="s">
+      <c r="F50" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="H49" s="10" t="s">
+      <c r="G50" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="I49" s="10" t="s">
+      <c r="H50" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="J49" s="10" t="s">
+      <c r="I50" s="9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
-      <c r="B50" s="11" t="s">
+    <row r="51" spans="1:13">
+      <c r="B51" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F50" s="49" t="s">
+      <c r="C51" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E51" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="G50" s="49" t="s">
+      <c r="F51" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="H50" s="10" t="s">
+      <c r="G51" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="I50" s="10" t="s">
+      <c r="H51" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="J50" s="29" t="s">
+      <c r="I51" s="28" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="B51" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="I51" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="J51" s="11" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="B52" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="B53" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C52" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D52" s="10"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11" t="s">
+      <c r="C53" s="80" t="s">
+        <v>190</v>
+      </c>
+      <c r="D53" s="81"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="6" customFormat="1">
-      <c r="A54" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="C54" s="6" t="s">
+    <row r="55" spans="1:13">
+      <c r="A55" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" s="2" customFormat="1">
+      <c r="A56" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D54" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="B55" s="11" t="s">
+      <c r="D56" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="B57" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="E55" s="10" t="s">
+      <c r="C57" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="H57" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="I57" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="J57" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="G55" s="10" t="s">
+      <c r="K57" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="H55" s="10" t="s">
+      <c r="L57" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="I55" s="10" t="s">
+      <c r="M57" s="9" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="B56" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="E56" s="49" t="s">
-        <v>265</v>
-      </c>
-      <c r="F56" s="49" t="s">
-        <v>263</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="I56" s="29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="B57" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H57" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="I57" s="11" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="B58" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="H58" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="I58" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="J58" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="K58" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="L58" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="M58" s="28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="B59" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="H59" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="L59" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="M59" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="B60" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C58" s="79" t="s">
-        <v>190</v>
-      </c>
-      <c r="D58" s="80"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11" t="s">
+      <c r="C60" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D60" s="10"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="28" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" s="2" customFormat="1">
-      <c r="A61" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C61" s="2" t="s">
+    <row r="61" spans="1:13">
+      <c r="A61" s="27" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="C62" t="s">
         <v>4</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="B62" s="11" t="s">
+      <c r="D62" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="B63" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="H62" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="I62" s="10" t="s">
+      <c r="C63" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E63" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="J62" s="10" t="s">
+      <c r="F63" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="K62" s="10" t="s">
+      <c r="G63" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="L62" s="10" t="s">
+      <c r="H63" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="M62" s="10" t="s">
+      <c r="I63" s="9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
-      <c r="B63" s="11" t="s">
+    <row r="64" spans="1:13">
+      <c r="B64" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="H63" s="29" t="s">
-        <v>400</v>
-      </c>
-      <c r="I63" s="49" t="s">
+      <c r="C64" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E64" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="J63" s="49" t="s">
+      <c r="F64" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="K63" s="10" t="s">
+      <c r="G64" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="L63" s="10" t="s">
+      <c r="H64" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="M63" s="29" t="s">
+      <c r="I64" s="28" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
-      <c r="B64" s="11" t="s">
+    <row r="65" spans="2:9">
+      <c r="B65" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C64" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="H64" s="29" t="s">
-        <v>332</v>
-      </c>
-      <c r="I64" s="10" t="s">
+      <c r="C65" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E65" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="J64" s="10" t="s">
+      <c r="F65" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="K64" s="10" t="s">
+      <c r="G65" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="L64" s="10" t="s">
+      <c r="H65" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="M64" s="11" t="s">
+      <c r="I65" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
-      <c r="B65" s="10" t="s">
+    <row r="66" spans="2:9">
+      <c r="B66" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C65" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D65" s="11"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11"/>
-      <c r="K65" s="11"/>
-      <c r="L65" s="11"/>
-      <c r="M65" s="11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
-      <c r="A66" s="28" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
-      <c r="A67" s="52" t="s">
-        <v>241</v>
-      </c>
-      <c r="B67" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="C67" t="s">
-        <v>4</v>
-      </c>
-      <c r="D67" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
-      <c r="B68" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F68" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="G68" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="H68" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="I68" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
-      <c r="B69" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="E69" s="49" t="s">
-        <v>265</v>
-      </c>
-      <c r="F69" s="49" t="s">
-        <v>263</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="H69" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="I69" s="29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
-      <c r="B70" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="F70" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="G70" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H70" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="I70" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
-      <c r="B71" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C71" s="81" t="s">
+      <c r="C66" s="82" t="s">
         <v>208</v>
       </c>
-      <c r="D71" s="82"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11" t="s">
+      <c r="D66" s="83"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10" t="s">
         <v>147</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C66:D66"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5412,10 +5375,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W77"/>
+  <dimension ref="A1:W78"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5446,10 +5409,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>292</v>
       </c>
     </row>
@@ -5468,7 +5431,7 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>268</v>
       </c>
     </row>
@@ -5476,2056 +5439,2060 @@
       <c r="A4"/>
       <c r="B4"/>
     </row>
-    <row r="5" spans="1:15" s="55" customFormat="1">
-      <c r="A5" s="56"/>
-      <c r="B5" s="56"/>
-    </row>
-    <row r="6" spans="1:15" s="33" customFormat="1">
-      <c r="A6" s="12" t="s">
+    <row r="5" spans="1:15" s="1" customFormat="1">
+      <c r="A5"/>
+      <c r="B5"/>
+    </row>
+    <row r="6" spans="1:15" s="54" customFormat="1">
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
+    </row>
+    <row r="7" spans="1:15" s="32" customFormat="1">
+      <c r="A7" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B7" s="50" t="s">
         <v>325</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C7" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D7" s="62" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="B7" s="49" t="s">
+    <row r="8" spans="1:15">
+      <c r="B8" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C8" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D8" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E8" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I8" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K8" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L8" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M8" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N8" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O8" s="9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
-      <c r="B8" s="49" t="s">
+    <row r="9" spans="1:15">
+      <c r="B9" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C9" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D9" s="48" t="s">
         <v>270</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E9" s="48" t="s">
         <v>271</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="F9" s="48" t="s">
         <v>272</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G9" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="H8" s="49" t="s">
+      <c r="H9" s="48" t="s">
         <v>274</v>
       </c>
-      <c r="I8" s="49" t="s">
+      <c r="I9" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J9" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="K8" s="49" t="s">
+      <c r="K9" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="L8" s="49" t="s">
+      <c r="L9" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M9" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="N9" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="O8" s="29" t="s">
+      <c r="O9" s="28" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="B9" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>284</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>283</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="O9" s="29" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="B10" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="O10" s="28" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="B11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="4" customFormat="1"/>
-    <row r="12" spans="1:15" s="48" customFormat="1">
-      <c r="A12" s="53" t="s">
-        <v>406</v>
-      </c>
-      <c r="B12" s="53" t="s">
-        <v>370</v>
-      </c>
-      <c r="C12" s="62" t="s">
+    <row r="12" spans="1:15" s="3" customFormat="1"/>
+    <row r="13" spans="1:15" s="47" customFormat="1">
+      <c r="A13" s="52" t="s">
+        <v>400</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>364</v>
+      </c>
+      <c r="C13" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D13" s="63" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
-      <c r="B13" s="49" t="s">
+    <row r="14" spans="1:15">
+      <c r="B14" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H14" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I14" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J14" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K14" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L14" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="M14" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="N13" s="10" t="s">
+      <c r="N14" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="O13" s="10" t="s">
+      <c r="O14" s="9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
-      <c r="B14" s="49" t="s">
+    <row r="15" spans="1:15">
+      <c r="B15" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G15" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H15" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="I14" s="49" t="s">
+      <c r="I15" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J15" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="K14" s="49" t="s">
+      <c r="K15" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="L14" s="49" t="s">
+      <c r="L15" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="M14" s="10" t="s">
+      <c r="M15" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="N14" s="10" t="s">
+      <c r="N15" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="O14" s="29" t="s">
+      <c r="O15" s="28" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="B15" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="N15" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="O15" s="29" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="B16" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="O16" s="28" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="B17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11" t="s">
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="6" customFormat="1">
-      <c r="A18" s="16" t="s">
+    <row r="19" spans="1:17" s="5" customFormat="1">
+      <c r="A19" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>371</v>
-      </c>
-      <c r="C18" s="63" t="s">
+      <c r="B19" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="C19" s="62" t="s">
         <v>336</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D19" s="33" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
-      <c r="B19" s="49" t="s">
+    <row r="20" spans="1:17">
+      <c r="B20" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F20" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G20" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H20" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I20" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J20" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K20" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="L20" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="M19" s="10" t="s">
+      <c r="M20" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="N19" s="10" t="s">
+      <c r="N20" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="O19" s="10" t="s">
+      <c r="O20" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="P19" s="10" t="s">
+      <c r="P20" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="Q19" s="10" t="s">
+      <c r="Q20" s="9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
-      <c r="B20" s="49" t="s">
+    <row r="21" spans="1:17">
+      <c r="B21" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="D20" s="10" t="s">
+      <c r="C21" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F21" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G21" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H21" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I21" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J21" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="K21" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="L20" s="10" t="s">
+      <c r="L21" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="M20" s="49" t="s">
+      <c r="M21" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="N20" s="49" t="s">
+      <c r="N21" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="O20" s="10" t="s">
+      <c r="O21" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="P20" s="10" t="s">
+      <c r="P21" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="Q20" s="29" t="s">
+      <c r="Q21" s="28" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="B21" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="K21" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="N21" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="O21" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="P21" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q21" s="29" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="B22" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q22" s="28" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="B23" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="1" customFormat="1"/>
-    <row r="24" spans="1:17" s="4" customFormat="1">
-      <c r="A24" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="B24" s="17" t="s">
+    <row r="24" spans="1:17" s="1" customFormat="1"/>
+    <row r="25" spans="1:17" s="3" customFormat="1">
+      <c r="A25" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="C25" s="62" t="s">
+        <v>336</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="B26" s="48" t="s">
+        <v>371</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="B27" s="48" t="s">
+        <v>372</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="F27" s="48" t="s">
+        <v>312</v>
+      </c>
+      <c r="G27" s="48" t="s">
+        <v>363</v>
+      </c>
+      <c r="H27" s="48" t="s">
+        <v>374</v>
+      </c>
+      <c r="I27" s="48" t="s">
+        <v>369</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="K27" s="48" t="s">
         <v>376</v>
       </c>
-      <c r="C24" s="63" t="s">
-        <v>336</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="B25" s="49" t="s">
+      <c r="L27" s="48" t="s">
         <v>377</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="M25" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="N25" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="O25" s="10" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="B26" s="49" t="s">
+      <c r="M27" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="N27" s="28" t="s">
         <v>379</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="F26" s="49" t="s">
-        <v>312</v>
-      </c>
-      <c r="G26" s="49" t="s">
-        <v>369</v>
-      </c>
-      <c r="H26" s="49" t="s">
+      <c r="O27" s="28" t="s">
         <v>380</v>
-      </c>
-      <c r="I26" s="49" t="s">
-        <v>375</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="K26" s="49" t="s">
-        <v>382</v>
-      </c>
-      <c r="L26" s="49" t="s">
-        <v>383</v>
-      </c>
-      <c r="M26" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="N26" s="29" t="s">
-        <v>385</v>
-      </c>
-      <c r="O26" s="29" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="B27" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="M27" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="N27" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="O27" s="29" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="B28" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="O28" s="28" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="B29" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11" t="s">
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="1" customFormat="1"/>
-    <row r="30" spans="1:17" s="33" customFormat="1">
-      <c r="A30" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="23" t="s">
+    <row r="30" spans="1:17" s="1" customFormat="1"/>
+    <row r="31" spans="1:17" s="32" customFormat="1">
+      <c r="A31" s="19" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="24" t="s">
-        <v>412</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B32" s="23" t="s">
+        <v>524</v>
+      </c>
+      <c r="C32" t="s">
         <v>4</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
-      <c r="B32" s="11" t="s">
+    <row r="33" spans="1:16">
+      <c r="B33" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C33" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D33" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E33" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F33" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G33" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H33" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I32" s="11" t="s">
+      <c r="I33" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="11" t="s">
+      <c r="J33" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K32" s="10" t="s">
+      <c r="K33" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="L32" s="10" t="s">
+      <c r="L33" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="M32" s="10" t="s">
+      <c r="M33" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="N32" s="10" t="s">
+      <c r="N33" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="O32" s="10" t="s">
+      <c r="O33" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="P32" s="10" t="s">
+      <c r="P33" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
-      <c r="B33" s="11" t="s">
+    <row r="34" spans="1:16">
+      <c r="B34" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D34" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="F33" s="11" t="s">
+      <c r="E34" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="F34" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G34" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="H34" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="I34" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J33" s="11" t="s">
+      <c r="J34" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K33" s="10" t="s">
+      <c r="K34" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="L33" s="49" t="s">
+      <c r="L34" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="M33" s="49" t="s">
+      <c r="M34" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="N33" s="29" t="s">
+      <c r="N34" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="O33" s="29" t="s">
+      <c r="O34" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="P33" s="29" t="s">
+      <c r="P34" s="28" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="B34" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="L34" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="M34" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="N34" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="O34" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="P34" s="29" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:16">
       <c r="B35" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="O35" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="P35" s="28" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="B36" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11" t="s">
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="1" customFormat="1"/>
-    <row r="37" spans="1:16" s="62" customFormat="1">
-      <c r="A37" s="52" t="s">
+    <row r="37" spans="1:16" s="1" customFormat="1"/>
+    <row r="38" spans="1:16" s="61" customFormat="1">
+      <c r="A38" s="51" t="s">
         <v>339</v>
       </c>
-      <c r="B37" s="52" t="s">
-        <v>413</v>
-      </c>
-      <c r="C37" s="62" t="s">
+      <c r="B38" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="C38" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="63" t="s">
+      <c r="D38" s="62" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
-      <c r="B38" s="11" t="s">
+    <row r="39" spans="1:16">
+      <c r="B39" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C39" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="D38" s="29" t="s">
+      <c r="D39" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="E38" s="29" t="s">
+      <c r="E39" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="10" t="s">
+      <c r="F39" s="10"/>
+      <c r="G39" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="B40" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="G40" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I40" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="H38" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="I38" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="K38" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="L38" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="M38" s="10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="B39" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="C39" s="29" t="s">
-        <v>357</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>358</v>
-      </c>
-      <c r="E39" s="29" t="s">
-        <v>359</v>
-      </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="29" t="s">
-        <v>368</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="I39" s="10" t="s">
+      <c r="J40" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="J39" s="10" t="s">
+      <c r="K40" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="K39" s="10" t="s">
+      <c r="L40" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="L39" s="10" t="s">
+      <c r="M40" s="9" t="s">
         <v>355</v>
-      </c>
-      <c r="M39" s="10" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
-      <c r="B40" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C40" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="D40" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="E40" s="29" t="s">
-        <v>322</v>
-      </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="K40" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="L40" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="M40" s="29" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="41" spans="1:16">
       <c r="B41" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="G41" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="M41" s="28" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="B42" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11" t="s">
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:16" s="1" customFormat="1" ht="11.25" customHeight="1"/>
-    <row r="43" spans="1:16" s="6" customFormat="1">
-      <c r="A43" s="16" t="s">
+    <row r="43" spans="1:16" s="1" customFormat="1" ht="11.25" customHeight="1"/>
+    <row r="44" spans="1:16" s="5" customFormat="1">
+      <c r="A44" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="65" t="s">
-        <v>414</v>
-      </c>
-      <c r="C43" s="6" t="s">
+      <c r="B44" s="64" t="s">
+        <v>523</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D44" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
-      <c r="B44" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="10" t="s">
+    <row r="45" spans="1:16">
+      <c r="B45" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="49" t="s">
+      <c r="D45" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="E44" s="29" t="s">
+      <c r="E45" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="F45" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G44" s="49" t="s">
+      <c r="G45" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="H44" s="49" t="s">
+      <c r="H45" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="I44" s="49" t="s">
+      <c r="I45" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="J44" s="49" t="s">
+      <c r="J45" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="K44" s="10" t="s">
+      <c r="K45" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="L44" s="10" t="s">
+      <c r="L45" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="M44" s="10" t="s">
+      <c r="M45" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="N44" s="10" t="s">
+      <c r="N45" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="O44" s="10" t="s">
+      <c r="O45" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="P44" s="10" t="s">
+      <c r="P45" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="67" customFormat="1">
-      <c r="B45" s="10" t="s">
+    <row r="46" spans="1:16" s="66" customFormat="1">
+      <c r="B46" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C46" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="D46" s="67" t="s">
         <v>360</v>
       </c>
-      <c r="D45" s="68" t="s">
-        <v>362</v>
-      </c>
-      <c r="E45" s="68" t="s">
-        <v>363</v>
-      </c>
-      <c r="F45" s="68" t="s">
-        <v>361</v>
-      </c>
-      <c r="G45" s="68" t="s">
-        <v>364</v>
-      </c>
-      <c r="H45" s="68" t="s">
-        <v>365</v>
-      </c>
-      <c r="I45" s="68" t="s">
-        <v>366</v>
-      </c>
-      <c r="J45" s="68" t="s">
-        <v>367</v>
-      </c>
-      <c r="K45" s="10" t="s">
+      <c r="E46" s="67" t="s">
+        <v>530</v>
+      </c>
+      <c r="F46" s="67" t="s">
+        <v>359</v>
+      </c>
+      <c r="G46" s="67" t="s">
+        <v>531</v>
+      </c>
+      <c r="H46" s="67" t="s">
+        <v>532</v>
+      </c>
+      <c r="I46" s="67" t="s">
+        <v>533</v>
+      </c>
+      <c r="J46" s="67" t="s">
+        <v>534</v>
+      </c>
+      <c r="K46" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="L45" s="10" t="s">
+      <c r="L46" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="M46" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="M45" s="10" t="s">
+      <c r="N46" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="N45" s="10" t="s">
+      <c r="O46" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="O45" s="10" t="s">
+      <c r="P46" s="9" t="s">
         <v>355</v>
-      </c>
-      <c r="P45" s="10" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16">
-      <c r="B46" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="J46" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="K46" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="L46" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="M46" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="N46" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="O46" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="P46" s="29" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="47" spans="1:16">
       <c r="B47" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="J47" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="N47" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="O47" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="P47" s="28" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="B48" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C48" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11" t="s">
+      <c r="D48" s="9"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="1" customFormat="1" ht="11.25" customHeight="1"/>
-    <row r="49" spans="1:23" s="6" customFormat="1">
-      <c r="A49" s="66" t="s">
-        <v>531</v>
-      </c>
-      <c r="B49" s="65" t="s">
-        <v>460</v>
-      </c>
-      <c r="C49" s="6" t="s">
+    <row r="49" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1"/>
+    <row r="50" spans="1:23" s="5" customFormat="1">
+      <c r="A50" s="65" t="s">
+        <v>520</v>
+      </c>
+      <c r="B50" s="64" t="s">
+        <v>521</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D49" s="34" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23">
-      <c r="B50" s="10" t="s">
+      <c r="D50" s="33" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
+      <c r="B51" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C51" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D51" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E50" s="49" t="s">
-        <v>525</v>
-      </c>
-      <c r="F50" s="49" t="s">
-        <v>524</v>
-      </c>
-      <c r="G50" s="49" t="s">
-        <v>523</v>
-      </c>
-      <c r="H50" s="49" t="s">
-        <v>522</v>
-      </c>
-      <c r="I50" s="29" t="s">
-        <v>521</v>
-      </c>
-      <c r="J50" s="29" t="s">
-        <v>520</v>
-      </c>
-      <c r="K50" s="29" t="s">
-        <v>520</v>
-      </c>
-      <c r="L50" s="29" t="s">
+      <c r="E51" s="48" t="s">
+        <v>514</v>
+      </c>
+      <c r="F51" s="48" t="s">
+        <v>513</v>
+      </c>
+      <c r="G51" s="48" t="s">
+        <v>512</v>
+      </c>
+      <c r="H51" s="48" t="s">
+        <v>511</v>
+      </c>
+      <c r="I51" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="J51" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="K51" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="L51" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="M51" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="N51" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="O51" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="P51" s="48" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q51" s="28" t="s">
         <v>519</v>
       </c>
-      <c r="M50" s="29" t="s">
+      <c r="R51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="S51" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="T51" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="U51" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="V51" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="W51" s="9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" s="66" customFormat="1">
+      <c r="B52" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>503</v>
+      </c>
+      <c r="E52" s="48" t="s">
+        <v>502</v>
+      </c>
+      <c r="F52" s="48" t="s">
+        <v>501</v>
+      </c>
+      <c r="G52" s="48" t="s">
+        <v>516</v>
+      </c>
+      <c r="H52" s="48" t="s">
+        <v>500</v>
+      </c>
+      <c r="I52" s="28" t="s">
+        <v>499</v>
+      </c>
+      <c r="J52" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="K52" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="L52" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="M52" s="28" t="s">
+        <v>498</v>
+      </c>
+      <c r="N52" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="O52" s="28" t="s">
+        <v>497</v>
+      </c>
+      <c r="P52" s="67" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q52" s="28" t="s">
         <v>518</v>
       </c>
-      <c r="N50" s="29" t="s">
-        <v>517</v>
-      </c>
-      <c r="O50" s="10" t="s">
-        <v>516</v>
-      </c>
-      <c r="P50" s="49" t="s">
-        <v>528</v>
-      </c>
-      <c r="Q50" s="29" t="s">
-        <v>530</v>
-      </c>
-      <c r="R50" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="S50" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="T50" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="U50" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="V50" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="W50" s="10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" s="67" customFormat="1">
-      <c r="B51" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="29" t="s">
-        <v>515</v>
-      </c>
-      <c r="D51" s="29" t="s">
-        <v>514</v>
-      </c>
-      <c r="E51" s="49" t="s">
-        <v>513</v>
-      </c>
-      <c r="F51" s="49" t="s">
-        <v>512</v>
-      </c>
-      <c r="G51" s="49" t="s">
-        <v>527</v>
-      </c>
-      <c r="H51" s="49" t="s">
-        <v>511</v>
-      </c>
-      <c r="I51" s="29" t="s">
-        <v>510</v>
-      </c>
-      <c r="J51" s="29" t="s">
-        <v>402</v>
-      </c>
-      <c r="K51" s="29" t="s">
-        <v>403</v>
-      </c>
-      <c r="L51" s="29" t="s">
-        <v>404</v>
-      </c>
-      <c r="M51" s="29" t="s">
-        <v>509</v>
-      </c>
-      <c r="N51" s="29" t="s">
-        <v>405</v>
-      </c>
-      <c r="O51" s="29" t="s">
-        <v>508</v>
-      </c>
-      <c r="P51" s="68" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q51" s="29" t="s">
-        <v>529</v>
-      </c>
-      <c r="R51" s="10" t="s">
+      <c r="R52" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="S51" s="10" t="s">
+      <c r="S52" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="T52" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="T51" s="10" t="s">
+      <c r="U52" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="U51" s="10" t="s">
+      <c r="V52" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="V51" s="10" t="s">
+      <c r="W52" s="9" t="s">
         <v>355</v>
-      </c>
-      <c r="W51" s="10" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23">
-      <c r="B52" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E52" s="29" t="s">
-        <v>507</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G52" s="29" t="s">
-        <v>504</v>
-      </c>
-      <c r="H52" s="84" t="s">
-        <v>504</v>
-      </c>
-      <c r="I52" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="J52" s="29" t="s">
-        <v>506</v>
-      </c>
-      <c r="K52" s="29" t="s">
-        <v>505</v>
-      </c>
-      <c r="L52" s="29" t="s">
-        <v>505</v>
-      </c>
-      <c r="M52" s="29" t="s">
-        <v>505</v>
-      </c>
-      <c r="N52" s="29" t="s">
-        <v>505</v>
-      </c>
-      <c r="O52" s="29" t="s">
-        <v>505</v>
-      </c>
-      <c r="P52" s="29" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q52" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="R52" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="S52" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="T52" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="U52" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="V52" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="W52" s="29" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="53" spans="1:23">
       <c r="B53" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" s="28" t="s">
+        <v>496</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G53" s="28" t="s">
+        <v>493</v>
+      </c>
+      <c r="H53" s="69" t="s">
+        <v>493</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J53" s="28" t="s">
+        <v>495</v>
+      </c>
+      <c r="K53" s="28" t="s">
+        <v>494</v>
+      </c>
+      <c r="L53" s="28" t="s">
+        <v>494</v>
+      </c>
+      <c r="M53" s="28" t="s">
+        <v>494</v>
+      </c>
+      <c r="N53" s="28" t="s">
+        <v>494</v>
+      </c>
+      <c r="O53" s="28" t="s">
+        <v>494</v>
+      </c>
+      <c r="P53" s="28" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q53" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="R53" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="S53" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="T53" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="U53" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="V53" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="W53" s="28" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
+      <c r="B54" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C54" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11" t="s">
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="H53" s="50"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11"/>
-      <c r="V53" s="11"/>
-      <c r="W53" s="11" t="s">
+      <c r="H54" s="49"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="10"/>
+      <c r="U54" s="10"/>
+      <c r="V54" s="10"/>
+      <c r="W54" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1"/>
-    <row r="55" spans="1:23" s="6" customFormat="1">
-      <c r="A55" s="66" t="s">
+    <row r="55" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1"/>
+    <row r="56" spans="1:23" s="5" customFormat="1">
+      <c r="A56" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="B55" s="65" t="s">
-        <v>415</v>
-      </c>
-      <c r="C55" s="6" t="s">
+      <c r="B56" s="64" t="s">
+        <v>525</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="34" t="s">
+      <c r="D56" s="33" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
+      <c r="B57" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="28" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="56" spans="1:23">
-      <c r="B56" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D56" s="29" t="s">
+      <c r="E57" s="28" t="s">
         <v>342</v>
       </c>
-      <c r="E56" s="29" t="s">
+      <c r="F57" s="9"/>
+      <c r="G57" s="28" t="s">
         <v>343</v>
       </c>
-      <c r="F56" s="10"/>
-      <c r="G56" s="29" t="s">
+      <c r="H57" s="28" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
+      <c r="B58" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" s="28" t="s">
         <v>344</v>
       </c>
-      <c r="H56" s="29" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23">
-      <c r="B57" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D57" s="29" t="s">
+      <c r="E58" s="28" t="s">
         <v>345</v>
       </c>
-      <c r="E57" s="29" t="s">
+      <c r="F58" s="9"/>
+      <c r="G58" s="28" t="s">
         <v>346</v>
       </c>
-      <c r="F57" s="10"/>
-      <c r="G57" s="29" t="s">
+      <c r="H58" s="28" t="s">
         <v>347</v>
-      </c>
-      <c r="H57" s="29" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23">
-      <c r="B58" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E58" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="F58" s="11"/>
-      <c r="G58" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="H58" s="29" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="59" spans="1:23">
       <c r="B59" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="F59" s="10"/>
+      <c r="G59" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="H59" s="28" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
+      <c r="B60" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C60" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-    </row>
-    <row r="61" spans="1:23" s="6" customFormat="1">
-      <c r="A61" s="66" t="s">
-        <v>408</v>
-      </c>
-      <c r="B61" s="65" t="s">
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+    </row>
+    <row r="62" spans="1:23" s="5" customFormat="1">
+      <c r="A62" s="65" t="s">
+        <v>402</v>
+      </c>
+      <c r="B62" s="64" t="s">
+        <v>406</v>
+      </c>
+      <c r="D62" s="33"/>
+    </row>
+    <row r="63" spans="1:23">
+      <c r="B63" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="28" t="s">
         <v>416</v>
       </c>
-      <c r="D61" s="34"/>
-    </row>
-    <row r="62" spans="1:23">
-      <c r="B62" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" s="29" t="s">
-        <v>426</v>
-      </c>
-      <c r="D62" s="29" t="s">
-        <v>424</v>
-      </c>
-      <c r="E62" s="49" t="s">
+      <c r="D63" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="E63" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="F62" s="10" t="s">
+      <c r="F63" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G62" s="29" t="s">
-        <v>392</v>
-      </c>
-      <c r="H62" s="10" t="s">
+      <c r="G63" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="H63" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="I62" s="10" t="s">
+      <c r="I63" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="J62" s="10" t="s">
+      <c r="J63" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="K62" s="10" t="s">
+      <c r="K63" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="L62" s="10" t="s">
+      <c r="L63" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
-      <c r="B63" s="10" t="s">
+    <row r="64" spans="1:23">
+      <c r="B64" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="29" t="s">
-        <v>419</v>
-      </c>
-      <c r="D63" s="29" t="s">
-        <v>421</v>
-      </c>
-      <c r="E63" s="68" t="s">
-        <v>420</v>
-      </c>
-      <c r="F63" s="10" t="s">
+      <c r="C64" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="D64" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="E64" s="67" t="s">
+        <v>410</v>
+      </c>
+      <c r="F64" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="G63" s="29" t="s">
-        <v>422</v>
-      </c>
-      <c r="H63" s="10" t="s">
+      <c r="G64" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="I64" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="I63" s="10" t="s">
+      <c r="J64" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="J63" s="10" t="s">
+      <c r="K64" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="K63" s="10" t="s">
+      <c r="L64" s="9" t="s">
         <v>355</v>
-      </c>
-      <c r="L63" s="10" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23">
-      <c r="B64" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C64" s="29" t="s">
-        <v>427</v>
-      </c>
-      <c r="D64" s="29" t="s">
-        <v>425</v>
-      </c>
-      <c r="E64" s="29" t="s">
-        <v>423</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="G64" s="29" t="s">
-        <v>349</v>
-      </c>
-      <c r="H64" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="I64" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="J64" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="K64" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="L64" s="29" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="65" spans="1:22">
       <c r="B65" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C65" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="D65" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="E65" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G65" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="L65" s="28" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
+      <c r="B66" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="10"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11"/>
-      <c r="K65" s="11"/>
-      <c r="L65" s="11" t="s">
+      <c r="C66" s="9"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:22" s="6" customFormat="1">
-      <c r="A67" s="66" t="s">
-        <v>410</v>
-      </c>
-      <c r="B67" s="65" t="s">
-        <v>417</v>
-      </c>
-      <c r="D67" s="34"/>
-    </row>
-    <row r="68" spans="1:22">
-      <c r="B68" s="10" t="s">
+    <row r="68" spans="1:22" s="5" customFormat="1">
+      <c r="A68" s="65" t="s">
+        <v>404</v>
+      </c>
+      <c r="B68" s="64" t="s">
+        <v>407</v>
+      </c>
+      <c r="D68" s="33"/>
+    </row>
+    <row r="69" spans="1:22">
+      <c r="B69" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C69" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D68" s="29" t="s">
+      <c r="D69" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="E69" s="28" t="s">
+        <v>426</v>
+      </c>
+      <c r="F69" s="9"/>
+      <c r="G69" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="H69" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="I69" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="J69" s="28" t="s">
+        <v>423</v>
+      </c>
+      <c r="K69" s="28" t="s">
+        <v>421</v>
+      </c>
+      <c r="L69" s="28" t="s">
+        <v>432</v>
+      </c>
+      <c r="M69" s="48" t="s">
         <v>434</v>
       </c>
-      <c r="E68" s="29" t="s">
+      <c r="N69" s="28" t="s">
         <v>436</v>
       </c>
-      <c r="F68" s="10"/>
-      <c r="G68" s="29" t="s">
+      <c r="O69" s="28" t="s">
         <v>438</v>
       </c>
-      <c r="H68" s="29" t="s">
+      <c r="P69" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q69" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="R69" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="S69" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="T69" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="U69" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="V69" s="9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
+      <c r="B70" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="D70" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="E70" s="28" t="s">
+        <v>425</v>
+      </c>
+      <c r="F70" s="9"/>
+      <c r="G70" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="H70" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="I70" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="J70" s="28" t="s">
+        <v>422</v>
+      </c>
+      <c r="K70" s="28" t="s">
+        <v>420</v>
+      </c>
+      <c r="L70" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="M70" s="67" t="s">
+        <v>433</v>
+      </c>
+      <c r="N70" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="O70" s="28" t="s">
+        <v>437</v>
+      </c>
+      <c r="P70" s="28" t="s">
         <v>440</v>
       </c>
-      <c r="I68" s="29" t="s">
-        <v>429</v>
-      </c>
-      <c r="J68" s="29" t="s">
-        <v>433</v>
-      </c>
-      <c r="K68" s="29" t="s">
-        <v>431</v>
-      </c>
-      <c r="L68" s="29" t="s">
-        <v>442</v>
-      </c>
-      <c r="M68" s="49" t="s">
-        <v>444</v>
-      </c>
-      <c r="N68" s="29" t="s">
-        <v>446</v>
-      </c>
-      <c r="O68" s="29" t="s">
-        <v>448</v>
-      </c>
-      <c r="P68" s="29" t="s">
-        <v>449</v>
-      </c>
-      <c r="Q68" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="R68" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="S68" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="T68" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="U68" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="V68" s="10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22">
-      <c r="B69" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="D69" s="29" t="s">
-        <v>419</v>
-      </c>
-      <c r="E69" s="29" t="s">
-        <v>435</v>
-      </c>
-      <c r="F69" s="10"/>
-      <c r="G69" s="29" t="s">
-        <v>437</v>
-      </c>
-      <c r="H69" s="29" t="s">
-        <v>439</v>
-      </c>
-      <c r="I69" s="29" t="s">
-        <v>428</v>
-      </c>
-      <c r="J69" s="29" t="s">
-        <v>432</v>
-      </c>
-      <c r="K69" s="29" t="s">
-        <v>430</v>
-      </c>
-      <c r="L69" s="29" t="s">
-        <v>441</v>
-      </c>
-      <c r="M69" s="68" t="s">
-        <v>443</v>
-      </c>
-      <c r="N69" s="29" t="s">
-        <v>445</v>
-      </c>
-      <c r="O69" s="29" t="s">
-        <v>447</v>
-      </c>
-      <c r="P69" s="29" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q69" s="10" t="s">
+      <c r="Q70" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="R69" s="10" t="s">
+      <c r="R70" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="S70" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="S69" s="10" t="s">
+      <c r="T70" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="T69" s="10" t="s">
+      <c r="U70" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="U69" s="10" t="s">
+      <c r="V70" s="9" t="s">
         <v>355</v>
-      </c>
-      <c r="V69" s="10" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22">
-      <c r="B70" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E70" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="F70" s="11"/>
-      <c r="G70" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="H70" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="I70" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="J70" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="K70" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="L70" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="M70" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="N70" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="O70" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="P70" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q70" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="R70" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="S70" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="T70" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="U70" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="V70" s="29" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="71" spans="1:22">
       <c r="B71" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E71" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="F71" s="10"/>
+      <c r="G71" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="J71" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="K71" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="L71" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="M71" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="N71" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O71" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="P71" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q71" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="R71" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="S71" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="T71" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="U71" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="V71" s="28" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22">
+      <c r="B72" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C72" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="11"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="11"/>
-      <c r="N71" s="11"/>
-      <c r="O71" s="11"/>
-      <c r="P71" s="11"/>
-      <c r="Q71" s="11"/>
-      <c r="R71" s="11"/>
-      <c r="S71" s="11"/>
-      <c r="T71" s="11"/>
-      <c r="U71" s="11"/>
-      <c r="V71" s="11" t="s">
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="10"/>
+      <c r="Q72" s="10"/>
+      <c r="R72" s="10"/>
+      <c r="S72" s="10"/>
+      <c r="T72" s="10"/>
+      <c r="U72" s="10"/>
+      <c r="V72" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="73" spans="1:22" s="6" customFormat="1">
-      <c r="A73" s="66" t="s">
-        <v>409</v>
-      </c>
-      <c r="B73" s="65" t="s">
-        <v>418</v>
-      </c>
-      <c r="D73" s="34"/>
-    </row>
-    <row r="74" spans="1:22">
-      <c r="B74" s="10" t="s">
+    <row r="74" spans="1:22" s="5" customFormat="1">
+      <c r="A74" s="65" t="s">
+        <v>403</v>
+      </c>
+      <c r="B74" s="64" t="s">
+        <v>408</v>
+      </c>
+      <c r="D74" s="33"/>
+    </row>
+    <row r="75" spans="1:22">
+      <c r="B75" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C75" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D74" s="29" t="s">
-        <v>452</v>
-      </c>
-      <c r="E74" s="29" t="s">
-        <v>454</v>
-      </c>
-      <c r="F74" s="10"/>
-      <c r="G74" s="29" t="s">
-        <v>458</v>
-      </c>
-      <c r="H74" s="29" t="s">
-        <v>456</v>
-      </c>
-      <c r="I74" s="49" t="s">
+      <c r="D75" s="28" t="s">
+        <v>442</v>
+      </c>
+      <c r="E75" s="28" t="s">
+        <v>444</v>
+      </c>
+      <c r="F75" s="9"/>
+      <c r="G75" s="28" t="s">
+        <v>448</v>
+      </c>
+      <c r="H75" s="28" t="s">
+        <v>446</v>
+      </c>
+      <c r="I75" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="J74" s="10" t="s">
+      <c r="J75" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K74" s="10" t="s">
+      <c r="K75" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="L74" s="10" t="s">
+      <c r="L75" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="M74" s="10" t="s">
+      <c r="M75" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="N74" s="10" t="s">
+      <c r="N75" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="O74" s="10" t="s">
+      <c r="O75" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="75" spans="1:22">
-      <c r="B75" s="10" t="s">
+    <row r="76" spans="1:22">
+      <c r="B76" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C75" s="29" t="s">
-        <v>459</v>
-      </c>
-      <c r="D75" s="29" t="s">
-        <v>451</v>
-      </c>
-      <c r="E75" s="29" t="s">
-        <v>453</v>
-      </c>
-      <c r="F75" s="10"/>
-      <c r="G75" s="29" t="s">
-        <v>457</v>
-      </c>
-      <c r="H75" s="29" t="s">
-        <v>455</v>
-      </c>
-      <c r="I75" s="68" t="s">
-        <v>367</v>
-      </c>
-      <c r="J75" s="10" t="s">
+      <c r="C76" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="D76" s="28" t="s">
+        <v>441</v>
+      </c>
+      <c r="E76" s="28" t="s">
+        <v>443</v>
+      </c>
+      <c r="F76" s="9"/>
+      <c r="G76" s="28" t="s">
+        <v>447</v>
+      </c>
+      <c r="H76" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="I76" s="67" t="s">
+        <v>361</v>
+      </c>
+      <c r="J76" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="K75" s="10" t="s">
+      <c r="K76" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="L76" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="L75" s="10" t="s">
+      <c r="M76" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="M75" s="10" t="s">
+      <c r="N76" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="N75" s="10" t="s">
+      <c r="O76" s="9" t="s">
         <v>355</v>
-      </c>
-      <c r="O75" s="10" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22">
-      <c r="B76" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F76" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="H76" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="I76" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="J76" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="K76" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="L76" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="M76" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="N76" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="O76" s="29" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="77" spans="1:22">
       <c r="B77" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="I77" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K77" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="L77" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="M77" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="N77" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="O77" s="28" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22">
+      <c r="B78" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C78" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="11"/>
-      <c r="K77" s="11"/>
-      <c r="L77" s="11"/>
-      <c r="M77" s="11"/>
-      <c r="N77" s="11"/>
-      <c r="O77" s="11" t="s">
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="10" t="s">
         <v>147</v>
       </c>
     </row>
@@ -7538,10 +7505,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R54"/>
+  <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7564,956 +7531,952 @@
     <col min="17" max="17" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1">
+      <c r="B1" s="6" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1">
-      <c r="A4" s="28" t="s">
-        <v>500</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1">
+      <c r="A4" s="27" t="s">
+        <v>489</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1">
       <c r="A5"/>
       <c r="B5"/>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1">
-      <c r="A6"/>
-      <c r="B6"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="21" t="s">
+    <row r="7" spans="1:12">
+      <c r="A7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>498</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B7" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="D8" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9" s="22" t="s">
+      <c r="D7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>496</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="B10" s="83" t="s">
+      <c r="C8" s="21" t="s">
+        <v>485</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="B9" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>494</v>
-      </c>
-      <c r="D10" s="22" t="s">
+      <c r="C9" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="B11" s="22" t="s">
+    <row r="10" spans="1:12">
+      <c r="B10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="B12" s="83" t="s">
+    <row r="11" spans="1:12">
+      <c r="B11" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="83" t="s">
-        <v>493</v>
-      </c>
-      <c r="D12" s="83">
+      <c r="C11" s="68" t="s">
+        <v>482</v>
+      </c>
+      <c r="D11" s="68">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="20" customFormat="1">
-      <c r="A15" s="20" t="s">
+    <row r="14" spans="1:12" s="19" customFormat="1">
+      <c r="A14" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="23" t="s">
+    <row r="15" spans="1:12">
+      <c r="A15" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="24" t="s">
-        <v>492</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B15" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="C15" t="s">
         <v>4</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D15" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="16" spans="1:12">
+      <c r="B16" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="17" spans="1:15">
-      <c r="B17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>22</v>
+      <c r="B17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="B18" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>28</v>
+      <c r="B18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="B19" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="B20" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="10">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="9">
         <v>1</v>
       </c>
-      <c r="L20" s="10"/>
-    </row>
-    <row r="21" spans="1:15" s="1" customFormat="1" ht="11.25" customHeight="1"/>
-    <row r="22" spans="1:15" s="6" customFormat="1">
-      <c r="A22" s="16" t="s">
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="1:15" s="1" customFormat="1" ht="11.25" customHeight="1"/>
+    <row r="21" spans="1:15" s="5" customFormat="1">
+      <c r="A21" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>489</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="B21" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>39</v>
       </c>
     </row>
+    <row r="22" spans="1:15">
+      <c r="B22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>477</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>472</v>
+      </c>
+    </row>
     <row r="23" spans="1:15">
-      <c r="B23" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>488</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>483</v>
+      <c r="B23" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="B24" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>481</v>
+        <v>8</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>480</v>
+        <v>33</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>479</v>
+        <v>43</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>478</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>476</v>
-      </c>
-      <c r="I24" s="25" t="s">
-        <v>475</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>474</v>
+        <v>9</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="B25" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="B26" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11">
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10">
         <v>0</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G25" s="9">
         <v>1</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H25" s="9">
         <v>1</v>
       </c>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-    </row>
-    <row r="28" spans="1:15" s="6" customFormat="1">
-      <c r="A28" s="16" t="s">
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="27" spans="1:15" s="5" customFormat="1">
+      <c r="A27" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>471</v>
-      </c>
-      <c r="C28" s="6" t="s">
+      <c r="B27" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>46</v>
       </c>
     </row>
+    <row r="28" spans="1:15">
+      <c r="B28" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="M28" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="N28" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="29" spans="1:15">
-      <c r="B29" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>47</v>
+      <c r="B29" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="M29" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="N29" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="O29" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M29" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="N29" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="B30" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M30" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="N30" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="B31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9">
+        <v>0</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" s="19" customFormat="1">
+      <c r="A34" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="B36" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M36" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="N36" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="O36" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="P36" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q36" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="R36" s="10" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="B37" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="K30" s="10" t="s">
+      <c r="C37" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M37" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="N37" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O37" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="P37" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q37" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="R37" s="10" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="B38" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M38" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N38" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O38" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="P38" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q38" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="R38" s="10" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="B39" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+    </row>
+    <row r="41" spans="1:18" s="5" customFormat="1">
+      <c r="A41" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="B42" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I42" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="B43" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="L30" s="10" t="s">
+      <c r="G43" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="M30" s="22" t="s">
+      <c r="H43" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="N30" s="22" t="s">
+      <c r="I43" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="O30" s="10" t="s">
+      <c r="J43" s="25" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="B31" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="K31" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L31" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="M31" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="N31" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="O31" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="B32" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10">
-        <v>0</v>
-      </c>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" s="20" customFormat="1">
-      <c r="A35" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18">
-      <c r="A36" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18">
-      <c r="B37" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="J37" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="K37" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="L37" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="M37" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="N37" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="O37" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="P37" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q37" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="R37" s="11" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
-      <c r="B38" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="J38" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K38" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="L38" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="M38" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="N38" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="O38" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="P38" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q38" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="R38" s="11" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
-      <c r="B39" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="J39" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="K39" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="L39" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="M39" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="N39" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="O39" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="P39" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q39" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="R39" s="11" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
-      <c r="B40" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-    </row>
-    <row r="42" spans="1:18" s="6" customFormat="1">
-      <c r="A42" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="34" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
-      <c r="B43" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H43" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="I43" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="J43" s="10" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:18">
       <c r="B44" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="I44" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="B45" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" s="19" customFormat="1">
+      <c r="A48" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="B50" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="B51" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E44" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F44" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G44" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="H44" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="I44" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="J44" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18">
-      <c r="B45" s="11" t="s">
+      <c r="C51" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F51" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="G51" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="B52" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H45" s="22" t="s">
+      <c r="C52" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I45" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="J45" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
-      <c r="B46" s="10" t="s">
+      <c r="F52" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="B53" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="20" customFormat="1">
-      <c r="A49" s="20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="C50" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="28" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="B51" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="B52" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D52" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E52" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="F52" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="G52" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="B53" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="B54" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -8524,10 +8487,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8555,10 +8518,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>222</v>
       </c>
     </row>
@@ -8569,9 +8532,6 @@
       <c r="B2" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="F2" s="1" t="s">
         <v>132</v>
       </c>
@@ -8585,289 +8545,290 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1"/>
-    <row r="5" spans="1:7" s="55" customFormat="1">
-      <c r="A5" s="54"/>
-    </row>
-    <row r="6" spans="1:7" s="48" customFormat="1">
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="54" customFormat="1">
       <c r="A6" s="53"/>
-      <c r="B6" s="53"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" s="11"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+    </row>
+    <row r="7" spans="1:7" s="47" customFormat="1">
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="11"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="11"/>
-      <c r="C9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="12" spans="1:7" s="6" customFormat="1">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="B13" s="11"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="13" spans="1:7" s="5" customFormat="1">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="B14" s="11"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="18" spans="1:8" s="6" customFormat="1">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="B19" s="11"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="19" spans="1:8" s="5" customFormat="1">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="B20" s="11"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8">
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="24" spans="1:8" s="6" customFormat="1">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="B25" s="11"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="25" spans="1:8" s="5" customFormat="1">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="11"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8">
       <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-    </row>
-    <row r="30" spans="1:8" s="6" customFormat="1">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="B31" s="11"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="31" spans="1:8" s="5" customFormat="1">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="11"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:11">
       <c r="B34" s="10"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-    </row>
-    <row r="37" spans="1:11" s="33" customFormat="1">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="B38" s="11"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="B35" s="9"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="38" spans="1:11" s="32" customFormat="1">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="B40" s="11"/>
+      <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="11"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
     </row>
     <row r="41" spans="1:11">
       <c r="B41" s="10"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="18"/>
-      <c r="B43" s="19"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="10"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="B42" s="9"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="B44" s="11"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="18"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="11"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
     </row>
     <row r="47" spans="1:11">
       <c r="B47" s="10"/>
-      <c r="C47" s="81"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="10"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="B48" s="9"/>
+      <c r="C48" s="82"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C48:D48"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/design/数据库设计.xlsx
+++ b/design/数据库设计.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\fuck\git\danyuan-application\design\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12390" windowHeight="5985" tabRatio="864" activeTab="2"/>
   </bookViews>
@@ -17,15 +22,15 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">版本记录!$A$1:$I$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">后台管理!$A$1:$M$66</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">结构设计!$A$1:$K$48</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">数据管理!$A$1:$W$79</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">数据管理!$A$1:$W$91</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">数据流转表结构设计!$A$1:$U$53</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="561">
   <si>
     <t xml:space="preserve">数据库 </t>
   </si>
@@ -1212,10 +1217,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>配对网址段</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1232,10 +1233,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>sub_uri</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>request_type</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1273,14 +1270,6 @@
   </si>
   <si>
     <t>array 取一个 整型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>表id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>tables_uuid</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1472,10 +1461,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>data_date</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>d</t>
     </r>
@@ -1493,10 +1478,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>样式</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1523,9 +1504,6 @@
   </si>
   <si>
     <t>type_order</t>
-  </si>
-  <si>
-    <t>table_disc</t>
   </si>
   <si>
     <t>type_uuid</t>
@@ -1716,18 +1694,6 @@
   </si>
   <si>
     <t>group_uuid</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_dbms_chart_dimension_group</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_dbms_chart_dimension</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_dbms_chart_dimension_data</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2163,28 +2129,7 @@
     <t>datatransform</t>
   </si>
   <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nt</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(36)</t>
-  </si>
-  <si>
-    <t>varchar(36)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2261,9 +2206,6 @@
     <t>cols_order</t>
   </si>
   <si>
-    <t>cold_type</t>
-  </si>
-  <si>
     <t>cols_desc</t>
   </si>
   <si>
@@ -2329,9 +2271,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>列类型</t>
-  </si>
-  <si>
     <t>字段的翻译</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2451,11 +2390,241 @@
     <t>tabs_order</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>列表展示</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>page_list</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户查询配置</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户索引配置说明</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统维护建议说明</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_desc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_index</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_order</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>multeity</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_placeholder</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>chart</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置列信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>多条件配置</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>图表配置</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>varchar（15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户维护建议信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>execute_sql</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_desc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议消息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议执行语句</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对的表名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对的数据库</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入人</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <r>
+      <t>varchar（2000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>varchar（50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>varchar（36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_dbms_chart_dime_group</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_dbms_chart_dime</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_dbms_chart_dime_data</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sys_dbms_user_index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_info</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sys_dbms_advi_mess</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_info</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdbc_uuid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -3306,7 +3475,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3341,7 +3510,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4684,7 +4853,7 @@
         <v>165</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="E32" s="48" t="s">
         <v>265</v>
@@ -5129,13 +5298,13 @@
         <v>194</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G57" s="9" t="s">
         <v>195</v>
       </c>
       <c r="H57" s="28" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I57" s="9" t="s">
         <v>138</v>
@@ -5173,7 +5342,7 @@
         <v>200</v>
       </c>
       <c r="H58" s="28" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="I58" s="48" t="s">
         <v>265</v>
@@ -5211,7 +5380,7 @@
         <v>201</v>
       </c>
       <c r="H59" s="28" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I59" s="9" t="s">
         <v>128</v>
@@ -5375,20 +5544,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W78"/>
+  <dimension ref="A1:W90"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G43" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
     <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
     <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="16.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.375" customWidth="1"/>
     <col min="9" max="9" width="19.875" customWidth="1"/>
@@ -5452,13 +5621,13 @@
         <v>266</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C7" s="61" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -5590,7 +5759,7 @@
         <v>258</v>
       </c>
       <c r="O10" s="28" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -5616,16 +5785,16 @@
     <row r="12" spans="1:15" s="3" customFormat="1"/>
     <row r="13" spans="1:15" s="47" customFormat="1">
       <c r="A13" s="52" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C13" s="61" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="63" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -5642,33 +5811,30 @@
         <v>294</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>279</v>
+        <v>2</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>2</v>
+        <v>138</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>138</v>
+        <v>257</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>257</v>
+        <v>139</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>139</v>
+        <v>259</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="O14" s="9" t="s">
         <v>140</v>
       </c>
     </row>
@@ -5683,36 +5849,33 @@
         <v>291</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="I15" s="48" t="s">
+        <v>299</v>
+      </c>
+      <c r="H15" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="I15" s="9" t="s">
         <v>144</v>
       </c>
+      <c r="J15" s="48" t="s">
+        <v>265</v>
+      </c>
       <c r="K15" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="L15" s="48" t="s">
         <v>263</v>
       </c>
+      <c r="L15" s="9" t="s">
+        <v>264</v>
+      </c>
       <c r="M15" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="N15" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="O15" s="28" t="s">
+      <c r="N15" s="28" t="s">
         <v>253</v>
       </c>
     </row>
@@ -5724,40 +5887,37 @@
         <v>262</v>
       </c>
       <c r="D16" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>299</v>
-      </c>
       <c r="F16" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="H16" s="10" t="s">
         <v>276</v>
       </c>
+      <c r="H16" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="I16" s="9" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="K16" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="L16" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="M16" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="M16" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="O16" s="28" t="s">
-        <v>330</v>
+      <c r="N16" s="28" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -5766,7 +5926,7 @@
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -5777,8 +5937,7 @@
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10" t="s">
+      <c r="N17" s="10" t="s">
         <v>147</v>
       </c>
     </row>
@@ -5787,13 +5946,13 @@
         <v>267</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C19" s="62" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -5801,31 +5960,31 @@
         <v>229</v>
       </c>
       <c r="C20" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="F20" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="G20" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="H20" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="I20" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="J20" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="J20" s="9" t="s">
+      <c r="K20" s="9" t="s">
         <v>308</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>310</v>
       </c>
       <c r="L20" s="9" t="s">
         <v>2</v>
@@ -5851,31 +6010,31 @@
         <v>6</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D21" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="H21" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="I21" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="J21" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="K21" s="9" t="s">
         <v>316</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>320</v>
       </c>
       <c r="L21" s="9" t="s">
         <v>144</v>
@@ -5907,25 +6066,25 @@
         <v>262</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>262</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L22" s="9" t="s">
         <v>146</v>
@@ -5943,7 +6102,7 @@
         <v>258</v>
       </c>
       <c r="Q22" s="28" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -5971,104 +6130,98 @@
     <row r="24" spans="1:17" s="1" customFormat="1"/>
     <row r="25" spans="1:17" s="3" customFormat="1">
       <c r="A25" s="15" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C25" s="62" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="B26" s="48" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>311</v>
+        <v>382</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="O26" s="9" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="B27" s="48" t="s">
+        <v>365</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="F27" s="48" t="s">
+        <v>356</v>
+      </c>
+      <c r="G27" s="48" t="s">
+        <v>367</v>
+      </c>
+      <c r="H27" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="J27" s="48" t="s">
+        <v>369</v>
+      </c>
+      <c r="K27" s="48" t="s">
+        <v>370</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="M27" s="28" t="s">
         <v>372</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="N27" s="28" t="s">
         <v>373</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="F27" s="48" t="s">
-        <v>312</v>
-      </c>
-      <c r="G27" s="48" t="s">
-        <v>363</v>
-      </c>
-      <c r="H27" s="48" t="s">
-        <v>374</v>
-      </c>
-      <c r="I27" s="48" t="s">
-        <v>369</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="K27" s="48" t="s">
-        <v>376</v>
-      </c>
-      <c r="L27" s="48" t="s">
-        <v>377</v>
-      </c>
-      <c r="M27" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="N27" s="28" t="s">
-        <v>379</v>
-      </c>
-      <c r="O27" s="28" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -6093,26 +6246,23 @@
       <c r="H28" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="I28" s="10" t="s">
-        <v>262</v>
+      <c r="I28" s="9" t="s">
+        <v>146</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="K28" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="L28" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="L28" s="9" t="s">
+      <c r="M28" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="M28" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="N28" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="O28" s="28" t="s">
-        <v>330</v>
+      <c r="N28" s="28" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -6130,155 +6280,142 @@
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10" t="s">
+      <c r="N29" s="10" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:17" s="1" customFormat="1"/>
     <row r="31" spans="1:17" s="32" customFormat="1">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="32" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" s="5" customFormat="1">
+      <c r="A32" s="65" t="s">
+        <v>523</v>
+      </c>
+      <c r="B32" s="64" t="s">
+        <v>558</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="B33" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>532</v>
+      </c>
+      <c r="D33" s="48" t="s">
+        <v>533</v>
+      </c>
+      <c r="E33" s="48" t="s">
+        <v>536</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>534</v>
+      </c>
+      <c r="G33" s="48" t="s">
+        <v>535</v>
+      </c>
+      <c r="H33" s="48" t="s">
+        <v>537</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" s="66" customFormat="1">
+      <c r="B34" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>526</v>
+      </c>
+      <c r="D34" s="67" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>524</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="B33" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L33" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="M33" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="N33" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="O33" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="P33" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="B34" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>28</v>
+      <c r="E34" s="67" t="s">
+        <v>530</v>
+      </c>
+      <c r="F34" s="67" t="s">
+        <v>528</v>
+      </c>
+      <c r="G34" s="67" t="s">
+        <v>529</v>
+      </c>
+      <c r="H34" s="67" t="s">
+        <v>531</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>30</v>
+        <v>144</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>345</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="L34" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="M34" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="N34" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="O34" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="P34" s="28" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
+        <v>346</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="B35" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>36</v>
+        <v>262</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>538</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>483</v>
+      </c>
+      <c r="F35" s="69" t="s">
+        <v>326</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>146</v>
+        <v>258</v>
       </c>
       <c r="L35" s="9" t="s">
         <v>128</v>
@@ -6286,149 +6423,159 @@
       <c r="M35" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="N35" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="O35" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="P35" s="28" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="N35" s="28" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="B36" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
+      <c r="H36" s="9"/>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10" t="s">
+      <c r="N36" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="1" customFormat="1"/>
-    <row r="38" spans="1:16" s="61" customFormat="1">
-      <c r="A38" s="51" t="s">
-        <v>339</v>
+    <row r="37" spans="1:15" s="1" customFormat="1" ht="11.25" customHeight="1"/>
+    <row r="38" spans="1:15" s="61" customFormat="1">
+      <c r="A38" s="20" t="s">
+        <v>3</v>
       </c>
       <c r="B38" s="51" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="C38" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="62" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="D38" s="61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="B39" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="D39" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="E39" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="F39" s="10"/>
-      <c r="G39" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="H39" s="9" t="s">
+      <c r="C39" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I39" s="9" t="s">
+      <c r="K39" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="J39" s="9" t="s">
+      <c r="L39" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="K39" s="9" t="s">
+      <c r="M39" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="L39" s="9" t="s">
+      <c r="N39" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="M39" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
-      <c r="B40" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="C40" s="28" t="s">
-        <v>356</v>
-      </c>
-      <c r="D40" s="28" t="s">
-        <v>357</v>
-      </c>
-      <c r="E40" s="28" t="s">
-        <v>358</v>
-      </c>
-      <c r="F40" s="10"/>
-      <c r="G40" s="28" t="s">
-        <v>362</v>
+      <c r="O39" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="B40" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>351</v>
+        <v>29</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="K40" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="L40" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="M40" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
+        <v>251</v>
+      </c>
+      <c r="K40" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="L40" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="M40" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="N40" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="O40" s="28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="B41" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="D41" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="E41" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="F41" s="10"/>
-      <c r="G41" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J41" s="9" t="s">
         <v>146</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="J41" s="9" t="s">
-        <v>258</v>
       </c>
       <c r="K41" s="9" t="s">
         <v>128</v>
@@ -6436,11 +6583,17 @@
       <c r="L41" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="M41" s="28" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="M41" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="O41" s="28" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="B42" s="9" t="s">
         <v>37</v>
       </c>
@@ -6454,338 +6607,250 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
-      <c r="M42" s="10" t="s">
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="1" customFormat="1" ht="11.25" customHeight="1"/>
-    <row r="44" spans="1:16" s="5" customFormat="1">
-      <c r="A44" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" s="64" t="s">
-        <v>523</v>
-      </c>
-      <c r="C44" s="5" t="s">
+    <row r="43" spans="1:15" s="1" customFormat="1"/>
+    <row r="44" spans="1:15" s="61" customFormat="1">
+      <c r="A44" s="51" t="s">
+        <v>335</v>
+      </c>
+      <c r="B44" s="51" t="s">
+        <v>508</v>
+      </c>
+      <c r="C44" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
-      <c r="B45" s="9" t="s">
-        <v>528</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" s="48" t="s">
-        <v>230</v>
+      <c r="D44" s="62" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="B45" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>225</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G45" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="H45" s="48" t="s">
-        <v>232</v>
-      </c>
-      <c r="I45" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="J45" s="48" t="s">
-        <v>226</v>
+        <v>344</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="M45" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="N45" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="O45" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="P45" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" s="66" customFormat="1">
-      <c r="B46" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="D46" s="67" t="s">
-        <v>360</v>
-      </c>
-      <c r="E46" s="67" t="s">
-        <v>530</v>
-      </c>
-      <c r="F46" s="67" t="s">
-        <v>359</v>
-      </c>
-      <c r="G46" s="67" t="s">
-        <v>531</v>
-      </c>
-      <c r="H46" s="67" t="s">
-        <v>532</v>
-      </c>
-      <c r="I46" s="67" t="s">
-        <v>533</v>
-      </c>
-      <c r="J46" s="67" t="s">
-        <v>534</v>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="B46" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>350</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>351</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="F46" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>347</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>144</v>
+        <v>348</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="M46" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="N46" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="O46" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="P46" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="B47" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C47" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>43</v>
+      <c r="C47" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>146</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="J47" s="28" t="s">
-        <v>330</v>
+        <v>258</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="L47" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="M47" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="N47" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="O47" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="P47" s="28" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="L47" s="28" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="B48" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="9"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10" t="s">
+      <c r="L48" s="10" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1"/>
     <row r="50" spans="1:23" s="5" customFormat="1">
-      <c r="A50" s="65" t="s">
-        <v>520</v>
+      <c r="A50" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="B50" s="64" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="33" t="s">
-        <v>450</v>
+      <c r="D50" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:23">
       <c r="B51" s="9" t="s">
-        <v>5</v>
+        <v>514</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E51" s="48" t="s">
-        <v>514</v>
+        <v>40</v>
+      </c>
+      <c r="D51" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>209</v>
       </c>
       <c r="F51" s="48" t="s">
-        <v>513</v>
+        <v>231</v>
       </c>
       <c r="G51" s="48" t="s">
-        <v>512</v>
+        <v>232</v>
       </c>
       <c r="H51" s="48" t="s">
-        <v>511</v>
-      </c>
-      <c r="I51" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="J51" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="K51" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="L51" s="28" t="s">
-        <v>508</v>
-      </c>
-      <c r="M51" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="N51" s="28" t="s">
-        <v>506</v>
+        <v>233</v>
+      </c>
+      <c r="I51" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="N51" s="9" t="s">
+        <v>259</v>
       </c>
       <c r="O51" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="P51" s="48" t="s">
-        <v>517</v>
-      </c>
-      <c r="Q51" s="28" t="s">
-        <v>519</v>
-      </c>
-      <c r="R51" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="S51" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="T51" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="U51" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="V51" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="W51" s="9" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="52" spans="1:23" s="66" customFormat="1">
       <c r="B52" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="D52" s="28" t="s">
-        <v>503</v>
-      </c>
-      <c r="E52" s="48" t="s">
-        <v>502</v>
-      </c>
-      <c r="F52" s="48" t="s">
-        <v>501</v>
-      </c>
-      <c r="G52" s="48" t="s">
+      <c r="C52" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="D52" s="67" t="s">
+        <v>353</v>
+      </c>
+      <c r="E52" s="67" t="s">
         <v>516</v>
       </c>
-      <c r="H52" s="48" t="s">
-        <v>500</v>
-      </c>
-      <c r="I52" s="28" t="s">
-        <v>499</v>
-      </c>
-      <c r="J52" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="K52" s="28" t="s">
-        <v>397</v>
-      </c>
-      <c r="L52" s="28" t="s">
-        <v>398</v>
-      </c>
-      <c r="M52" s="28" t="s">
-        <v>498</v>
-      </c>
-      <c r="N52" s="28" t="s">
-        <v>399</v>
-      </c>
-      <c r="O52" s="28" t="s">
-        <v>497</v>
-      </c>
-      <c r="P52" s="67" t="s">
-        <v>451</v>
-      </c>
-      <c r="Q52" s="28" t="s">
+      <c r="F52" s="67" t="s">
+        <v>517</v>
+      </c>
+      <c r="G52" s="67" t="s">
         <v>518</v>
       </c>
-      <c r="R52" s="9" t="s">
+      <c r="H52" s="67" t="s">
+        <v>519</v>
+      </c>
+      <c r="I52" s="67" t="s">
+        <v>520</v>
+      </c>
+      <c r="J52" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="S52" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="T52" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="U52" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="V52" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="W52" s="9" t="s">
-        <v>355</v>
+      <c r="K52" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="L52" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="N52" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="O52" s="9" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -6795,65 +6860,41 @@
       <c r="C53" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E53" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E53" s="28" t="s">
-        <v>496</v>
-      </c>
       <c r="F53" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="I53" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K53" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G53" s="28" t="s">
-        <v>493</v>
-      </c>
-      <c r="H53" s="69" t="s">
-        <v>493</v>
-      </c>
-      <c r="I53" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="J53" s="28" t="s">
-        <v>495</v>
-      </c>
-      <c r="K53" s="28" t="s">
-        <v>494</v>
-      </c>
-      <c r="L53" s="28" t="s">
-        <v>494</v>
-      </c>
-      <c r="M53" s="28" t="s">
-        <v>494</v>
-      </c>
-      <c r="N53" s="28" t="s">
-        <v>494</v>
+      <c r="L53" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="N53" s="9" t="s">
+        <v>258</v>
       </c>
       <c r="O53" s="28" t="s">
-        <v>494</v>
-      </c>
-      <c r="P53" s="28" t="s">
-        <v>494</v>
-      </c>
-      <c r="Q53" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="R53" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="S53" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="T53" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="U53" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="V53" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="W53" s="28" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -6863,44 +6904,34 @@
       <c r="C54" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D54" s="10"/>
+      <c r="D54" s="9"/>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
-      <c r="G54" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="H54" s="49"/>
-      <c r="I54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="10"/>
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
       <c r="L54" s="10"/>
       <c r="M54" s="10"/>
       <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="10"/>
-      <c r="R54" s="10"/>
-      <c r="S54" s="10"/>
-      <c r="T54" s="10"/>
-      <c r="U54" s="10"/>
-      <c r="V54" s="10"/>
-      <c r="W54" s="10" t="s">
+      <c r="O54" s="10" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1"/>
     <row r="56" spans="1:23" s="5" customFormat="1">
       <c r="A56" s="65" t="s">
-        <v>340</v>
+        <v>506</v>
       </c>
       <c r="B56" s="64" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D56" s="33" t="s">
-        <v>526</v>
+        <v>440</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -6910,39 +6941,133 @@
       <c r="C57" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D57" s="28" t="s">
-        <v>341</v>
-      </c>
-      <c r="E57" s="28" t="s">
-        <v>342</v>
-      </c>
-      <c r="F57" s="9"/>
-      <c r="G57" s="28" t="s">
-        <v>343</v>
+      <c r="D57" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E57" s="48" t="s">
+        <v>500</v>
+      </c>
+      <c r="F57" s="48" t="s">
+        <v>499</v>
+      </c>
+      <c r="G57" s="48" t="s">
+        <v>498</v>
       </c>
       <c r="H57" s="28" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23">
+        <v>497</v>
+      </c>
+      <c r="I57" s="28" t="s">
+        <v>521</v>
+      </c>
+      <c r="J57" s="28" t="s">
+        <v>496</v>
+      </c>
+      <c r="K57" s="28" t="s">
+        <v>496</v>
+      </c>
+      <c r="L57" s="28" t="s">
+        <v>495</v>
+      </c>
+      <c r="M57" s="28" t="s">
+        <v>494</v>
+      </c>
+      <c r="N57" s="28" t="s">
+        <v>493</v>
+      </c>
+      <c r="O57" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="P57" s="48" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q57" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="R57" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="S57" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="T57" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="U57" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="V57" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="W57" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" s="66" customFormat="1">
       <c r="B58" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="9" t="s">
-        <v>59</v>
+      <c r="C58" s="28" t="s">
+        <v>491</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>344</v>
-      </c>
-      <c r="E58" s="28" t="s">
+        <v>490</v>
+      </c>
+      <c r="E58" s="48" t="s">
+        <v>489</v>
+      </c>
+      <c r="F58" s="48" t="s">
+        <v>502</v>
+      </c>
+      <c r="G58" s="48" t="s">
+        <v>488</v>
+      </c>
+      <c r="H58" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="I58" s="28" t="s">
+        <v>522</v>
+      </c>
+      <c r="J58" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="K58" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="L58" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="M58" s="28" t="s">
+        <v>486</v>
+      </c>
+      <c r="N58" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="O58" s="28" t="s">
+        <v>485</v>
+      </c>
+      <c r="P58" s="67" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q58" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="R58" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="S58" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="28" t="s">
+      <c r="T58" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="H58" s="28" t="s">
+      <c r="U58" s="9" t="s">
         <v>347</v>
+      </c>
+      <c r="V58" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="W58" s="9" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -6956,132 +7081,204 @@
         <v>33</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="F59" s="10"/>
-      <c r="G59" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="H59" s="28" t="s">
-        <v>348</v>
+        <v>484</v>
+      </c>
+      <c r="F59" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="G59" s="69" t="s">
+        <v>326</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J59" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="K59" s="28" t="s">
+        <v>483</v>
+      </c>
+      <c r="L59" s="28" t="s">
+        <v>483</v>
+      </c>
+      <c r="M59" s="28" t="s">
+        <v>483</v>
+      </c>
+      <c r="N59" s="28" t="s">
+        <v>483</v>
+      </c>
+      <c r="O59" s="28" t="s">
+        <v>483</v>
+      </c>
+      <c r="P59" s="28" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q59" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="R59" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="S59" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="T59" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="U59" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="V59" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="W59" s="28" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="60" spans="1:23">
       <c r="B60" s="9" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>44</v>
       </c>
       <c r="D60" s="10"/>
       <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="9"/>
+      <c r="F60" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G60" s="49"/>
       <c r="H60" s="9"/>
-    </row>
+      <c r="I60" s="9"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10"/>
+      <c r="V60" s="10"/>
+      <c r="W60" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1"/>
     <row r="62" spans="1:23" s="5" customFormat="1">
       <c r="A62" s="65" t="s">
-        <v>402</v>
+        <v>539</v>
       </c>
       <c r="B62" s="64" t="s">
-        <v>406</v>
-      </c>
-      <c r="D62" s="33"/>
+        <v>559</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="33" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="63" spans="1:23">
       <c r="B63" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>416</v>
+        <v>545</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>414</v>
+        <v>546</v>
       </c>
       <c r="E63" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="F63" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="F63" s="48" t="s">
+        <v>548</v>
+      </c>
+      <c r="G63" s="48" t="s">
+        <v>548</v>
+      </c>
+      <c r="H63" s="48" t="s">
+        <v>549</v>
+      </c>
+      <c r="I63" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G63" s="28" t="s">
-        <v>386</v>
-      </c>
-      <c r="H63" s="9" t="s">
+      <c r="J63" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="I63" s="9" t="s">
+      <c r="K63" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="J63" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="K63" s="9" t="s">
-        <v>259</v>
-      </c>
       <c r="L63" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" s="66" customFormat="1">
       <c r="B64" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>409</v>
+        <v>540</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>411</v>
-      </c>
-      <c r="E64" s="67" t="s">
-        <v>410</v>
-      </c>
-      <c r="F64" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="E64" s="48" t="s">
+        <v>542</v>
+      </c>
+      <c r="F64" s="48" t="s">
+        <v>543</v>
+      </c>
+      <c r="G64" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="H64" s="48" t="s">
+        <v>560</v>
+      </c>
+      <c r="I64" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="G64" s="28" t="s">
-        <v>412</v>
-      </c>
-      <c r="H64" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="I64" s="9" t="s">
-        <v>352</v>
-      </c>
       <c r="J64" s="9" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="L64" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="B65" s="10" t="s">
         <v>262</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>417</v>
+        <v>484</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>415</v>
+        <v>552</v>
       </c>
       <c r="E65" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="F65" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="F65" s="28" t="s">
+        <v>553</v>
+      </c>
+      <c r="G65" s="28" t="s">
+        <v>554</v>
+      </c>
+      <c r="H65" s="28" t="s">
+        <v>554</v>
+      </c>
+      <c r="I65" s="9" t="s">
         <v>146</v>
-      </c>
-      <c r="G65" s="28" t="s">
-        <v>348</v>
-      </c>
-      <c r="H65" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="I65" s="9" t="s">
-        <v>258</v>
       </c>
       <c r="J65" s="9" t="s">
         <v>128</v>
@@ -7090,19 +7287,19 @@
         <v>258</v>
       </c>
       <c r="L65" s="28" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="B66" s="9" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="10"/>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="49"/>
       <c r="I66" s="10"/>
       <c r="J66" s="10"/>
       <c r="K66" s="10"/>
@@ -7110,389 +7307,619 @@
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="1:22" s="5" customFormat="1">
+    <row r="67" spans="1:12" s="1" customFormat="1" ht="11.25" customHeight="1"/>
+    <row r="68" spans="1:12" s="5" customFormat="1">
       <c r="A68" s="65" t="s">
-        <v>404</v>
+        <v>336</v>
       </c>
       <c r="B68" s="64" t="s">
-        <v>407</v>
-      </c>
-      <c r="D68" s="33"/>
-    </row>
-    <row r="69" spans="1:22">
+        <v>511</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="33" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="B69" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>424</v>
+        <v>337</v>
       </c>
       <c r="E69" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="F69" s="9"/>
-      <c r="G69" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="H69" s="28" t="s">
-        <v>430</v>
-      </c>
-      <c r="I69" s="28" t="s">
-        <v>419</v>
-      </c>
-      <c r="J69" s="28" t="s">
-        <v>423</v>
-      </c>
-      <c r="K69" s="28" t="s">
-        <v>421</v>
-      </c>
-      <c r="L69" s="28" t="s">
-        <v>432</v>
-      </c>
-      <c r="M69" s="48" t="s">
-        <v>434</v>
-      </c>
-      <c r="N69" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="O69" s="28" t="s">
-        <v>438</v>
-      </c>
-      <c r="P69" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="Q69" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="R69" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="F69" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="G69" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="S69" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="T69" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="U69" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="V69" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22">
+      <c r="H69" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="B70" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>405</v>
+        <v>59</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>409</v>
+        <v>340</v>
       </c>
       <c r="E70" s="28" t="s">
-        <v>425</v>
-      </c>
-      <c r="F70" s="9"/>
-      <c r="G70" s="28" t="s">
-        <v>427</v>
-      </c>
-      <c r="H70" s="28" t="s">
-        <v>429</v>
-      </c>
-      <c r="I70" s="28" t="s">
-        <v>418</v>
-      </c>
-      <c r="J70" s="28" t="s">
-        <v>422</v>
-      </c>
-      <c r="K70" s="28" t="s">
-        <v>420</v>
-      </c>
-      <c r="L70" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="M70" s="67" t="s">
-        <v>433</v>
-      </c>
-      <c r="N70" s="28" t="s">
-        <v>435</v>
-      </c>
-      <c r="O70" s="28" t="s">
-        <v>437</v>
-      </c>
-      <c r="P70" s="28" t="s">
-        <v>440</v>
-      </c>
-      <c r="Q70" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="R70" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="S70" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="T70" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="U70" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="V70" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22">
+        <v>341</v>
+      </c>
+      <c r="F70" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="B71" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C71" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="D71" s="9" t="s">
-        <v>146</v>
+      <c r="D71" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E71" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="F71" s="10"/>
+        <v>326</v>
+      </c>
+      <c r="F71" s="28" t="s">
+        <v>326</v>
+      </c>
       <c r="G71" s="9" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I71" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="J71" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="K71" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="L71" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="M71" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="N71" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O71" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="P71" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q71" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="R71" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="S71" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="T71" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="U71" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="V71" s="28" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22">
+        <v>551</v>
+      </c>
+      <c r="I71" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="B72" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="D72" s="10"/>
       <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="9"/>
-      <c r="L72" s="9"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="10"/>
-      <c r="O72" s="10"/>
-      <c r="P72" s="10"/>
-      <c r="Q72" s="10"/>
-      <c r="R72" s="10"/>
-      <c r="S72" s="10"/>
-      <c r="T72" s="10"/>
-      <c r="U72" s="10"/>
-      <c r="V72" s="10" t="s">
+      <c r="F72" s="9"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="1:22" s="5" customFormat="1">
+    <row r="74" spans="1:12" s="5" customFormat="1">
       <c r="A74" s="65" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B74" s="64" t="s">
-        <v>408</v>
+        <v>555</v>
       </c>
       <c r="D74" s="33"/>
     </row>
-    <row r="75" spans="1:22">
+    <row r="75" spans="1:12">
       <c r="B75" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C75" s="9" t="s">
-        <v>5</v>
+      <c r="C75" s="28" t="s">
+        <v>406</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>442</v>
-      </c>
-      <c r="E75" s="28" t="s">
-        <v>444</v>
-      </c>
-      <c r="F75" s="9"/>
+        <v>404</v>
+      </c>
+      <c r="E75" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="G75" s="28" t="s">
-        <v>448</v>
-      </c>
-      <c r="H75" s="28" t="s">
-        <v>446</v>
-      </c>
-      <c r="I75" s="48" t="s">
-        <v>226</v>
+        <v>379</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>257</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>2</v>
+        <v>139</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>138</v>
+        <v>259</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="M75" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="N75" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="O75" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="B76" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C76" s="28" t="s">
-        <v>449</v>
+        <v>399</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>441</v>
-      </c>
-      <c r="E76" s="28" t="s">
-        <v>443</v>
-      </c>
-      <c r="F76" s="9"/>
+        <v>401</v>
+      </c>
+      <c r="E76" s="67" t="s">
+        <v>400</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>144</v>
+      </c>
       <c r="G76" s="28" t="s">
-        <v>447</v>
-      </c>
-      <c r="H76" s="28" t="s">
-        <v>445</v>
-      </c>
-      <c r="I76" s="67" t="s">
-        <v>361</v>
+        <v>402</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>346</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>144</v>
+        <v>347</v>
       </c>
       <c r="K76" s="9" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="L76" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="M76" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="N76" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="O76" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="B77" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C77" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>146</v>
+      <c r="C77" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="E77" s="28" t="s">
+        <v>403</v>
       </c>
       <c r="F77" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G77" s="9" t="s">
-        <v>146</v>
+      <c r="G77" s="28" t="s">
+        <v>343</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I77" s="28" t="s">
-        <v>330</v>
+        <v>128</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>258</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="K77" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="L77" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="M77" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="N77" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="O77" s="28" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22">
+      <c r="L77" s="28" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="B78" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C78" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="C78" s="9"/>
       <c r="D78" s="10"/>
       <c r="E78" s="10"/>
       <c r="F78" s="10"/>
       <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
+      <c r="H78" s="10"/>
       <c r="I78" s="10"/>
       <c r="J78" s="10"/>
       <c r="K78" s="10"/>
-      <c r="L78" s="10"/>
-      <c r="M78" s="10"/>
-      <c r="N78" s="10"/>
-      <c r="O78" s="10" t="s">
+      <c r="L78" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" s="5" customFormat="1">
+      <c r="A80" s="65" t="s">
+        <v>397</v>
+      </c>
+      <c r="B80" s="64" t="s">
+        <v>556</v>
+      </c>
+      <c r="D80" s="33"/>
+    </row>
+    <row r="81" spans="1:21">
+      <c r="B81" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="E81" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="F81" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="G81" s="28" t="s">
+        <v>420</v>
+      </c>
+      <c r="H81" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="I81" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="J81" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="K81" s="28" t="s">
+        <v>422</v>
+      </c>
+      <c r="L81" s="48" t="s">
+        <v>424</v>
+      </c>
+      <c r="M81" s="28" t="s">
+        <v>426</v>
+      </c>
+      <c r="N81" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="O81" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="P81" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q81" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="R81" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="S81" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="T81" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="U81" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21">
+      <c r="B82" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="D82" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="E82" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="F82" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="G82" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="H82" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="I82" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="J82" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="K82" s="28" t="s">
+        <v>421</v>
+      </c>
+      <c r="L82" s="67" t="s">
+        <v>423</v>
+      </c>
+      <c r="M82" s="28" t="s">
+        <v>425</v>
+      </c>
+      <c r="N82" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="O82" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="P82" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q82" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="R82" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="S82" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="T82" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="U82" s="9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21">
+      <c r="B83" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E83" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="I83" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="J83" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="K83" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="L83" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="M83" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N83" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O83" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="P83" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q83" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="R83" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="S83" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="T83" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="U83" s="28" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21">
+      <c r="B84" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="10"/>
+      <c r="M84" s="10"/>
+      <c r="N84" s="10"/>
+      <c r="O84" s="10"/>
+      <c r="P84" s="10"/>
+      <c r="Q84" s="10"/>
+      <c r="R84" s="10"/>
+      <c r="S84" s="10"/>
+      <c r="T84" s="10"/>
+      <c r="U84" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" s="5" customFormat="1">
+      <c r="A86" s="65" t="s">
+        <v>396</v>
+      </c>
+      <c r="B86" s="64" t="s">
+        <v>557</v>
+      </c>
+      <c r="D86" s="33"/>
+    </row>
+    <row r="87" spans="1:21">
+      <c r="B87" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" s="28" t="s">
+        <v>432</v>
+      </c>
+      <c r="E87" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="F87" s="28" t="s">
+        <v>438</v>
+      </c>
+      <c r="G87" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="H87" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="K87" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="L87" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="M87" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="N87" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21">
+      <c r="B88" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="D88" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="E88" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="F88" s="28" t="s">
+        <v>437</v>
+      </c>
+      <c r="G88" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="H88" s="67" t="s">
+        <v>354</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="K88" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="L88" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="M88" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="N88" s="9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21">
+      <c r="B89" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H89" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="I89" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="K89" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="L89" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="M89" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="N89" s="28" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21">
+      <c r="B90" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="10"/>
+      <c r="K90" s="10"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="10"/>
+      <c r="N90" s="10" t="s">
         <v>147</v>
       </c>
     </row>
@@ -7536,7 +7963,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1">
@@ -7544,10 +7971,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1">
@@ -7555,15 +7982,15 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1">
       <c r="A4" s="27" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1">
@@ -7575,13 +8002,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -7589,10 +8016,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -7600,7 +8027,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>7</v>
@@ -7622,7 +8049,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="68" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="D11" s="68">
         <v>1</v>
@@ -7638,7 +8065,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -7676,7 +8103,7 @@
         <v>21</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="L16" s="10" t="s">
         <v>22</v>
@@ -7687,7 +8114,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>24</v>
@@ -7711,7 +8138,7 @@
         <v>30</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="L17" s="10" t="s">
         <v>31</v>
@@ -7775,7 +8202,7 @@
         <v>38</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>4</v>
@@ -7792,54 +8219,54 @@
         <v>40</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="B23" s="9" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -7862,10 +8289,10 @@
         <v>9</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>32</v>
@@ -7897,7 +8324,7 @@
         <v>45</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>4</v>
@@ -7926,7 +8353,7 @@
         <v>51</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>52</v>
@@ -8078,7 +8505,7 @@
         <v>4</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -8131,7 +8558,7 @@
         <v>93</v>
       </c>
       <c r="R36" s="10" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -8181,10 +8608,10 @@
         <v>105</v>
       </c>
       <c r="Q37" s="10" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="R37" s="10" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -8237,7 +8664,7 @@
         <v>110</v>
       </c>
       <c r="R38" s="10" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -8272,7 +8699,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -8395,7 +8822,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
     </row>
     <row r="50" spans="1:8">
